--- a/OpCodeSamples.xlsx
+++ b/OpCodeSamples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chatelao\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29D10DF1-0CB7-470E-AA68-6F80275B5C49}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D23C52-A5FA-4C15-9ADB-3DF9910168E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{1E4DB96B-D72F-4DC5-A685-D213D01654C3}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="141">
-  <si>
-    <t>ADD R0, R2, R3        //R1 = R2 + R3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="151">
   <si>
     <t>ADD R1, R2, R3        //R1 = R2 + R3</t>
   </si>
@@ -42,27 +39,9 @@
     <t>ADD R1, R2, 0xABCD    //R1 = R2 + 0xABCD</t>
   </si>
   <si>
-    <t>SUB R1, R2, R3        //R1 = R2 - R3</t>
-  </si>
-  <si>
-    <t>D9BC2A72</t>
-  </si>
-  <si>
-    <t>SUB R1, R2, 0xABCD    //R1 = R2 - 0xABCD</t>
-  </si>
-  <si>
-    <t>AND R1, R2, R3        //R1 = R2 &amp; R3</t>
-  </si>
-  <si>
     <t>002c</t>
   </si>
   <si>
-    <t>D9BC4A72</t>
-  </si>
-  <si>
-    <t>AND R1, R2, 0xABCD    //R1 = R2 &amp; 0xABCD</t>
-  </si>
-  <si>
     <t>OR R1, R2, R3         //R1 = R2 | R3</t>
   </si>
   <si>
@@ -447,18 +426,70 @@
     <t>Addr</t>
   </si>
   <si>
-    <t>Bin</t>
+    <t>OpCode</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>A-Mode</t>
+  </si>
+  <si>
+    <t>Func</t>
+  </si>
+  <si>
+    <t>Imm[3:0]</t>
+  </si>
+  <si>
+    <t>Imm[7:4]</t>
+  </si>
+  <si>
+    <t>Imm[11:8]</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>ADD R0, R1, R2        //R0 = R1 + R2</t>
+  </si>
+  <si>
+    <t>RSrc1</t>
+  </si>
+  <si>
+    <t>RDst</t>
+  </si>
+  <si>
+    <t>SUB R3, R0, R1        //R3 = R0 - R1</t>
+  </si>
+  <si>
+    <t>DBBC4A72</t>
+  </si>
+  <si>
+    <t>AND R3, R2, 0xABCD    //R1 = R2 &amp; 0xABCD</t>
+  </si>
+  <si>
+    <t>AND R0, R2, R3        //R1 = R2 &amp; R3</t>
+  </si>
+  <si>
+    <t>Imm[15:12] / RSrc2</t>
+  </si>
+  <si>
+    <t>D3BC2A72</t>
+  </si>
+  <si>
+    <t>SUB R3, R0, 0xABCD    //R3 = R0 - 0xABCD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0000"/>
-    <numFmt numFmtId="169" formatCode="00000000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0000"/>
+    <numFmt numFmtId="165" formatCode="00000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,6 +510,13 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -497,32 +535,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -835,1155 +878,4368 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B173187C-6830-4BAC-8FF3-1B389263DA75}">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="11.42578125" style="2"/>
-    <col min="3" max="3" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="4" customWidth="1"/>
+    <col min="10" max="11" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="65.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="G1" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="e">
-        <f>HEX2BIN(D2)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D2" s="3">
-        <v>38000070</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="str">
+        <f>HEX2BIN(MIDB($N2,1,1))&amp;"("&amp;MIDB($N2,1,1)&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N2,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N2,2,1)),4)&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N2,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N2,2,1)),2))&amp;")"</f>
+        <v>00(0)</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f>HEX2BIN(MIDB($N2,3,1))&amp;"("&amp;MIDB($N2,3,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="G2" s="4" t="str">
+        <f>HEX2BIN(MIDB($N2,4,1))&amp;"("&amp;MIDB($N2,4,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f>HEX2BIN(MIDB($N2,5,1))&amp;"("&amp;MIDB($N2,5,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="I2" s="4" t="str">
+        <f>HEX2BIN(MIDB($N2,6,1))&amp;"("&amp;MIDB($N2,6,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="J2" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N2,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N2,7,1)),3,2))&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="K2" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N2,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N2,7,1)),1,2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="L2" s="4" t="str">
+        <f>HEX2BIN(MIDB($N2,7,1))</f>
+        <v>111</v>
+      </c>
+      <c r="M2" s="4" t="str">
+        <f>HEX2BIN(MIDB($N2,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>24000070</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="e">
-        <f t="shared" ref="C3:C43" si="0">HEX2BIN(D3)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="4" t="str">
+        <f>HEX2BIN(MIDB($N3,1,1))&amp;"("&amp;MIDB($N3,1,1)&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N3,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N3,2,1)),4)&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N3,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N3,2,1)),2))&amp;")"</f>
+        <v>01(1)</v>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f>HEX2BIN(MIDB($N3,3,1))&amp;"("&amp;MIDB($N3,3,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="G3" s="4" t="str">
+        <f>HEX2BIN(MIDB($N3,4,1))&amp;"("&amp;MIDB($N3,4,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="H3" s="4" t="str">
+        <f>HEX2BIN(MIDB($N3,5,1))&amp;"("&amp;MIDB($N3,5,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f>HEX2BIN(MIDB($N3,6,1))&amp;"("&amp;MIDB($N3,6,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="J3" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N3,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N3,7,1)),3,2))&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="K3" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N3,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N3,7,1)),1,2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="L3" s="4" t="str">
+        <f>HEX2BIN(MIDB($N3,7,1))</f>
+        <v>111</v>
+      </c>
+      <c r="M3" s="4" t="str">
+        <f>HEX2BIN(MIDB($N3,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
         <v>39000070</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f>HEX2BIN(MIDB($N4,1,1))&amp;"("&amp;MIDB($N4,1,1)&amp;")"</f>
+        <v>1101(D)</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N4,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N4,2,1)),4)&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N4,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N4,2,1)),2))&amp;")"</f>
+        <v>01(1)</v>
+      </c>
+      <c r="F4" s="4" t="str">
+        <f>HEX2BIN(MIDB($N4,3,1))&amp;"("&amp;MIDB($N4,3,1)&amp;")"</f>
+        <v>1011(B)</v>
+      </c>
+      <c r="G4" s="4" t="str">
+        <f>HEX2BIN(MIDB($N4,4,1))&amp;"("&amp;MIDB($N4,4,1)&amp;")"</f>
+        <v>1100(C)</v>
+      </c>
+      <c r="H4" s="4" t="str">
+        <f>HEX2BIN(MIDB($N4,5,1))&amp;"("&amp;MIDB($N4,5,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <f>HEX2BIN(MIDB($N4,6,1))&amp;"("&amp;MIDB($N4,6,1)&amp;")"</f>
+        <v>1010(A)</v>
+      </c>
+      <c r="J4" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N4,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N4,7,1)),3,2))&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="K4" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N4,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N4,7,1)),1,2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="L4" s="4" t="str">
+        <f>HEX2BIN(MIDB($N4,7,1))</f>
+        <v>111</v>
+      </c>
+      <c r="M4" s="4" t="str">
+        <f>HEX2BIN(MIDB($N4,8,1))</f>
+        <v>10</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="e">
-        <f>HEX2BIN("D9BC0A72")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="O4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>15</v>
       </c>
       <c r="B5" s="2">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="str">
-        <f>HEX2BIN("72")</f>
-        <v>1110010</v>
-      </c>
-      <c r="D5" s="3">
-        <v>39002070</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="str">
+        <f>HEX2BIN(MIDB($N5,1,1))&amp;"("&amp;MIDB($N5,1,1)&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N5,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N5,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N5,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N5,2,1)),2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="F5" s="4" t="str">
+        <f>HEX2BIN(MIDB($N5,3,1))&amp;"("&amp;MIDB($N5,3,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <f>HEX2BIN(MIDB($N5,4,1))&amp;"("&amp;MIDB($N5,4,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="H5" s="4" t="str">
+        <f>HEX2BIN(MIDB($N5,5,1))&amp;"("&amp;MIDB($N5,5,1)&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <f>HEX2BIN(MIDB($N5,6,1))&amp;"("&amp;MIDB($N5,6,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N5,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N5,7,1)),3,2))&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="K5" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N5,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N5,7,1)),1,2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="L5" s="4" t="str">
+        <f>HEX2BIN(MIDB($N5,7,1))</f>
+        <v>111</v>
+      </c>
+      <c r="M5" s="4" t="str">
+        <f>HEX2BIN(MIDB($N5,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>13002070</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>16</v>
       </c>
       <c r="B6" s="2">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="str">
+        <f>HEX2BIN(MIDB($N6,1,1))&amp;"("&amp;MIDB($N6,1,1)&amp;")"</f>
+        <v>1101(D)</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N6,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N6,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N6,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N6,2,1)),2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <f>HEX2BIN(MIDB($N6,3,1))&amp;"("&amp;MIDB($N6,3,1)&amp;")"</f>
+        <v>1011(B)</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f>HEX2BIN(MIDB($N6,4,1))&amp;"("&amp;MIDB($N6,4,1)&amp;")"</f>
+        <v>1100(C)</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <f>HEX2BIN(MIDB($N6,5,1))&amp;"("&amp;MIDB($N6,5,1)&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <f>HEX2BIN(MIDB($N6,6,1))&amp;"("&amp;MIDB($N6,6,1)&amp;")"</f>
+        <v>1010(A)</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N6,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N6,7,1)),3,2))&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="K6" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N6,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N6,7,1)),1,2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="L6" s="4" t="str">
+        <f>HEX2BIN(MIDB($N6,7,1))</f>
+        <v>111</v>
+      </c>
+      <c r="M6" s="4" t="str">
+        <f>HEX2BIN(MIDB($N6,8,1))</f>
+        <v>10</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>18</v>
       </c>
       <c r="B7" s="2">
         <v>28</v>
       </c>
-      <c r="C7" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D7" s="3">
-        <v>39004070</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="str">
+        <f>HEX2BIN(MIDB($N7,1,1))&amp;"("&amp;MIDB($N7,1,1)&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N7,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N7,2,1)),4)&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N7,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N7,2,1)),2))&amp;")"</f>
+        <v>00(0)</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f>HEX2BIN(MIDB($N7,3,1))&amp;"("&amp;MIDB($N7,3,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f>HEX2BIN(MIDB($N7,4,1))&amp;"("&amp;MIDB($N7,4,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="H7" s="4" t="str">
+        <f>HEX2BIN(MIDB($N7,5,1))&amp;"("&amp;MIDB($N7,5,1)&amp;")"</f>
+        <v>100(4)</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f>HEX2BIN(MIDB($N7,6,1))&amp;"("&amp;MIDB($N7,6,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N7,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N7,7,1)),3,2))&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="K7" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N7,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N7,7,1)),1,2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="L7" s="4" t="str">
+        <f>HEX2BIN(MIDB($N7,7,1))</f>
+        <v>111</v>
+      </c>
+      <c r="M7" s="4" t="str">
+        <f>HEX2BIN(MIDB($N7,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>38004070</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f>HEX2BIN(MIDB($N8,1,1))&amp;"("&amp;MIDB($N8,1,1)&amp;")"</f>
+        <v>1101(D)</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N8,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N8,2,1)),4)&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N8,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N8,2,1)),2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="F8" s="4" t="str">
+        <f>HEX2BIN(MIDB($N8,3,1))&amp;"("&amp;MIDB($N8,3,1)&amp;")"</f>
+        <v>1011(B)</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f>HEX2BIN(MIDB($N8,4,1))&amp;"("&amp;MIDB($N8,4,1)&amp;")"</f>
+        <v>1100(C)</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f>HEX2BIN(MIDB($N8,5,1))&amp;"("&amp;MIDB($N8,5,1)&amp;")"</f>
+        <v>100(4)</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f>HEX2BIN(MIDB($N8,6,1))&amp;"("&amp;MIDB($N8,6,1)&amp;")"</f>
+        <v>1010(A)</v>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N8,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N8,7,1)),3,2))&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="K8" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N8,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N8,7,1)),1,2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="L8" s="4" t="str">
+        <f>HEX2BIN(MIDB($N8,7,1))</f>
+        <v>111</v>
+      </c>
+      <c r="M8" s="4" t="str">
+        <f>HEX2BIN(MIDB($N8,8,1))</f>
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2">
         <v>30</v>
       </c>
-      <c r="C9" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="4" t="str">
+        <f>HEX2BIN(MIDB($N9,1,1))&amp;"("&amp;MIDB($N9,1,1)&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N9,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N9,2,1)),4)&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N9,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N9,2,1)),2))&amp;")"</f>
+        <v>01(1)</v>
+      </c>
+      <c r="F9" s="4" t="str">
+        <f>HEX2BIN(MIDB($N9,3,1))&amp;"("&amp;MIDB($N9,3,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f>HEX2BIN(MIDB($N9,4,1))&amp;"("&amp;MIDB($N9,4,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="H9" s="4" t="str">
+        <f>HEX2BIN(MIDB($N9,5,1))&amp;"("&amp;MIDB($N9,5,1)&amp;")"</f>
+        <v>110(6)</v>
+      </c>
+      <c r="I9" s="4" t="str">
+        <f>HEX2BIN(MIDB($N9,6,1))&amp;"("&amp;MIDB($N9,6,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N9,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N9,7,1)),3,2))&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="K9" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N9,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N9,7,1)),1,2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="L9" s="4" t="str">
+        <f>HEX2BIN(MIDB($N9,7,1))</f>
+        <v>111</v>
+      </c>
+      <c r="M9" s="4" t="str">
+        <f>HEX2BIN(MIDB($N9,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>39006070</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2">
         <v>34</v>
       </c>
-      <c r="C10" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="str">
+        <f>HEX2BIN(MIDB($N10,1,1))&amp;"("&amp;MIDB($N10,1,1)&amp;")"</f>
+        <v>1101(D)</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N10,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N10,2,1)),4)&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N10,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N10,2,1)),2))&amp;")"</f>
+        <v>01(1)</v>
+      </c>
+      <c r="F10" s="4" t="str">
+        <f>HEX2BIN(MIDB($N10,3,1))&amp;"("&amp;MIDB($N10,3,1)&amp;")"</f>
+        <v>1011(B)</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f>HEX2BIN(MIDB($N10,4,1))&amp;"("&amp;MIDB($N10,4,1)&amp;")"</f>
+        <v>1100(C)</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <f>HEX2BIN(MIDB($N10,5,1))&amp;"("&amp;MIDB($N10,5,1)&amp;")"</f>
+        <v>110(6)</v>
+      </c>
+      <c r="I10" s="4" t="str">
+        <f>HEX2BIN(MIDB($N10,6,1))&amp;"("&amp;MIDB($N10,6,1)&amp;")"</f>
+        <v>1010(A)</v>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N10,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N10,7,1)),3,2))&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="K10" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N10,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N10,7,1)),1,2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="L10" s="4" t="str">
+        <f>HEX2BIN(MIDB($N10,7,1))</f>
+        <v>111</v>
+      </c>
+      <c r="M10" s="4" t="str">
+        <f>HEX2BIN(MIDB($N10,8,1))</f>
+        <v>10</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>24</v>
       </c>
       <c r="B11" s="2">
         <v>38</v>
       </c>
-      <c r="C11" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="str">
+        <f>HEX2BIN(MIDB($N11,1,1))&amp;"("&amp;MIDB($N11,1,1)&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N11,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N11,2,1)),4)&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N11,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N11,2,1)),2))&amp;")"</f>
+        <v>01(1)</v>
+      </c>
+      <c r="F11" s="4" t="str">
+        <f>HEX2BIN(MIDB($N11,3,1))&amp;"("&amp;MIDB($N11,3,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="G11" s="4" t="str">
+        <f>HEX2BIN(MIDB($N11,4,1))&amp;"("&amp;MIDB($N11,4,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="H11" s="4" t="str">
+        <f>HEX2BIN(MIDB($N11,5,1))&amp;"("&amp;MIDB($N11,5,1)&amp;")"</f>
+        <v>1010(A)</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f>HEX2BIN(MIDB($N11,6,1))&amp;"("&amp;MIDB($N11,6,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N11,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N11,7,1)),3,2))&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="K11" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N11,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N11,7,1)),1,2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="L11" s="4" t="str">
+        <f>HEX2BIN(MIDB($N11,7,1))</f>
+        <v>111</v>
+      </c>
+      <c r="M11" s="4" t="str">
+        <f>HEX2BIN(MIDB($N11,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <f>HEX2BIN(MIDB($N12,1,1))&amp;"("&amp;MIDB($N12,1,1)&amp;")"</f>
+        <v>1101(D)</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N12,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N12,2,1)),4)&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="E12" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N12,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N12,2,1)),2))&amp;")"</f>
+        <v>01(1)</v>
+      </c>
+      <c r="F12" s="4" t="str">
+        <f>HEX2BIN(MIDB($N12,3,1))&amp;"("&amp;MIDB($N12,3,1)&amp;")"</f>
+        <v>1011(B)</v>
+      </c>
+      <c r="G12" s="4" t="str">
+        <f>HEX2BIN(MIDB($N12,4,1))&amp;"("&amp;MIDB($N12,4,1)&amp;")"</f>
+        <v>1100(C)</v>
+      </c>
+      <c r="H12" s="4" t="str">
+        <f>HEX2BIN(MIDB($N12,5,1))&amp;"("&amp;MIDB($N12,5,1)&amp;")"</f>
+        <v>1010(A)</v>
+      </c>
+      <c r="I12" s="4" t="str">
+        <f>HEX2BIN(MIDB($N12,6,1))&amp;"("&amp;MIDB($N12,6,1)&amp;")"</f>
+        <v>1010(A)</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N12,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N12,7,1)),3,2))&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="K12" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N12,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N12,7,1)),1,2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="L12" s="4" t="str">
+        <f>HEX2BIN(MIDB($N12,7,1))</f>
+        <v>111</v>
+      </c>
+      <c r="M12" s="4" t="str">
+        <f>HEX2BIN(MIDB($N12,8,1))</f>
+        <v>10</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>27</v>
       </c>
       <c r="B13" s="2">
         <v>40</v>
       </c>
-      <c r="C13" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="str">
+        <f>HEX2BIN(MIDB($N13,1,1))&amp;"("&amp;MIDB($N13,1,1)&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N13,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N13,2,1)),4)&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N13,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N13,2,1)),2))&amp;")"</f>
+        <v>01(1)</v>
+      </c>
+      <c r="F13" s="4" t="str">
+        <f>HEX2BIN(MIDB($N13,3,1))&amp;"("&amp;MIDB($N13,3,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="G13" s="4" t="str">
+        <f>HEX2BIN(MIDB($N13,4,1))&amp;"("&amp;MIDB($N13,4,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="H13" s="4" t="str">
+        <f>HEX2BIN(MIDB($N13,5,1))&amp;"("&amp;MIDB($N13,5,1)&amp;")"</f>
+        <v>1100(C)</v>
+      </c>
+      <c r="I13" s="4" t="str">
+        <f>HEX2BIN(MIDB($N13,6,1))&amp;"("&amp;MIDB($N13,6,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N13,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N13,7,1)),3,2))&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="K13" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N13,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N13,7,1)),1,2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="L13" s="4" t="str">
+        <f>HEX2BIN(MIDB($N13,7,1))</f>
+        <v>111</v>
+      </c>
+      <c r="M13" s="4" t="str">
+        <f>HEX2BIN(MIDB($N13,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>28</v>
       </c>
       <c r="B14" s="2">
         <v>44</v>
       </c>
-      <c r="C14" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="4" t="str">
+        <f>HEX2BIN(MIDB($N14,1,1))&amp;"("&amp;MIDB($N14,1,1)&amp;")"</f>
+        <v>1101(D)</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N14,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N14,2,1)),4)&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N14,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N14,2,1)),2))&amp;")"</f>
+        <v>01(1)</v>
+      </c>
+      <c r="F14" s="4" t="str">
+        <f>HEX2BIN(MIDB($N14,3,1))&amp;"("&amp;MIDB($N14,3,1)&amp;")"</f>
+        <v>1011(B)</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f>HEX2BIN(MIDB($N14,4,1))&amp;"("&amp;MIDB($N14,4,1)&amp;")"</f>
+        <v>1100(C)</v>
+      </c>
+      <c r="H14" s="4" t="str">
+        <f>HEX2BIN(MIDB($N14,5,1))&amp;"("&amp;MIDB($N14,5,1)&amp;")"</f>
+        <v>1100(C)</v>
+      </c>
+      <c r="I14" s="4" t="str">
+        <f>HEX2BIN(MIDB($N14,6,1))&amp;"("&amp;MIDB($N14,6,1)&amp;")"</f>
+        <v>1010(A)</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N14,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N14,7,1)),3,2))&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="K14" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N14,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N14,7,1)),1,2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="L14" s="4" t="str">
+        <f>HEX2BIN(MIDB($N14,7,1))</f>
+        <v>111</v>
+      </c>
+      <c r="M14" s="4" t="str">
+        <f>HEX2BIN(MIDB($N14,8,1))</f>
+        <v>10</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>30</v>
       </c>
       <c r="B15" s="2">
         <v>48</v>
       </c>
-      <c r="C15" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="4" t="str">
+        <f>HEX2BIN(MIDB($N15,1,1))&amp;"("&amp;MIDB($N15,1,1)&amp;")"</f>
+        <v>1000(8)</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N15,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N15,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N15,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N15,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F15" s="4" t="str">
+        <f>HEX2BIN(MIDB($N15,3,1))&amp;"("&amp;MIDB($N15,3,1)&amp;")"</f>
+        <v>111(7)</v>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f>HEX2BIN(MIDB($N15,4,1))&amp;"("&amp;MIDB($N15,4,1)&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="H15" s="4" t="str">
+        <f>HEX2BIN(MIDB($N15,5,1))&amp;"("&amp;MIDB($N15,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <f>HEX2BIN(MIDB($N15,6,1))&amp;"("&amp;MIDB($N15,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J15" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N15,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N15,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K15" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N15,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N15,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L15" s="4" t="str">
+        <f>HEX2BIN(MIDB($N15,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="4" t="str">
+        <f>HEX2BIN(MIDB($N15,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>8072</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D16" s="3">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <f>HEX2BIN(MIDB($N16,1,1))&amp;"("&amp;MIDB($N16,1,1)&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N16,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N16,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E16" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N16,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N16,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F16" s="4" t="str">
+        <f>HEX2BIN(MIDB($N16,3,1))&amp;"("&amp;MIDB($N16,3,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f>HEX2BIN(MIDB($N16,4,1))&amp;"("&amp;MIDB($N16,4,1)&amp;")"</f>
+        <v>1000(8)</v>
+      </c>
+      <c r="H16" s="4" t="str">
+        <f>HEX2BIN(MIDB($N16,5,1))&amp;"("&amp;MIDB($N16,5,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="I16" s="4" t="str">
+        <f>HEX2BIN(MIDB($N16,6,1))&amp;"("&amp;MIDB($N16,6,1)&amp;")"</f>
+        <v>111(7)</v>
+      </c>
+      <c r="J16" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N16,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N16,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K16" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N16,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N16,7,1)),1,2))&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="L16" s="4" t="str">
+        <f>HEX2BIN(MIDB($N16,7,1))</f>
+        <v>10</v>
+      </c>
+      <c r="M16" s="4" t="str">
+        <f>HEX2BIN(MIDB($N16,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
         <v>1008072</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>32</v>
       </c>
       <c r="B17" s="2">
         <v>50</v>
       </c>
-      <c r="C17" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17" s="4" t="str">
+        <f>HEX2BIN(MIDB($N17,1,1))&amp;"("&amp;MIDB($N17,1,1)&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="D17" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N17,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N17,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N17,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N17,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F17" s="4" t="str">
+        <f>HEX2BIN(MIDB($N17,3,1))&amp;"("&amp;MIDB($N17,3,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="G17" s="4" t="str">
+        <f>HEX2BIN(MIDB($N17,4,1))&amp;"("&amp;MIDB($N17,4,1)&amp;")"</f>
+        <v>1000(8)</v>
+      </c>
+      <c r="H17" s="4" t="str">
+        <f>HEX2BIN(MIDB($N17,5,1))&amp;"("&amp;MIDB($N17,5,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="I17" s="4" t="str">
+        <f>HEX2BIN(MIDB($N17,6,1))&amp;"("&amp;MIDB($N17,6,1)&amp;")"</f>
+        <v>111(7)</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N17,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N17,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K17" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N17,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N17,7,1)),1,2))&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="L17" s="4" t="str">
+        <f>HEX2BIN(MIDB($N17,7,1))</f>
+        <v>10</v>
+      </c>
+      <c r="M17" s="4" t="str">
+        <f>HEX2BIN(MIDB($N17,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>2008072</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>33</v>
       </c>
       <c r="B18" s="2">
         <v>54</v>
       </c>
-      <c r="C18" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18" s="4" t="str">
+        <f>HEX2BIN(MIDB($N18,1,1))&amp;"("&amp;MIDB($N18,1,1)&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N18,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N18,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E18" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N18,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N18,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F18" s="4" t="str">
+        <f>HEX2BIN(MIDB($N18,3,1))&amp;"("&amp;MIDB($N18,3,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="G18" s="4" t="str">
+        <f>HEX2BIN(MIDB($N18,4,1))&amp;"("&amp;MIDB($N18,4,1)&amp;")"</f>
+        <v>1000(8)</v>
+      </c>
+      <c r="H18" s="4" t="str">
+        <f>HEX2BIN(MIDB($N18,5,1))&amp;"("&amp;MIDB($N18,5,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="I18" s="4" t="str">
+        <f>HEX2BIN(MIDB($N18,6,1))&amp;"("&amp;MIDB($N18,6,1)&amp;")"</f>
+        <v>111(7)</v>
+      </c>
+      <c r="J18" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N18,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N18,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K18" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N18,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N18,7,1)),1,2))&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="L18" s="4" t="str">
+        <f>HEX2BIN(MIDB($N18,7,1))</f>
+        <v>10</v>
+      </c>
+      <c r="M18" s="4" t="str">
+        <f>HEX2BIN(MIDB($N18,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>3008072</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>35</v>
       </c>
       <c r="B19" s="2">
         <v>58</v>
       </c>
-      <c r="C19" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C19" s="4" t="str">
+        <f>HEX2BIN(MIDB($N19,1,1))&amp;"("&amp;MIDB($N19,1,1)&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="D19" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N19,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N19,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N19,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N19,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F19" s="4" t="str">
+        <f>HEX2BIN(MIDB($N19,3,1))&amp;"("&amp;MIDB($N19,3,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="G19" s="4" t="str">
+        <f>HEX2BIN(MIDB($N19,4,1))&amp;"("&amp;MIDB($N19,4,1)&amp;")"</f>
+        <v>1000(8)</v>
+      </c>
+      <c r="H19" s="4" t="str">
+        <f>HEX2BIN(MIDB($N19,5,1))&amp;"("&amp;MIDB($N19,5,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="I19" s="4" t="str">
+        <f>HEX2BIN(MIDB($N19,6,1))&amp;"("&amp;MIDB($N19,6,1)&amp;")"</f>
+        <v>111(7)</v>
+      </c>
+      <c r="J19" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N19,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N19,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K19" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N19,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N19,7,1)),1,2))&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="L19" s="4" t="str">
+        <f>HEX2BIN(MIDB($N19,7,1))</f>
+        <v>10</v>
+      </c>
+      <c r="M19" s="4" t="str">
+        <f>HEX2BIN(MIDB($N19,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
         <v>2008072</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <f>HEX2BIN(MIDB($N20,1,1))&amp;"("&amp;MIDB($N20,1,1)&amp;")"</f>
+        <v>1101(D)</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N20,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N20,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N20,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N20,2,1)),2))&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="F20" s="4" t="str">
+        <f>HEX2BIN(MIDB($N20,3,1))&amp;"("&amp;MIDB($N20,3,1)&amp;")"</f>
+        <v>1011(B)</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <f>HEX2BIN(MIDB($N20,4,1))&amp;"("&amp;MIDB($N20,4,1)&amp;")"</f>
+        <v>1100(C)</v>
+      </c>
+      <c r="H20" s="4" t="str">
+        <f>HEX2BIN(MIDB($N20,5,1))&amp;"("&amp;MIDB($N20,5,1)&amp;")"</f>
+        <v>1000(8)</v>
+      </c>
+      <c r="I20" s="4" t="str">
+        <f>HEX2BIN(MIDB($N20,6,1))&amp;"("&amp;MIDB($N20,6,1)&amp;")"</f>
+        <v>1010(A)</v>
+      </c>
+      <c r="J20" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N20,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N20,7,1)),3,2))&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="K20" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N20,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N20,7,1)),1,2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="L20" s="4" t="str">
+        <f>HEX2BIN(MIDB($N20,7,1))</f>
+        <v>111</v>
+      </c>
+      <c r="M20" s="4" t="str">
+        <f>HEX2BIN(MIDB($N20,8,1))</f>
+        <v>10</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>38</v>
       </c>
       <c r="B21" s="2">
         <v>60</v>
       </c>
-      <c r="C21" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="C21" s="4" t="str">
+        <f>HEX2BIN(MIDB($N21,1,1))&amp;"("&amp;MIDB($N21,1,1)&amp;")"</f>
+        <v>110(6)</v>
+      </c>
+      <c r="D21" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N21,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N21,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E21" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N21,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N21,2,1)),2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="F21" s="4" t="str">
+        <f>HEX2BIN(MIDB($N21,3,1))&amp;"("&amp;MIDB($N21,3,1)&amp;")"</f>
+        <v>100(4)</v>
+      </c>
+      <c r="G21" s="4" t="str">
+        <f>HEX2BIN(MIDB($N21,4,1))&amp;"("&amp;MIDB($N21,4,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="H21" s="4" t="str">
+        <f>HEX2BIN(MIDB($N21,5,1))&amp;"("&amp;MIDB($N21,5,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="I21" s="4" t="str">
+        <f>HEX2BIN(MIDB($N21,6,1))&amp;"("&amp;MIDB($N21,6,1)&amp;")"</f>
+        <v>110(6)</v>
+      </c>
+      <c r="J21" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N21,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N21,7,1)),3,2))&amp;")"</f>
+        <v>00(0)</v>
+      </c>
+      <c r="K21" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N21,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N21,7,1)),1,2))&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="L21" s="4" t="str">
+        <f>HEX2BIN(MIDB($N21,7,1))</f>
+        <v>1000</v>
+      </c>
+      <c r="M21" s="4" t="str">
+        <f>HEX2BIN(MIDB($N21,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>6340068</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>39</v>
       </c>
       <c r="B22" s="2">
         <v>64</v>
       </c>
-      <c r="C22" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C22" s="4" t="str">
+        <f>HEX2BIN(MIDB($N22,1,1))&amp;"("&amp;MIDB($N22,1,1)&amp;")"</f>
+        <v>110(6)</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N22,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N22,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N22,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N22,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F22" s="4" t="str">
+        <f>HEX2BIN(MIDB($N22,3,1))&amp;"("&amp;MIDB($N22,3,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f>HEX2BIN(MIDB($N22,4,1))&amp;"("&amp;MIDB($N22,4,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="H22" s="4" t="str">
+        <f>HEX2BIN(MIDB($N22,5,1))&amp;"("&amp;MIDB($N22,5,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="I22" s="4" t="str">
+        <f>HEX2BIN(MIDB($N22,6,1))&amp;"("&amp;MIDB($N22,6,1)&amp;")"</f>
+        <v>110(6)</v>
+      </c>
+      <c r="J22" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N22,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N22,7,1)),3,2))&amp;")"</f>
+        <v>00(0)</v>
+      </c>
+      <c r="K22" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N22,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N22,7,1)),1,2))&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="L22" s="4" t="str">
+        <f>HEX2BIN(MIDB($N22,7,1))</f>
+        <v>1000</v>
+      </c>
+      <c r="M22" s="4" t="str">
+        <f>HEX2BIN(MIDB($N22,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>6000068</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40</v>
       </c>
-      <c r="C23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="4" t="str">
+        <f>HEX2BIN(MIDB($N23,1,1))&amp;"("&amp;MIDB($N23,1,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="D23" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N23,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N23,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E23" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N23,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N23,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F23" s="4" t="str">
+        <f>HEX2BIN(MIDB($N23,3,1))&amp;"("&amp;MIDB($N23,3,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f>HEX2BIN(MIDB($N23,4,1))&amp;"("&amp;MIDB($N23,4,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="H23" s="4" t="str">
+        <f>HEX2BIN(MIDB($N23,5,1))&amp;"("&amp;MIDB($N23,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I23" s="4" t="str">
+        <f>HEX2BIN(MIDB($N23,6,1))&amp;"("&amp;MIDB($N23,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J23" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N23,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N23,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K23" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N23,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N23,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L23" s="4" t="str">
+        <f>HEX2BIN(MIDB($N23,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="4" t="str">
+        <f>HEX2BIN(MIDB($N23,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>41</v>
       </c>
-      <c r="C24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="4" t="str">
+        <f>HEX2BIN(MIDB($N24,1,1))&amp;"("&amp;MIDB($N24,1,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="D24" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N24,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N24,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N24,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N24,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F24" s="4" t="str">
+        <f>HEX2BIN(MIDB($N24,3,1))&amp;"("&amp;MIDB($N24,3,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f>HEX2BIN(MIDB($N24,4,1))&amp;"("&amp;MIDB($N24,4,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="H24" s="4" t="str">
+        <f>HEX2BIN(MIDB($N24,5,1))&amp;"("&amp;MIDB($N24,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I24" s="4" t="str">
+        <f>HEX2BIN(MIDB($N24,6,1))&amp;"("&amp;MIDB($N24,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J24" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N24,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N24,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K24" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N24,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N24,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L24" s="4" t="str">
+        <f>HEX2BIN(MIDB($N24,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="4" t="str">
+        <f>HEX2BIN(MIDB($N24,8,1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>42</v>
       </c>
       <c r="B25" s="2">
         <v>68</v>
       </c>
-      <c r="C25" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="4" t="str">
+        <f>HEX2BIN(MIDB($N25,1,1))&amp;"("&amp;MIDB($N25,1,1)&amp;")"</f>
+        <v>110(6)</v>
+      </c>
+      <c r="D25" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N25,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N25,2,1)),4)&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="E25" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N25,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N25,2,1)),2))&amp;")"</f>
+        <v>00(0)</v>
+      </c>
+      <c r="F25" s="4" t="str">
+        <f>HEX2BIN(MIDB($N25,3,1))&amp;"("&amp;MIDB($N25,3,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="G25" s="4" t="str">
+        <f>HEX2BIN(MIDB($N25,4,1))&amp;"("&amp;MIDB($N25,4,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="H25" s="4" t="str">
+        <f>HEX2BIN(MIDB($N25,5,1))&amp;"("&amp;MIDB($N25,5,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="I25" s="4" t="str">
+        <f>HEX2BIN(MIDB($N25,6,1))&amp;"("&amp;MIDB($N25,6,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="J25" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N25,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N25,7,1)),3,2))&amp;")"</f>
+        <v>00(0)</v>
+      </c>
+      <c r="K25" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N25,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N25,7,1)),1,2))&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="L25" s="4" t="str">
+        <f>HEX2BIN(MIDB($N25,7,1))</f>
+        <v>1000</v>
+      </c>
+      <c r="M25" s="4" t="str">
+        <f>HEX2BIN(MIDB($N25,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43</v>
       </c>
-      <c r="C26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="4" t="str">
+        <f>HEX2BIN(MIDB($N26,1,1))&amp;"("&amp;MIDB($N26,1,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="D26" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N26,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N26,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E26" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N26,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N26,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F26" s="4" t="str">
+        <f>HEX2BIN(MIDB($N26,3,1))&amp;"("&amp;MIDB($N26,3,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="G26" s="4" t="str">
+        <f>HEX2BIN(MIDB($N26,4,1))&amp;"("&amp;MIDB($N26,4,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="H26" s="4" t="str">
+        <f>HEX2BIN(MIDB($N26,5,1))&amp;"("&amp;MIDB($N26,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I26" s="4" t="str">
+        <f>HEX2BIN(MIDB($N26,6,1))&amp;"("&amp;MIDB($N26,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J26" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N26,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N26,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K26" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N26,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N26,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L26" s="4" t="str">
+        <f>HEX2BIN(MIDB($N26,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="4" t="str">
+        <f>HEX2BIN(MIDB($N26,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="4" t="str">
+        <f>HEX2BIN(MIDB($N27,1,1))&amp;"("&amp;MIDB($N27,1,1)&amp;")"</f>
+        <v>100(4)</v>
+      </c>
+      <c r="D27" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N27,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N27,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E27" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N27,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N27,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F27" s="4" t="str">
+        <f>HEX2BIN(MIDB($N27,3,1))&amp;"("&amp;MIDB($N27,3,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="G27" s="4" t="str">
+        <f>HEX2BIN(MIDB($N27,4,1))&amp;"("&amp;MIDB($N27,4,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="H27" s="4" t="str">
+        <f>HEX2BIN(MIDB($N27,5,1))&amp;"("&amp;MIDB($N27,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I27" s="4" t="str">
+        <f>HEX2BIN(MIDB($N27,6,1))&amp;"("&amp;MIDB($N27,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J27" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N27,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N27,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K27" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N27,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N27,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L27" s="4" t="str">
+        <f>HEX2BIN(MIDB($N27,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="4" t="str">
+        <f>HEX2BIN(MIDB($N27,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>40</v>
       </c>
-      <c r="C27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="D27" s="3">
-        <v>40</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O27" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45</v>
       </c>
-      <c r="C28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="4" t="str">
+        <f>HEX2BIN(MIDB($N28,1,1))&amp;"("&amp;MIDB($N28,1,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="D28" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N28,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N28,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E28" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N28,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N28,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F28" s="4" t="str">
+        <f>HEX2BIN(MIDB($N28,3,1))&amp;"("&amp;MIDB($N28,3,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="G28" s="4" t="str">
+        <f>HEX2BIN(MIDB($N28,4,1))&amp;"("&amp;MIDB($N28,4,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="H28" s="4" t="str">
+        <f>HEX2BIN(MIDB($N28,5,1))&amp;"("&amp;MIDB($N28,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I28" s="4" t="str">
+        <f>HEX2BIN(MIDB($N28,6,1))&amp;"("&amp;MIDB($N28,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J28" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N28,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N28,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K28" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N28,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N28,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L28" s="4" t="str">
+        <f>HEX2BIN(MIDB($N28,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="4" t="str">
+        <f>HEX2BIN(MIDB($N28,8,1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>46</v>
       </c>
       <c r="B29" s="2">
         <v>70</v>
       </c>
-      <c r="C29" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="C29" s="4" t="str">
+        <f>HEX2BIN(MIDB($N29,1,1))&amp;"("&amp;MIDB($N29,1,1)&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="D29" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N29,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N29,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E29" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N29,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N29,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F29" s="4" t="str">
+        <f>HEX2BIN(MIDB($N29,3,1))&amp;"("&amp;MIDB($N29,3,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="G29" s="4" t="str">
+        <f>HEX2BIN(MIDB($N29,4,1))&amp;"("&amp;MIDB($N29,4,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="H29" s="4" t="str">
+        <f>HEX2BIN(MIDB($N29,5,1))&amp;"("&amp;MIDB($N29,5,1)&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="I29" s="4" t="str">
+        <f>HEX2BIN(MIDB($N29,6,1))&amp;"("&amp;MIDB($N29,6,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="J29" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N29,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N29,7,1)),3,2))&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="K29" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N29,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N29,7,1)),1,2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="L29" s="4" t="str">
+        <f>HEX2BIN(MIDB($N29,7,1))</f>
+        <v>111</v>
+      </c>
+      <c r="M29" s="4" t="str">
+        <f>HEX2BIN(MIDB($N29,8,1))</f>
+        <v>10</v>
+      </c>
+      <c r="N29" s="3">
         <v>10002072</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O29" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>47</v>
       </c>
       <c r="B30" s="2">
         <v>74</v>
       </c>
-      <c r="C30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="C30" s="4" t="str">
+        <f>HEX2BIN(MIDB($N30,1,1))&amp;"("&amp;MIDB($N30,1,1)&amp;")"</f>
+        <v>100(4)</v>
+      </c>
+      <c r="D30" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N30,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N30,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E30" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N30,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N30,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F30" s="4" t="str">
+        <f>HEX2BIN(MIDB($N30,3,1))&amp;"("&amp;MIDB($N30,3,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="G30" s="4" t="str">
+        <f>HEX2BIN(MIDB($N30,4,1))&amp;"("&amp;MIDB($N30,4,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="H30" s="4" t="str">
+        <f>HEX2BIN(MIDB($N30,5,1))&amp;"("&amp;MIDB($N30,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I30" s="4" t="str">
+        <f>HEX2BIN(MIDB($N30,6,1))&amp;"("&amp;MIDB($N30,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J30" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N30,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N30,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K30" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N30,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N30,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L30" s="4" t="str">
+        <f>HEX2BIN(MIDB($N30,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="4" t="str">
+        <f>HEX2BIN(MIDB($N30,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
         <v>40</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O30" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>48</v>
       </c>
       <c r="B31" s="2">
         <v>78</v>
       </c>
-      <c r="C31" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="C31" s="4" t="str">
+        <f>HEX2BIN(MIDB($N31,1,1))&amp;"("&amp;MIDB($N31,1,1)&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="D31" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N31,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N31,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E31" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N31,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N31,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F31" s="4" t="str">
+        <f>HEX2BIN(MIDB($N31,3,1))&amp;"("&amp;MIDB($N31,3,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="G31" s="4" t="str">
+        <f>HEX2BIN(MIDB($N31,4,1))&amp;"("&amp;MIDB($N31,4,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="H31" s="4" t="str">
+        <f>HEX2BIN(MIDB($N31,5,1))&amp;"("&amp;MIDB($N31,5,1)&amp;")"</f>
+        <v>111(7)</v>
+      </c>
+      <c r="I31" s="4" t="str">
+        <f>HEX2BIN(MIDB($N31,6,1))&amp;"("&amp;MIDB($N31,6,1)&amp;")"</f>
+        <v>1000(8)</v>
+      </c>
+      <c r="J31" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N31,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N31,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K31" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N31,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N31,7,1)),1,2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="L31" s="4" t="str">
+        <f>HEX2BIN(MIDB($N31,7,1))</f>
+        <v>11</v>
+      </c>
+      <c r="M31" s="4" t="str">
+        <f>HEX2BIN(MIDB($N31,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
         <v>1000783</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>49</v>
       </c>
-      <c r="C32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="4" t="str">
+        <f>HEX2BIN(MIDB($N32,1,1))&amp;"("&amp;MIDB($N32,1,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="D32" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N32,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N32,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E32" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N32,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N32,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F32" s="4" t="str">
+        <f>HEX2BIN(MIDB($N32,3,1))&amp;"("&amp;MIDB($N32,3,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="G32" s="4" t="str">
+        <f>HEX2BIN(MIDB($N32,4,1))&amp;"("&amp;MIDB($N32,4,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="H32" s="4" t="str">
+        <f>HEX2BIN(MIDB($N32,5,1))&amp;"("&amp;MIDB($N32,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I32" s="4" t="str">
+        <f>HEX2BIN(MIDB($N32,6,1))&amp;"("&amp;MIDB($N32,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J32" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N32,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N32,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K32" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N32,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N32,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L32" s="4" t="str">
+        <f>HEX2BIN(MIDB($N32,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="4" t="str">
+        <f>HEX2BIN(MIDB($N32,8,1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>50</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D33" s="3">
+        <v>39</v>
+      </c>
+      <c r="C33" s="4" t="str">
+        <f>HEX2BIN(MIDB($N33,1,1))&amp;"("&amp;MIDB($N33,1,1)&amp;")"</f>
+        <v>110(6)</v>
+      </c>
+      <c r="D33" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N33,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N33,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E33" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N33,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N33,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F33" s="4" t="str">
+        <f>HEX2BIN(MIDB($N33,3,1))&amp;"("&amp;MIDB($N33,3,1)&amp;")"</f>
+        <v>100(4)</v>
+      </c>
+      <c r="G33" s="4" t="str">
+        <f>HEX2BIN(MIDB($N33,4,1))&amp;"("&amp;MIDB($N33,4,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="H33" s="4" t="str">
+        <f>HEX2BIN(MIDB($N33,5,1))&amp;"("&amp;MIDB($N33,5,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="I33" s="4" t="str">
+        <f>HEX2BIN(MIDB($N33,6,1))&amp;"("&amp;MIDB($N33,6,1)&amp;")"</f>
+        <v>110(6)</v>
+      </c>
+      <c r="J33" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N33,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N33,7,1)),3,2))&amp;")"</f>
+        <v>00(0)</v>
+      </c>
+      <c r="K33" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N33,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N33,7,1)),1,2))&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="L33" s="4" t="str">
+        <f>HEX2BIN(MIDB($N33,7,1))</f>
+        <v>1000</v>
+      </c>
+      <c r="M33" s="4" t="str">
+        <f>HEX2BIN(MIDB($N33,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>6040068</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>51</v>
       </c>
-      <c r="C34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="4" t="str">
+        <f>HEX2BIN(MIDB($N34,1,1))&amp;"("&amp;MIDB($N34,1,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="D34" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N34,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N34,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E34" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N34,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N34,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F34" s="4" t="str">
+        <f>HEX2BIN(MIDB($N34,3,1))&amp;"("&amp;MIDB($N34,3,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="G34" s="4" t="str">
+        <f>HEX2BIN(MIDB($N34,4,1))&amp;"("&amp;MIDB($N34,4,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="H34" s="4" t="str">
+        <f>HEX2BIN(MIDB($N34,5,1))&amp;"("&amp;MIDB($N34,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I34" s="4" t="str">
+        <f>HEX2BIN(MIDB($N34,6,1))&amp;"("&amp;MIDB($N34,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J34" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N34,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N34,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K34" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N34,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N34,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L34" s="4" t="str">
+        <f>HEX2BIN(MIDB($N34,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="4" t="str">
+        <f>HEX2BIN(MIDB($N34,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>52</v>
       </c>
-      <c r="C35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="4" t="str">
+        <f>HEX2BIN(MIDB($N35,1,1))&amp;"("&amp;MIDB($N35,1,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="D35" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N35,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N35,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E35" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N35,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N35,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F35" s="4" t="str">
+        <f>HEX2BIN(MIDB($N35,3,1))&amp;"("&amp;MIDB($N35,3,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="G35" s="4" t="str">
+        <f>HEX2BIN(MIDB($N35,4,1))&amp;"("&amp;MIDB($N35,4,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="H35" s="4" t="str">
+        <f>HEX2BIN(MIDB($N35,5,1))&amp;"("&amp;MIDB($N35,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I35" s="4" t="str">
+        <f>HEX2BIN(MIDB($N35,6,1))&amp;"("&amp;MIDB($N35,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J35" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N35,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N35,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K35" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N35,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N35,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L35" s="4" t="str">
+        <f>HEX2BIN(MIDB($N35,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="4" t="str">
+        <f>HEX2BIN(MIDB($N35,8,1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>53</v>
       </c>
-      <c r="C36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="4" t="str">
+        <f>HEX2BIN(MIDB($N36,1,1))&amp;"("&amp;MIDB($N36,1,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="D36" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N36,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N36,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E36" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N36,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N36,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F36" s="4" t="str">
+        <f>HEX2BIN(MIDB($N36,3,1))&amp;"("&amp;MIDB($N36,3,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="G36" s="4" t="str">
+        <f>HEX2BIN(MIDB($N36,4,1))&amp;"("&amp;MIDB($N36,4,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="H36" s="4" t="str">
+        <f>HEX2BIN(MIDB($N36,5,1))&amp;"("&amp;MIDB($N36,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I36" s="4" t="str">
+        <f>HEX2BIN(MIDB($N36,6,1))&amp;"("&amp;MIDB($N36,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J36" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N36,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N36,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K36" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N36,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N36,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L36" s="4" t="str">
+        <f>HEX2BIN(MIDB($N36,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="4" t="str">
+        <f>HEX2BIN(MIDB($N36,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>54</v>
       </c>
-      <c r="C37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="4" t="str">
+        <f>HEX2BIN(MIDB($N37,1,1))&amp;"("&amp;MIDB($N37,1,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="D37" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N37,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N37,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E37" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N37,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N37,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F37" s="4" t="str">
+        <f>HEX2BIN(MIDB($N37,3,1))&amp;"("&amp;MIDB($N37,3,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="G37" s="4" t="str">
+        <f>HEX2BIN(MIDB($N37,4,1))&amp;"("&amp;MIDB($N37,4,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="H37" s="4" t="str">
+        <f>HEX2BIN(MIDB($N37,5,1))&amp;"("&amp;MIDB($N37,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I37" s="4" t="str">
+        <f>HEX2BIN(MIDB($N37,6,1))&amp;"("&amp;MIDB($N37,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J37" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N37,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N37,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K37" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N37,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N37,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L37" s="4" t="str">
+        <f>HEX2BIN(MIDB($N37,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="4" t="str">
+        <f>HEX2BIN(MIDB($N37,8,1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>55</v>
       </c>
       <c r="B38" s="2">
         <v>80</v>
       </c>
-      <c r="C38" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="4" t="str">
+        <f>HEX2BIN(MIDB($N38,1,1))&amp;"("&amp;MIDB($N38,1,1)&amp;")"</f>
+        <v>1010(A)</v>
+      </c>
+      <c r="D38" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N38,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N38,2,1)),4)&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="E38" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N38,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N38,2,1)),2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="F38" s="4" t="str">
+        <f>HEX2BIN(MIDB($N38,3,1))&amp;"("&amp;MIDB($N38,3,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="G38" s="4" t="str">
+        <f>HEX2BIN(MIDB($N38,4,1))&amp;"("&amp;MIDB($N38,4,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="H38" s="4" t="str">
+        <f>HEX2BIN(MIDB($N38,5,1))&amp;"("&amp;MIDB($N38,5,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="I38" s="4" t="str">
+        <f>HEX2BIN(MIDB($N38,6,1))&amp;"("&amp;MIDB($N38,6,1)&amp;")"</f>
+        <v>100(4)</v>
+      </c>
+      <c r="J38" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N38,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N38,7,1)),3,2))&amp;")"</f>
+        <v>00(0)</v>
+      </c>
+      <c r="K38" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N38,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N38,7,1)),1,2))&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="L38" s="4" t="str">
+        <f>HEX2BIN(MIDB($N38,7,1))</f>
+        <v>1000</v>
+      </c>
+      <c r="M38" s="4" t="str">
+        <f>HEX2BIN(MIDB($N38,8,1))</f>
+        <v>100</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>55</v>
       </c>
-      <c r="C39" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="4" t="str">
+        <f>HEX2BIN(MIDB($N39,1,1))&amp;"("&amp;MIDB($N39,1,1)&amp;")"</f>
+        <v>1010(A)</v>
+      </c>
+      <c r="D39" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N39,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N39,2,1)),4)&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="E39" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N39,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N39,2,1)),2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="F39" s="4" t="str">
+        <f>HEX2BIN(MIDB($N39,3,1))&amp;"("&amp;MIDB($N39,3,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="G39" s="4" t="str">
+        <f>HEX2BIN(MIDB($N39,4,1))&amp;"("&amp;MIDB($N39,4,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="H39" s="4" t="str">
+        <f>HEX2BIN(MIDB($N39,5,1))&amp;"("&amp;MIDB($N39,5,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="I39" s="4" t="str">
+        <f>HEX2BIN(MIDB($N39,6,1))&amp;"("&amp;MIDB($N39,6,1)&amp;")"</f>
+        <v>1101(D)</v>
+      </c>
+      <c r="J39" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N39,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N39,7,1)),3,2))&amp;")"</f>
+        <v>00(0)</v>
+      </c>
+      <c r="K39" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N39,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N39,7,1)),1,2))&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="L39" s="4" t="str">
+        <f>HEX2BIN(MIDB($N39,7,1))</f>
+        <v>1000</v>
+      </c>
+      <c r="M39" s="4" t="str">
+        <f>HEX2BIN(MIDB($N39,8,1))</f>
+        <v>100</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>56</v>
       </c>
       <c r="B40" s="2">
         <v>88</v>
       </c>
-      <c r="C40" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="4" t="str">
+        <f>HEX2BIN(MIDB($N40,1,1))&amp;"("&amp;MIDB($N40,1,1)&amp;")"</f>
+        <v>1010(A)</v>
+      </c>
+      <c r="D40" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N40,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N40,2,1)),4)&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="E40" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N40,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N40,2,1)),2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="F40" s="4" t="str">
+        <f>HEX2BIN(MIDB($N40,3,1))&amp;"("&amp;MIDB($N40,3,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="G40" s="4" t="str">
+        <f>HEX2BIN(MIDB($N40,4,1))&amp;"("&amp;MIDB($N40,4,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="H40" s="4" t="str">
+        <f>HEX2BIN(MIDB($N40,5,1))&amp;"("&amp;MIDB($N40,5,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="I40" s="4" t="str">
+        <f>HEX2BIN(MIDB($N40,6,1))&amp;"("&amp;MIDB($N40,6,1)&amp;")"</f>
+        <v>1010(A)</v>
+      </c>
+      <c r="J40" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N40,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N40,7,1)),3,2))&amp;")"</f>
+        <v>00(0)</v>
+      </c>
+      <c r="K40" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N40,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N40,7,1)),1,2))&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="L40" s="4" t="str">
+        <f>HEX2BIN(MIDB($N40,7,1))</f>
+        <v>1000</v>
+      </c>
+      <c r="M40" s="4" t="str">
+        <f>HEX2BIN(MIDB($N40,8,1))</f>
+        <v>100</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>57</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="C41" s="4" t="str">
+        <f>HEX2BIN(MIDB($N41,1,1))&amp;"("&amp;MIDB($N41,1,1)&amp;")"</f>
+        <v>1010(A)</v>
+      </c>
+      <c r="D41" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N41,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N41,2,1)),4)&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="E41" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N41,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N41,2,1)),2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="F41" s="4" t="str">
+        <f>HEX2BIN(MIDB($N41,3,1))&amp;"("&amp;MIDB($N41,3,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="G41" s="4" t="str">
+        <f>HEX2BIN(MIDB($N41,4,1))&amp;"("&amp;MIDB($N41,4,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="H41" s="4" t="str">
+        <f>HEX2BIN(MIDB($N41,5,1))&amp;"("&amp;MIDB($N41,5,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="I41" s="4" t="str">
+        <f>HEX2BIN(MIDB($N41,6,1))&amp;"("&amp;MIDB($N41,6,1)&amp;")"</f>
+        <v>1001(9)</v>
+      </c>
+      <c r="J41" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N41,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N41,7,1)),3,2))&amp;")"</f>
+        <v>00(0)</v>
+      </c>
+      <c r="K41" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N41,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N41,7,1)),1,2))&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="L41" s="4" t="str">
+        <f>HEX2BIN(MIDB($N41,7,1))</f>
+        <v>1000</v>
+      </c>
+      <c r="M41" s="4" t="str">
+        <f>HEX2BIN(MIDB($N41,8,1))</f>
+        <v>100</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>58</v>
       </c>
       <c r="B42" s="2">
         <v>90</v>
       </c>
-      <c r="C42" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="4" t="str">
+        <f>HEX2BIN(MIDB($N42,1,1))&amp;"("&amp;MIDB($N42,1,1)&amp;")"</f>
+        <v>1010(A)</v>
+      </c>
+      <c r="D42" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N42,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N42,2,1)),4)&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="E42" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N42,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N42,2,1)),2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="F42" s="4" t="str">
+        <f>HEX2BIN(MIDB($N42,3,1))&amp;"("&amp;MIDB($N42,3,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="G42" s="4" t="str">
+        <f>HEX2BIN(MIDB($N42,4,1))&amp;"("&amp;MIDB($N42,4,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="H42" s="4" t="str">
+        <f>HEX2BIN(MIDB($N42,5,1))&amp;"("&amp;MIDB($N42,5,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="I42" s="4" t="str">
+        <f>HEX2BIN(MIDB($N42,6,1))&amp;"("&amp;MIDB($N42,6,1)&amp;")"</f>
+        <v>101(5)</v>
+      </c>
+      <c r="J42" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N42,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N42,7,1)),3,2))&amp;")"</f>
+        <v>00(0)</v>
+      </c>
+      <c r="K42" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N42,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N42,7,1)),1,2))&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="L42" s="4" t="str">
+        <f>HEX2BIN(MIDB($N42,7,1))</f>
+        <v>1000</v>
+      </c>
+      <c r="M42" s="4" t="str">
+        <f>HEX2BIN(MIDB($N42,8,1))</f>
+        <v>100</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>58</v>
       </c>
-      <c r="C43" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="4" t="str">
+        <f>HEX2BIN(MIDB($N43,1,1))&amp;"("&amp;MIDB($N43,1,1)&amp;")"</f>
+        <v>1010(A)</v>
+      </c>
+      <c r="D43" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N43,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N43,2,1)),4)&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="E43" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N43,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N43,2,1)),2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="F43" s="4" t="str">
+        <f>HEX2BIN(MIDB($N43,3,1))&amp;"("&amp;MIDB($N43,3,1)&amp;")"</f>
+        <v>1000(8)</v>
+      </c>
+      <c r="G43" s="4" t="str">
+        <f>HEX2BIN(MIDB($N43,4,1))&amp;"("&amp;MIDB($N43,4,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="H43" s="4" t="str">
+        <f>HEX2BIN(MIDB($N43,5,1))&amp;"("&amp;MIDB($N43,5,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="I43" s="4" t="str">
+        <f>HEX2BIN(MIDB($N43,6,1))&amp;"("&amp;MIDB($N43,6,1)&amp;")"</f>
+        <v>100(4)</v>
+      </c>
+      <c r="J43" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N43,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N43,7,1)),3,2))&amp;")"</f>
+        <v>00(0)</v>
+      </c>
+      <c r="K43" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N43,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N43,7,1)),1,2))&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="L43" s="4" t="str">
+        <f>HEX2BIN(MIDB($N43,7,1))</f>
+        <v>1000</v>
+      </c>
+      <c r="M43" s="4" t="str">
+        <f>HEX2BIN(MIDB($N43,8,1))</f>
+        <v>100</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>59</v>
       </c>
       <c r="B44" s="2">
         <v>98</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="4" t="str">
+        <f>HEX2BIN(MIDB($N44,1,1))&amp;"("&amp;MIDB($N44,1,1)&amp;")"</f>
+        <v>1010(A)</v>
+      </c>
+      <c r="D44" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N44,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N44,2,1)),4)&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="E44" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N44,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N44,2,1)),2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="F44" s="4" t="str">
+        <f>HEX2BIN(MIDB($N44,3,1))&amp;"("&amp;MIDB($N44,3,1)&amp;")"</f>
+        <v>1000(8)</v>
+      </c>
+      <c r="G44" s="4" t="str">
+        <f>HEX2BIN(MIDB($N44,4,1))&amp;"("&amp;MIDB($N44,4,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="H44" s="4" t="str">
+        <f>HEX2BIN(MIDB($N44,5,1))&amp;"("&amp;MIDB($N44,5,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="I44" s="4" t="str">
+        <f>HEX2BIN(MIDB($N44,6,1))&amp;"("&amp;MIDB($N44,6,1)&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="J44" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N44,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N44,7,1)),3,2))&amp;")"</f>
+        <v>00(0)</v>
+      </c>
+      <c r="K44" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N44,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N44,7,1)),1,2))&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="L44" s="4" t="str">
+        <f>HEX2BIN(MIDB($N44,7,1))</f>
+        <v>1000</v>
+      </c>
+      <c r="M44" s="4" t="str">
+        <f>HEX2BIN(MIDB($N44,8,1))</f>
+        <v>100</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>60</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" s="3">
+        <v>58</v>
+      </c>
+      <c r="C45" s="4" t="str">
+        <f>HEX2BIN(MIDB($N45,1,1))&amp;"("&amp;MIDB($N45,1,1)&amp;")"</f>
+        <v>100(4)</v>
+      </c>
+      <c r="D45" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N45,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N45,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E45" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N45,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N45,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F45" s="4" t="str">
+        <f>HEX2BIN(MIDB($N45,3,1))&amp;"("&amp;MIDB($N45,3,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="G45" s="4" t="str">
+        <f>HEX2BIN(MIDB($N45,4,1))&amp;"("&amp;MIDB($N45,4,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="H45" s="4" t="str">
+        <f>HEX2BIN(MIDB($N45,5,1))&amp;"("&amp;MIDB($N45,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I45" s="4" t="str">
+        <f>HEX2BIN(MIDB($N45,6,1))&amp;"("&amp;MIDB($N45,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J45" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N45,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N45,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K45" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N45,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N45,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L45" s="4" t="str">
+        <f>HEX2BIN(MIDB($N45,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="4" t="str">
+        <f>HEX2BIN(MIDB($N45,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>40</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O45" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>61</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D46" s="3">
+        <v>60</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <f>HEX2BIN(MIDB($N46,1,1))&amp;"("&amp;MIDB($N46,1,1)&amp;")"</f>
+        <v>100(4)</v>
+      </c>
+      <c r="D46" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N46,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N46,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E46" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N46,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N46,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F46" s="4" t="str">
+        <f>HEX2BIN(MIDB($N46,3,1))&amp;"("&amp;MIDB($N46,3,1)&amp;")"</f>
+        <v>111(7)</v>
+      </c>
+      <c r="G46" s="4" t="str">
+        <f>HEX2BIN(MIDB($N46,4,1))&amp;"("&amp;MIDB($N46,4,1)&amp;")"</f>
+        <v>100(4)</v>
+      </c>
+      <c r="H46" s="4" t="str">
+        <f>HEX2BIN(MIDB($N46,5,1))&amp;"("&amp;MIDB($N46,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I46" s="4" t="str">
+        <f>HEX2BIN(MIDB($N46,6,1))&amp;"("&amp;MIDB($N46,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J46" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N46,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N46,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K46" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N46,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N46,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L46" s="4" t="str">
+        <f>HEX2BIN(MIDB($N46,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="4" t="str">
+        <f>HEX2BIN(MIDB($N46,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>4074</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O46" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="C47" s="4" t="str">
+        <f>HEX2BIN(MIDB($N47,1,1))&amp;"("&amp;MIDB($N47,1,1)&amp;")"</f>
+        <v>1101(D)</v>
+      </c>
+      <c r="D47" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N47,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N47,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E47" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N47,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N47,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F47" s="4" t="str">
+        <f>HEX2BIN(MIDB($N47,3,1))&amp;"("&amp;MIDB($N47,3,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="G47" s="4" t="str">
+        <f>HEX2BIN(MIDB($N47,4,1))&amp;"("&amp;MIDB($N47,4,1)&amp;")"</f>
+        <v>1100(C)</v>
+      </c>
+      <c r="H47" s="4" t="str">
+        <f>HEX2BIN(MIDB($N47,5,1))&amp;"("&amp;MIDB($N47,5,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="I47" s="4" t="str">
+        <f>HEX2BIN(MIDB($N47,6,1))&amp;"("&amp;MIDB($N47,6,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="J47" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N47,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N47,7,1)),3,2))&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="K47" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N47,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N47,7,1)),1,2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="L47" s="4" t="str">
+        <f>HEX2BIN(MIDB($N47,7,1))</f>
+        <v>111</v>
+      </c>
+      <c r="M47" s="4" t="str">
+        <f>HEX2BIN(MIDB($N47,8,1))</f>
+        <v>100</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>63</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="C48" s="4" t="str">
+        <f>HEX2BIN(MIDB($N48,1,1))&amp;"("&amp;MIDB($N48,1,1)&amp;")"</f>
+        <v>1111(F)</v>
+      </c>
+      <c r="D48" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N48,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N48,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E48" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N48,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N48,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F48" s="4" t="str">
+        <f>HEX2BIN(MIDB($N48,3,1))&amp;"("&amp;MIDB($N48,3,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="G48" s="4" t="str">
+        <f>HEX2BIN(MIDB($N48,4,1))&amp;"("&amp;MIDB($N48,4,1)&amp;")"</f>
+        <v>1110(E)</v>
+      </c>
+      <c r="H48" s="4" t="str">
+        <f>HEX2BIN(MIDB($N48,5,1))&amp;"("&amp;MIDB($N48,5,1)&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="I48" s="4" t="str">
+        <f>HEX2BIN(MIDB($N48,6,1))&amp;"("&amp;MIDB($N48,6,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="J48" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N48,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N48,7,1)),3,2))&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="K48" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N48,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N48,7,1)),1,2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="L48" s="4" t="str">
+        <f>HEX2BIN(MIDB($N48,7,1))</f>
+        <v>111</v>
+      </c>
+      <c r="M48" s="4" t="str">
+        <f>HEX2BIN(MIDB($N48,8,1))</f>
+        <v>100</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>64</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="C49" s="4" t="str">
+        <f>HEX2BIN(MIDB($N49,1,1))&amp;"("&amp;MIDB($N49,1,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="D49" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N49,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N49,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E49" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N49,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N49,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F49" s="4" t="str">
+        <f>HEX2BIN(MIDB($N49,3,1))&amp;"("&amp;MIDB($N49,3,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="G49" s="4" t="str">
+        <f>HEX2BIN(MIDB($N49,4,1))&amp;"("&amp;MIDB($N49,4,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="H49" s="4" t="str">
+        <f>HEX2BIN(MIDB($N49,5,1))&amp;"("&amp;MIDB($N49,5,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="I49" s="4" t="str">
+        <f>HEX2BIN(MIDB($N49,6,1))&amp;"("&amp;MIDB($N49,6,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="J49" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N49,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N49,7,1)),3,2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="K49" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N49,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N49,7,1)),1,2))&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="L49" s="4" t="str">
+        <f>HEX2BIN(MIDB($N49,7,1))</f>
+        <v>1011</v>
+      </c>
+      <c r="M49" s="4" t="str">
+        <f>HEX2BIN(MIDB($N49,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>65</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" s="3">
+        <v>71</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <f>HEX2BIN(MIDB($N50,1,1))&amp;"("&amp;MIDB($N50,1,1)&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="D50" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N50,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N50,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E50" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N50,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N50,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F50" s="4" t="str">
+        <f>HEX2BIN(MIDB($N50,3,1))&amp;"("&amp;MIDB($N50,3,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <f>HEX2BIN(MIDB($N50,4,1))&amp;"("&amp;MIDB($N50,4,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="H50" s="4" t="str">
+        <f>HEX2BIN(MIDB($N50,5,1))&amp;"("&amp;MIDB($N50,5,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="I50" s="4" t="str">
+        <f>HEX2BIN(MIDB($N50,6,1))&amp;"("&amp;MIDB($N50,6,1)&amp;")"</f>
+        <v>1001(9)</v>
+      </c>
+      <c r="J50" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N50,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N50,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K50" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N50,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N50,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L50" s="4" t="str">
+        <f>HEX2BIN(MIDB($N50,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="4" t="str">
+        <f>HEX2BIN(MIDB($N50,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
         <v>1000090</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O50" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>66</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="C51" s="4" t="str">
+        <f>HEX2BIN(MIDB($N51,1,1))&amp;"("&amp;MIDB($N51,1,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="D51" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N51,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N51,2,1)),4)&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="E51" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N51,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N51,2,1)),2))&amp;")"</f>
+        <v>01(1)</v>
+      </c>
+      <c r="F51" s="4" t="str">
+        <f>HEX2BIN(MIDB($N51,3,1))&amp;"("&amp;MIDB($N51,3,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="G51" s="4" t="str">
+        <f>HEX2BIN(MIDB($N51,4,1))&amp;"("&amp;MIDB($N51,4,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="H51" s="4" t="str">
+        <f>HEX2BIN(MIDB($N51,5,1))&amp;"("&amp;MIDB($N51,5,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="I51" s="4" t="str">
+        <f>HEX2BIN(MIDB($N51,6,1))&amp;"("&amp;MIDB($N51,6,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="J51" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N51,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N51,7,1)),3,2))&amp;")"</f>
+        <v>01(1)</v>
+      </c>
+      <c r="K51" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N51,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N51,7,1)),1,2))&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="L51" s="4" t="str">
+        <f>HEX2BIN(MIDB($N51,7,1))</f>
+        <v>1001</v>
+      </c>
+      <c r="M51" s="4" t="str">
+        <f>HEX2BIN(MIDB($N51,8,1))</f>
+        <v>10</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>67</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <f>HEX2BIN(MIDB($N52,1,1))&amp;"("&amp;MIDB($N52,1,1)&amp;")"</f>
+        <v>1100(C)</v>
+      </c>
+      <c r="D52" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N52,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N52,2,1)),4)&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="E52" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N52,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N52,2,1)),2))&amp;")"</f>
+        <v>01(1)</v>
+      </c>
+      <c r="F52" s="4" t="str">
+        <f>HEX2BIN(MIDB($N52,3,1))&amp;"("&amp;MIDB($N52,3,1)&amp;")"</f>
+        <v>1010(A)</v>
+      </c>
+      <c r="G52" s="4" t="str">
+        <f>HEX2BIN(MIDB($N52,4,1))&amp;"("&amp;MIDB($N52,4,1)&amp;")"</f>
+        <v>1011(B)</v>
+      </c>
+      <c r="H52" s="4" t="str">
+        <f>HEX2BIN(MIDB($N52,5,1))&amp;"("&amp;MIDB($N52,5,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="I52" s="4" t="str">
+        <f>HEX2BIN(MIDB($N52,6,1))&amp;"("&amp;MIDB($N52,6,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="J52" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N52,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N52,7,1)),3,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="K52" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N52,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N52,7,1)),1,2))&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="L52" s="4" t="str">
+        <f>HEX2BIN(MIDB($N52,7,1))</f>
+        <v>100</v>
+      </c>
+      <c r="M52" s="4" t="str">
+        <f>HEX2BIN(MIDB($N52,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>68</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="C53" s="4" t="str">
+        <f>HEX2BIN(MIDB($N53,1,1))&amp;"("&amp;MIDB($N53,1,1)&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="D53" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N53,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N53,2,1)),4)&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="E53" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N53,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N53,2,1)),2))&amp;")"</f>
+        <v>01(1)</v>
+      </c>
+      <c r="F53" s="4" t="str">
+        <f>HEX2BIN(MIDB($N53,3,1))&amp;"("&amp;MIDB($N53,3,1)&amp;")"</f>
+        <v>1010(A)</v>
+      </c>
+      <c r="G53" s="4" t="str">
+        <f>HEX2BIN(MIDB($N53,4,1))&amp;"("&amp;MIDB($N53,4,1)&amp;")"</f>
+        <v>1111(F)</v>
+      </c>
+      <c r="H53" s="4" t="str">
+        <f>HEX2BIN(MIDB($N53,5,1))&amp;"("&amp;MIDB($N53,5,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="I53" s="4" t="str">
+        <f>HEX2BIN(MIDB($N53,6,1))&amp;"("&amp;MIDB($N53,6,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="J53" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N53,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N53,7,1)),3,2))&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="K53" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N53,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N53,7,1)),1,2))&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="L53" s="4" t="str">
+        <f>HEX2BIN(MIDB($N53,7,1))</f>
+        <v>1010</v>
+      </c>
+      <c r="M53" s="4" t="str">
+        <f>HEX2BIN(MIDB($N53,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>69</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" s="3">
+        <v>82</v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <f>HEX2BIN(MIDB($N54,1,1))&amp;"("&amp;MIDB($N54,1,1)&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="D54" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N54,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N54,2,1)),4)&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="E54" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N54,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N54,2,1)),2))&amp;")"</f>
+        <v>01(1)</v>
+      </c>
+      <c r="F54" s="4" t="str">
+        <f>HEX2BIN(MIDB($N54,3,1))&amp;"("&amp;MIDB($N54,3,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="G54" s="4" t="str">
+        <f>HEX2BIN(MIDB($N54,4,1))&amp;"("&amp;MIDB($N54,4,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="H54" s="4" t="str">
+        <f>HEX2BIN(MIDB($N54,5,1))&amp;"("&amp;MIDB($N54,5,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="I54" s="4" t="str">
+        <f>HEX2BIN(MIDB($N54,6,1))&amp;"("&amp;MIDB($N54,6,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="J54" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N54,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N54,7,1)),3,2))&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="K54" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N54,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N54,7,1)),1,2))&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="L54" s="4" t="str">
+        <f>HEX2BIN(MIDB($N54,7,1))</f>
+        <v>101</v>
+      </c>
+      <c r="M54" s="4" t="str">
+        <f>HEX2BIN(MIDB($N54,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>15000050</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>70</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="C55" s="4" t="str">
+        <f>HEX2BIN(MIDB($N55,1,1))&amp;"("&amp;MIDB($N55,1,1)&amp;")"</f>
+        <v>100(4)</v>
+      </c>
+      <c r="D55" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N55,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N55,2,1)),4)&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="E55" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N55,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N55,2,1)),2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="F55" s="4" t="str">
+        <f>HEX2BIN(MIDB($N55,3,1))&amp;"("&amp;MIDB($N55,3,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="G55" s="4" t="str">
+        <f>HEX2BIN(MIDB($N55,4,1))&amp;"("&amp;MIDB($N55,4,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="H55" s="4" t="str">
+        <f>HEX2BIN(MIDB($N55,5,1))&amp;"("&amp;MIDB($N55,5,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="I55" s="4" t="str">
+        <f>HEX2BIN(MIDB($N55,6,1))&amp;"("&amp;MIDB($N55,6,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="J55" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N55,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N55,7,1)),3,2))&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="K55" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N55,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N55,7,1)),1,2))&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="L55" s="4" t="str">
+        <f>HEX2BIN(MIDB($N55,7,1))</f>
+        <v>101</v>
+      </c>
+      <c r="M55" s="4" t="str">
+        <f>HEX2BIN(MIDB($N55,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="4" t="str">
+        <f>HEX2BIN(MIDB($N56,1,1))&amp;"("&amp;MIDB($N56,1,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="D56" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N56,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N56,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E56" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N56,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N56,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F56" s="4" t="str">
+        <f>HEX2BIN(MIDB($N56,3,1))&amp;"("&amp;MIDB($N56,3,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <f>HEX2BIN(MIDB($N56,4,1))&amp;"("&amp;MIDB($N56,4,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="H56" s="4" t="str">
+        <f>HEX2BIN(MIDB($N56,5,1))&amp;"("&amp;MIDB($N56,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I56" s="4" t="str">
+        <f>HEX2BIN(MIDB($N56,6,1))&amp;"("&amp;MIDB($N56,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J56" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N56,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N56,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K56" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N56,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N56,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L56" s="4" t="str">
+        <f>HEX2BIN(MIDB($N56,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="4" t="str">
+        <f>HEX2BIN(MIDB($N56,8,1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>72</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C57" s="4" t="str">
+        <f>HEX2BIN(MIDB($N57,1,1))&amp;"("&amp;MIDB($N57,1,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="D57" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N57,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N57,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E57" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N57,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N57,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F57" s="4" t="str">
+        <f>HEX2BIN(MIDB($N57,3,1))&amp;"("&amp;MIDB($N57,3,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="G57" s="4" t="str">
+        <f>HEX2BIN(MIDB($N57,4,1))&amp;"("&amp;MIDB($N57,4,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="H57" s="4" t="str">
+        <f>HEX2BIN(MIDB($N57,5,1))&amp;"("&amp;MIDB($N57,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I57" s="4" t="str">
+        <f>HEX2BIN(MIDB($N57,6,1))&amp;"("&amp;MIDB($N57,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J57" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N57,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N57,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K57" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N57,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N57,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L57" s="4" t="str">
+        <f>HEX2BIN(MIDB($N57,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="4" t="str">
+        <f>HEX2BIN(MIDB($N57,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>73</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C58" s="4" t="str">
+        <f>HEX2BIN(MIDB($N58,1,1))&amp;"("&amp;MIDB($N58,1,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="D58" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N58,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N58,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E58" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N58,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N58,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F58" s="4" t="str">
+        <f>HEX2BIN(MIDB($N58,3,1))&amp;"("&amp;MIDB($N58,3,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="G58" s="4" t="str">
+        <f>HEX2BIN(MIDB($N58,4,1))&amp;"("&amp;MIDB($N58,4,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="H58" s="4" t="str">
+        <f>HEX2BIN(MIDB($N58,5,1))&amp;"("&amp;MIDB($N58,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I58" s="4" t="str">
+        <f>HEX2BIN(MIDB($N58,6,1))&amp;"("&amp;MIDB($N58,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J58" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N58,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N58,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K58" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N58,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N58,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L58" s="4" t="str">
+        <f>HEX2BIN(MIDB($N58,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="4" t="str">
+        <f>HEX2BIN(MIDB($N58,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>74</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C59" s="4" t="str">
+        <f>HEX2BIN(MIDB($N59,1,1))&amp;"("&amp;MIDB($N59,1,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="D59" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N59,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N59,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E59" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N59,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N59,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F59" s="4" t="str">
+        <f>HEX2BIN(MIDB($N59,3,1))&amp;"("&amp;MIDB($N59,3,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="G59" s="4" t="str">
+        <f>HEX2BIN(MIDB($N59,4,1))&amp;"("&amp;MIDB($N59,4,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="H59" s="4" t="str">
+        <f>HEX2BIN(MIDB($N59,5,1))&amp;"("&amp;MIDB($N59,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I59" s="4" t="str">
+        <f>HEX2BIN(MIDB($N59,6,1))&amp;"("&amp;MIDB($N59,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J59" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N59,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N59,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K59" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N59,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N59,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L59" s="4" t="str">
+        <f>HEX2BIN(MIDB($N59,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M59" s="4" t="str">
+        <f>HEX2BIN(MIDB($N59,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>75</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C60" s="4" t="str">
+        <f>HEX2BIN(MIDB($N60,1,1))&amp;"("&amp;MIDB($N60,1,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="D60" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N60,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N60,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E60" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N60,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N60,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F60" s="4" t="str">
+        <f>HEX2BIN(MIDB($N60,3,1))&amp;"("&amp;MIDB($N60,3,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="G60" s="4" t="str">
+        <f>HEX2BIN(MIDB($N60,4,1))&amp;"("&amp;MIDB($N60,4,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="H60" s="4" t="str">
+        <f>HEX2BIN(MIDB($N60,5,1))&amp;"("&amp;MIDB($N60,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I60" s="4" t="str">
+        <f>HEX2BIN(MIDB($N60,6,1))&amp;"("&amp;MIDB($N60,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J60" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N60,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N60,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K60" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N60,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N60,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L60" s="4" t="str">
+        <f>HEX2BIN(MIDB($N60,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M60" s="4" t="str">
+        <f>HEX2BIN(MIDB($N60,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>76</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C61" s="4" t="str">
+        <f>HEX2BIN(MIDB($N61,1,1))&amp;"("&amp;MIDB($N61,1,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="D61" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N61,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N61,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E61" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N61,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N61,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F61" s="4" t="str">
+        <f>HEX2BIN(MIDB($N61,3,1))&amp;"("&amp;MIDB($N61,3,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="G61" s="4" t="str">
+        <f>HEX2BIN(MIDB($N61,4,1))&amp;"("&amp;MIDB($N61,4,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="H61" s="4" t="str">
+        <f>HEX2BIN(MIDB($N61,5,1))&amp;"("&amp;MIDB($N61,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I61" s="4" t="str">
+        <f>HEX2BIN(MIDB($N61,6,1))&amp;"("&amp;MIDB($N61,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J61" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N61,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N61,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K61" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N61,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N61,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L61" s="4" t="str">
+        <f>HEX2BIN(MIDB($N61,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M61" s="4" t="str">
+        <f>HEX2BIN(MIDB($N61,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>77</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C62" s="4" t="str">
+        <f>HEX2BIN(MIDB($N62,1,1))&amp;"("&amp;MIDB($N62,1,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="D62" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N62,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N62,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E62" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N62,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N62,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F62" s="4" t="str">
+        <f>HEX2BIN(MIDB($N62,3,1))&amp;"("&amp;MIDB($N62,3,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="G62" s="4" t="str">
+        <f>HEX2BIN(MIDB($N62,4,1))&amp;"("&amp;MIDB($N62,4,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="H62" s="4" t="str">
+        <f>HEX2BIN(MIDB($N62,5,1))&amp;"("&amp;MIDB($N62,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I62" s="4" t="str">
+        <f>HEX2BIN(MIDB($N62,6,1))&amp;"("&amp;MIDB($N62,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J62" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N62,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N62,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K62" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N62,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N62,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L62" s="4" t="str">
+        <f>HEX2BIN(MIDB($N62,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M62" s="4" t="str">
+        <f>HEX2BIN(MIDB($N62,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>78</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="C63" s="4" t="str">
+        <f>HEX2BIN(MIDB($N63,1,1))&amp;"("&amp;MIDB($N63,1,1)&amp;")"</f>
+        <v>1010(A)</v>
+      </c>
+      <c r="D63" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N63,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N63,2,1)),4)&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="E63" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N63,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N63,2,1)),2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="F63" s="4" t="str">
+        <f>HEX2BIN(MIDB($N63,3,1))&amp;"("&amp;MIDB($N63,3,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="G63" s="4" t="str">
+        <f>HEX2BIN(MIDB($N63,4,1))&amp;"("&amp;MIDB($N63,4,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="H63" s="4" t="str">
+        <f>HEX2BIN(MIDB($N63,5,1))&amp;"("&amp;MIDB($N63,5,1)&amp;")"</f>
+        <v>111(7)</v>
+      </c>
+      <c r="I63" s="4" t="str">
+        <f>HEX2BIN(MIDB($N63,6,1))&amp;"("&amp;MIDB($N63,6,1)&amp;")"</f>
+        <v>1011(B)</v>
+      </c>
+      <c r="J63" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N63,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N63,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K63" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N63,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N63,7,1)),1,2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="L63" s="4" t="str">
+        <f>HEX2BIN(MIDB($N63,7,1))</f>
+        <v>11</v>
+      </c>
+      <c r="M63" s="4" t="str">
+        <f>HEX2BIN(MIDB($N63,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="4" t="str">
+        <f>HEX2BIN(MIDB($N64,1,1))&amp;"("&amp;MIDB($N64,1,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="D64" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N64,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N64,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E64" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N64,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N64,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F64" s="4" t="str">
+        <f>HEX2BIN(MIDB($N64,3,1))&amp;"("&amp;MIDB($N64,3,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="G64" s="4" t="str">
+        <f>HEX2BIN(MIDB($N64,4,1))&amp;"("&amp;MIDB($N64,4,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="H64" s="4" t="str">
+        <f>HEX2BIN(MIDB($N64,5,1))&amp;"("&amp;MIDB($N64,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I64" s="4" t="str">
+        <f>HEX2BIN(MIDB($N64,6,1))&amp;"("&amp;MIDB($N64,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J64" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N64,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N64,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K64" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N64,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N64,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L64" s="4" t="str">
+        <f>HEX2BIN(MIDB($N64,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M64" s="4" t="str">
+        <f>HEX2BIN(MIDB($N64,8,1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C65" s="4" t="str">
+        <f>HEX2BIN(MIDB($N65,1,1))&amp;"("&amp;MIDB($N65,1,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="D65" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N65,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N65,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E65" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N65,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N65,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F65" s="4" t="str">
+        <f>HEX2BIN(MIDB($N65,3,1))&amp;"("&amp;MIDB($N65,3,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="G65" s="4" t="str">
+        <f>HEX2BIN(MIDB($N65,4,1))&amp;"("&amp;MIDB($N65,4,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="H65" s="4" t="str">
+        <f>HEX2BIN(MIDB($N65,5,1))&amp;"("&amp;MIDB($N65,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I65" s="4" t="str">
+        <f>HEX2BIN(MIDB($N65,6,1))&amp;"("&amp;MIDB($N65,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J65" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N65,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N65,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K65" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N65,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N65,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L65" s="4" t="str">
+        <f>HEX2BIN(MIDB($N65,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="4" t="str">
+        <f>HEX2BIN(MIDB($N65,8,1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>81</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="C66" s="4" t="str">
+        <f>HEX2BIN(MIDB($N66,1,1))&amp;"("&amp;MIDB($N66,1,1)&amp;")"</f>
+        <v>1010(A)</v>
+      </c>
+      <c r="D66" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N66,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N66,2,1)),4)&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="E66" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N66,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N66,2,1)),2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="F66" s="4" t="str">
+        <f>HEX2BIN(MIDB($N66,3,1))&amp;"("&amp;MIDB($N66,3,1)&amp;")"</f>
+        <v>1110(E)</v>
+      </c>
+      <c r="G66" s="4" t="str">
+        <f>HEX2BIN(MIDB($N66,4,1))&amp;"("&amp;MIDB($N66,4,1)&amp;")"</f>
+        <v>1111(F)</v>
+      </c>
+      <c r="H66" s="4" t="str">
+        <f>HEX2BIN(MIDB($N66,5,1))&amp;"("&amp;MIDB($N66,5,1)&amp;")"</f>
+        <v>111(7)</v>
+      </c>
+      <c r="I66" s="4" t="str">
+        <f>HEX2BIN(MIDB($N66,6,1))&amp;"("&amp;MIDB($N66,6,1)&amp;")"</f>
+        <v>1000(8)</v>
+      </c>
+      <c r="J66" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N66,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N66,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K66" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N66,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N66,7,1)),1,2))&amp;")"</f>
+        <v>11(3)</v>
+      </c>
+      <c r="L66" s="4" t="str">
+        <f>HEX2BIN(MIDB($N66,7,1))</f>
+        <v>11</v>
+      </c>
+      <c r="M66" s="4" t="str">
+        <f>HEX2BIN(MIDB($N66,8,1))</f>
+        <v>1000</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C67" s="4" t="str">
+        <f>HEX2BIN(MIDB($N67,1,1))&amp;"("&amp;MIDB($N67,1,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="D67" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N67,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N67,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E67" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N67,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N67,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F67" s="4" t="str">
+        <f>HEX2BIN(MIDB($N67,3,1))&amp;"("&amp;MIDB($N67,3,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="G67" s="4" t="str">
+        <f>HEX2BIN(MIDB($N67,4,1))&amp;"("&amp;MIDB($N67,4,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="H67" s="4" t="str">
+        <f>HEX2BIN(MIDB($N67,5,1))&amp;"("&amp;MIDB($N67,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I67" s="4" t="str">
+        <f>HEX2BIN(MIDB($N67,6,1))&amp;"("&amp;MIDB($N67,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J67" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N67,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N67,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K67" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N67,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N67,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L67" s="4" t="str">
+        <f>HEX2BIN(MIDB($N67,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M67" s="4" t="str">
+        <f>HEX2BIN(MIDB($N67,8,1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>83</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D68" s="3">
+        <v>105</v>
+      </c>
+      <c r="C68" s="4" t="str">
+        <f>HEX2BIN(MIDB($N68,1,1))&amp;"("&amp;MIDB($N68,1,1)&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="D68" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N68,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N68,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E68" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N68,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N68,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F68" s="4" t="str">
+        <f>HEX2BIN(MIDB($N68,3,1))&amp;"("&amp;MIDB($N68,3,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="G68" s="4" t="str">
+        <f>HEX2BIN(MIDB($N68,4,1))&amp;"("&amp;MIDB($N68,4,1)&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="H68" s="4" t="str">
+        <f>HEX2BIN(MIDB($N68,5,1))&amp;"("&amp;MIDB($N68,5,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="I68" s="4" t="str">
+        <f>HEX2BIN(MIDB($N68,6,1))&amp;"("&amp;MIDB($N68,6,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="J68" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N68,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N68,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K68" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N68,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N68,7,1)),1,2))&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="L68" s="4" t="str">
+        <f>HEX2BIN(MIDB($N68,7,1))</f>
+        <v>10</v>
+      </c>
+      <c r="M68" s="4" t="str">
+        <f>HEX2BIN(MIDB($N68,8,1))</f>
+        <v>1</v>
+      </c>
+      <c r="N68" s="3">
         <v>20010021</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O68" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C69" s="4" t="str">
+        <f>HEX2BIN(MIDB($N69,1,1))&amp;"("&amp;MIDB($N69,1,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="D69" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N69,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N69,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E69" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N69,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N69,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F69" s="4" t="str">
+        <f>HEX2BIN(MIDB($N69,3,1))&amp;"("&amp;MIDB($N69,3,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="G69" s="4" t="str">
+        <f>HEX2BIN(MIDB($N69,4,1))&amp;"("&amp;MIDB($N69,4,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="H69" s="4" t="str">
+        <f>HEX2BIN(MIDB($N69,5,1))&amp;"("&amp;MIDB($N69,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I69" s="4" t="str">
+        <f>HEX2BIN(MIDB($N69,6,1))&amp;"("&amp;MIDB($N69,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J69" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N69,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N69,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K69" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N69,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N69,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L69" s="4" t="str">
+        <f>HEX2BIN(MIDB($N69,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M69" s="4" t="str">
+        <f>HEX2BIN(MIDB($N69,8,1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>85</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C70" s="4" t="str">
+        <f>HEX2BIN(MIDB($N70,1,1))&amp;"("&amp;MIDB($N70,1,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="D70" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N70,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N70,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E70" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N70,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N70,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F70" s="4" t="str">
+        <f>HEX2BIN(MIDB($N70,3,1))&amp;"("&amp;MIDB($N70,3,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="G70" s="4" t="str">
+        <f>HEX2BIN(MIDB($N70,4,1))&amp;"("&amp;MIDB($N70,4,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="H70" s="4" t="str">
+        <f>HEX2BIN(MIDB($N70,5,1))&amp;"("&amp;MIDB($N70,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I70" s="4" t="str">
+        <f>HEX2BIN(MIDB($N70,6,1))&amp;"("&amp;MIDB($N70,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J70" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N70,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N70,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K70" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N70,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N70,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L70" s="4" t="str">
+        <f>HEX2BIN(MIDB($N70,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M70" s="4" t="str">
+        <f>HEX2BIN(MIDB($N70,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>86</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C71" s="4" t="str">
+        <f>HEX2BIN(MIDB($N71,1,1))&amp;"("&amp;MIDB($N71,1,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="D71" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N71,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N71,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E71" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N71,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N71,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F71" s="4" t="str">
+        <f>HEX2BIN(MIDB($N71,3,1))&amp;"("&amp;MIDB($N71,3,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="G71" s="4" t="str">
+        <f>HEX2BIN(MIDB($N71,4,1))&amp;"("&amp;MIDB($N71,4,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="H71" s="4" t="str">
+        <f>HEX2BIN(MIDB($N71,5,1))&amp;"("&amp;MIDB($N71,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I71" s="4" t="str">
+        <f>HEX2BIN(MIDB($N71,6,1))&amp;"("&amp;MIDB($N71,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J71" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N71,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N71,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K71" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N71,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N71,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L71" s="4" t="str">
+        <f>HEX2BIN(MIDB($N71,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M71" s="4" t="str">
+        <f>HEX2BIN(MIDB($N71,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>87</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C72" s="4" t="str">
+        <f>HEX2BIN(MIDB($N72,1,1))&amp;"("&amp;MIDB($N72,1,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="D72" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N72,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N72,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E72" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N72,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N72,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F72" s="4" t="str">
+        <f>HEX2BIN(MIDB($N72,3,1))&amp;"("&amp;MIDB($N72,3,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="G72" s="4" t="str">
+        <f>HEX2BIN(MIDB($N72,4,1))&amp;"("&amp;MIDB($N72,4,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="H72" s="4" t="str">
+        <f>HEX2BIN(MIDB($N72,5,1))&amp;"("&amp;MIDB($N72,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I72" s="4" t="str">
+        <f>HEX2BIN(MIDB($N72,6,1))&amp;"("&amp;MIDB($N72,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J72" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N72,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N72,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K72" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N72,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N72,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L72" s="4" t="str">
+        <f>HEX2BIN(MIDB($N72,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M72" s="4" t="str">
+        <f>HEX2BIN(MIDB($N72,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>88</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C73" s="4" t="str">
+        <f>HEX2BIN(MIDB($N73,1,1))&amp;"("&amp;MIDB($N73,1,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="D73" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N73,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N73,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E73" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N73,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N73,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F73" s="4" t="str">
+        <f>HEX2BIN(MIDB($N73,3,1))&amp;"("&amp;MIDB($N73,3,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="G73" s="4" t="str">
+        <f>HEX2BIN(MIDB($N73,4,1))&amp;"("&amp;MIDB($N73,4,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="H73" s="4" t="str">
+        <f>HEX2BIN(MIDB($N73,5,1))&amp;"("&amp;MIDB($N73,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I73" s="4" t="str">
+        <f>HEX2BIN(MIDB($N73,6,1))&amp;"("&amp;MIDB($N73,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J73" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N73,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N73,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K73" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N73,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N73,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L73" s="4" t="str">
+        <f>HEX2BIN(MIDB($N73,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M73" s="4" t="str">
+        <f>HEX2BIN(MIDB($N73,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>89</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C74" s="4" t="str">
+        <f>HEX2BIN(MIDB($N74,1,1))&amp;"("&amp;MIDB($N74,1,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="D74" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N74,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N74,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E74" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N74,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N74,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F74" s="4" t="str">
+        <f>HEX2BIN(MIDB($N74,3,1))&amp;"("&amp;MIDB($N74,3,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="G74" s="4" t="str">
+        <f>HEX2BIN(MIDB($N74,4,1))&amp;"("&amp;MIDB($N74,4,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="H74" s="4" t="str">
+        <f>HEX2BIN(MIDB($N74,5,1))&amp;"("&amp;MIDB($N74,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I74" s="4" t="str">
+        <f>HEX2BIN(MIDB($N74,6,1))&amp;"("&amp;MIDB($N74,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J74" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N74,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N74,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K74" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N74,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N74,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L74" s="4" t="str">
+        <f>HEX2BIN(MIDB($N74,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M74" s="4" t="str">
+        <f>HEX2BIN(MIDB($N74,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>90</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C75" s="4" t="str">
+        <f>HEX2BIN(MIDB($N75,1,1))&amp;"("&amp;MIDB($N75,1,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="D75" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N75,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N75,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E75" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N75,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N75,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F75" s="4" t="str">
+        <f>HEX2BIN(MIDB($N75,3,1))&amp;"("&amp;MIDB($N75,3,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="G75" s="4" t="str">
+        <f>HEX2BIN(MIDB($N75,4,1))&amp;"("&amp;MIDB($N75,4,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="H75" s="4" t="str">
+        <f>HEX2BIN(MIDB($N75,5,1))&amp;"("&amp;MIDB($N75,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I75" s="4" t="str">
+        <f>HEX2BIN(MIDB($N75,6,1))&amp;"("&amp;MIDB($N75,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J75" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N75,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N75,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K75" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N75,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N75,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L75" s="4" t="str">
+        <f>HEX2BIN(MIDB($N75,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M75" s="4" t="str">
+        <f>HEX2BIN(MIDB($N75,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>91</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C76" s="4" t="str">
+        <f>HEX2BIN(MIDB($N76,1,1))&amp;"("&amp;MIDB($N76,1,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="D76" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N76,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N76,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E76" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N76,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N76,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F76" s="4" t="str">
+        <f>HEX2BIN(MIDB($N76,3,1))&amp;"("&amp;MIDB($N76,3,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="G76" s="4" t="str">
+        <f>HEX2BIN(MIDB($N76,4,1))&amp;"("&amp;MIDB($N76,4,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="H76" s="4" t="str">
+        <f>HEX2BIN(MIDB($N76,5,1))&amp;"("&amp;MIDB($N76,5,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="I76" s="4" t="str">
+        <f>HEX2BIN(MIDB($N76,6,1))&amp;"("&amp;MIDB($N76,6,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+      <c r="J76" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N76,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N76,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K76" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N76,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N76,7,1)),1,2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L76" s="4" t="str">
+        <f>HEX2BIN(MIDB($N76,7,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M76" s="4" t="str">
+        <f>HEX2BIN(MIDB($N76,8,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>92</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" s="4" t="str">
+        <f>HEX2BIN(MIDB($N77,1,1))&amp;"("&amp;MIDB($N77,1,1)&amp;")"</f>
+        <v>10(2)</v>
+      </c>
+      <c r="D77" s="4" t="str">
+        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N77,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N77,2,1)),4)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="E77" s="4" t="str">
+        <f>RIGHT(HEX2BIN(MIDB($N77,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N77,2,1)),2))&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="F77" s="4" t="str">
+        <f>HEX2BIN(MIDB($N77,3,1))&amp;"("&amp;MIDB($N77,3,1)&amp;")"</f>
+        <v>100(4)</v>
+      </c>
+      <c r="G77" s="4" t="str">
+        <f>HEX2BIN(MIDB($N77,4,1))&amp;"("&amp;MIDB($N77,4,1)&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="H77" s="4" t="str">
+        <f>HEX2BIN(MIDB($N77,5,1))&amp;"("&amp;MIDB($N77,5,1)&amp;")"</f>
+        <v>1000(8)</v>
+      </c>
+      <c r="I77" s="4" t="str">
+        <f>HEX2BIN(MIDB($N77,6,1))&amp;"("&amp;MIDB($N77,6,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="J77" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N77,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N77,7,1)),3,2))&amp;")"</f>
+        <v>(0)</v>
+      </c>
+      <c r="K77" s="4" t="str">
+        <f>MID(HEX2BIN(MIDB($N77,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N77,7,1)),1,2))&amp;")"</f>
+        <v>1(1)</v>
+      </c>
+      <c r="L77" s="4" t="str">
+        <f>HEX2BIN(MIDB($N77,7,1))</f>
+        <v>1</v>
+      </c>
+      <c r="M77" s="4" t="str">
+        <f>HEX2BIN(MIDB($N77,8,1))</f>
+        <v>11</v>
+      </c>
+      <c r="N77" s="3">
+        <v>20418013</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N79" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="O79" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D77" s="3">
-        <v>20418013</v>
-      </c>
-      <c r="E77" s="1" t="s">
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N80" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="O80" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N81" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="O81" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D78" s="3" t="s">
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N82" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D79" s="3" t="s">
+      <c r="O82" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E79" s="1" t="s">
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D80" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="N84" s="3" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D81" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D82" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/OpCodeSamples.xlsx
+++ b/OpCodeSamples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chatelao\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D23C52-A5FA-4C15-9ADB-3DF9910168E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9741768-996F-4678-8251-2A88F3AAF1E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{1E4DB96B-D72F-4DC5-A685-D213D01654C3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="153">
   <si>
     <t>ADD R1, R2, R3        //R1 = R2 + R3</t>
   </si>
@@ -78,21 +78,9 @@
     <t>RSH R1, R2, 0xABCD     //R1 = R2 &gt;&gt; 0xABCD</t>
   </si>
   <si>
-    <t>MOVE R0, array</t>
-  </si>
-  <si>
     <t>004c</t>
   </si>
   <si>
-    <t>MOVE R1, array</t>
-  </si>
-  <si>
-    <t>MOVE R2, array</t>
-  </si>
-  <si>
-    <t>MOVE R3, array</t>
-  </si>
-  <si>
     <t>MOVE R2, 0x0</t>
   </si>
   <si>
@@ -429,9 +417,6 @@
     <t>OpCode</t>
   </si>
   <si>
-    <t>RD</t>
-  </si>
-  <si>
     <t>A-Mode</t>
   </si>
   <si>
@@ -447,9 +432,6 @@
     <t>Imm[11:8]</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>ADD R0, R1, R2        //R0 = R1 + R2</t>
   </si>
   <si>
@@ -478,6 +460,70 @@
   </si>
   <si>
     <t>SUB R3, R0, 0xABCD    //R3 = R0 - 0xABCD</t>
+  </si>
+  <si>
+    <t>20F18E72</t>
+  </si>
+  <si>
+    <t>21F18E72</t>
+  </si>
+  <si>
+    <t>22F18E72</t>
+  </si>
+  <si>
+    <t>23F18E72</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MOVE R0, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0xEF12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MOVE R1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0xEF12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MOVE R2, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0xEF12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MOVE R3, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0xEF12</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -489,7 +535,7 @@
     <numFmt numFmtId="164" formatCode="0000"/>
     <numFmt numFmtId="165" formatCode="00000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,6 +563,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -539,7 +595,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -561,6 +617,16 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -878,10 +944,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B173187C-6830-4BAC-8FF3-1B389263DA75}">
-  <dimension ref="A1:P84"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="10" ySplit="19" topLeftCell="K20" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="K46" sqref="J1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,59 +959,55 @@
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="4" customWidth="1"/>
+    <col min="6" max="7" width="14.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" style="4" customWidth="1"/>
-    <col min="10" max="11" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="65.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="10" max="10" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="65.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>140</v>
+      <c r="J1" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="K1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -950,57 +1015,49 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f>HEX2BIN(MIDB($N2,1,1))&amp;"("&amp;MIDB($N2,1,1)&amp;")"</f>
+        <f t="shared" ref="C2:D33" si="0">HEX2BIN(MIDB($L2,1,1))&amp;"("&amp;MIDB($L2,1,1)&amp;")"</f>
         <v>10(2)</v>
       </c>
       <c r="D2" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N2,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N2,2,1)),4)&amp;")"</f>
+        <f t="shared" ref="D2:E33" si="1">DEC2BIN(QUOTIENT(HEX2DEC(MIDB($L2,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($L2,2,1)),4)&amp;")"</f>
         <v>1(1)</v>
       </c>
       <c r="E2" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N2,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N2,2,1)),2))&amp;")"</f>
+        <f t="shared" ref="E2:H33" si="2">RIGHT(HEX2BIN(MIDB($L2,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($L2,2,1)),2))&amp;")"</f>
         <v>00(0)</v>
       </c>
       <c r="F2" s="4" t="str">
-        <f>HEX2BIN(MIDB($N2,3,1))&amp;"("&amp;MIDB($N2,3,1)&amp;")"</f>
+        <f t="shared" ref="F2:J33" si="3">HEX2BIN(MIDB($L2,3,1))&amp;"("&amp;MIDB($L2,3,1)&amp;")"</f>
         <v>0(0)</v>
       </c>
       <c r="G2" s="4" t="str">
-        <f>HEX2BIN(MIDB($N2,4,1))&amp;"("&amp;MIDB($N2,4,1)&amp;")"</f>
+        <f t="shared" ref="G2:K33" si="4">HEX2BIN(MIDB($L2,4,1))&amp;"("&amp;MIDB($L2,4,1)&amp;")"</f>
         <v>0(0)</v>
       </c>
       <c r="H2" s="4" t="str">
-        <f>HEX2BIN(MIDB($N2,5,1))&amp;"("&amp;MIDB($N2,5,1)&amp;")"</f>
+        <f t="shared" ref="H2:I33" si="5">HEX2BIN(MIDB($L2,5,1))&amp;"("&amp;MIDB($L2,5,1)&amp;")"</f>
         <v>0(0)</v>
       </c>
       <c r="I2" s="4" t="str">
-        <f>HEX2BIN(MIDB($N2,6,1))&amp;"("&amp;MIDB($N2,6,1)&amp;")"</f>
+        <f t="shared" ref="I2:K33" si="6">HEX2BIN(MIDB($L2,6,1))&amp;"("&amp;MIDB($L2,6,1)&amp;")"</f>
         <v>0(0)</v>
       </c>
       <c r="J2" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N2,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N2,7,1)),3,2))&amp;")"</f>
-        <v>1(1)</v>
+        <f>HEX2BIN(MIDB($L2,7,1))&amp;"("&amp;MIDB($L2,7,1)&amp;")"</f>
+        <v>111(7)</v>
       </c>
       <c r="K2" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N2,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N2,7,1)),1,2))&amp;")"</f>
-        <v>11(3)</v>
-      </c>
-      <c r="L2" s="4" t="str">
-        <f>HEX2BIN(MIDB($N2,7,1))</f>
-        <v>111</v>
-      </c>
-      <c r="M2" s="4" t="str">
-        <f>HEX2BIN(MIDB($N2,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
+        <f>HEX2BIN(MIDB($L2,8,1))&amp;"("&amp;MIDB($L2,8,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L2" s="3">
         <v>24000070</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M2" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>11</v>
       </c>
@@ -1008,57 +1065,49 @@
         <v>18</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f>HEX2BIN(MIDB($N3,1,1))&amp;"("&amp;MIDB($N3,1,1)&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>11(3)</v>
       </c>
       <c r="D3" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N3,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N3,2,1)),4)&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>10(2)</v>
       </c>
       <c r="E3" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N3,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N3,2,1)),2))&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>01(1)</v>
       </c>
       <c r="F3" s="4" t="str">
-        <f>HEX2BIN(MIDB($N3,3,1))&amp;"("&amp;MIDB($N3,3,1)&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>0(0)</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f>HEX2BIN(MIDB($N3,4,1))&amp;"("&amp;MIDB($N3,4,1)&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>0(0)</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f>HEX2BIN(MIDB($N3,5,1))&amp;"("&amp;MIDB($N3,5,1)&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>0(0)</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f>HEX2BIN(MIDB($N3,6,1))&amp;"("&amp;MIDB($N3,6,1)&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>0(0)</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N3,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N3,7,1)),3,2))&amp;")"</f>
-        <v>1(1)</v>
+        <f t="shared" ref="J3:K66" si="7">HEX2BIN(MIDB($L3,7,1))&amp;"("&amp;MIDB($L3,7,1)&amp;")"</f>
+        <v>111(7)</v>
       </c>
       <c r="K3" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N3,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N3,7,1)),1,2))&amp;")"</f>
-        <v>11(3)</v>
-      </c>
-      <c r="L3" s="4" t="str">
-        <f>HEX2BIN(MIDB($N3,7,1))</f>
-        <v>111</v>
-      </c>
-      <c r="M3" s="4" t="str">
-        <f>HEX2BIN(MIDB($N3,8,1))</f>
+        <f t="shared" ref="K3:K66" si="8">HEX2BIN(MIDB($L3,8,1))&amp;"("&amp;MIDB($L3,8,1)&amp;")"</f>
+        <v>0(0)</v>
+      </c>
+      <c r="L3" s="3">
+        <v>39000070</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="3">
-        <v>39000070</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>13</v>
       </c>
@@ -1066,57 +1115,49 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="str">
-        <f>HEX2BIN(MIDB($N4,1,1))&amp;"("&amp;MIDB($N4,1,1)&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>1101(D)</v>
       </c>
       <c r="D4" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N4,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N4,2,1)),4)&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>10(2)</v>
       </c>
       <c r="E4" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N4,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N4,2,1)),2))&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>01(1)</v>
       </c>
       <c r="F4" s="4" t="str">
-        <f>HEX2BIN(MIDB($N4,3,1))&amp;"("&amp;MIDB($N4,3,1)&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>1011(B)</v>
       </c>
       <c r="G4" s="4" t="str">
-        <f>HEX2BIN(MIDB($N4,4,1))&amp;"("&amp;MIDB($N4,4,1)&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>1100(C)</v>
       </c>
       <c r="H4" s="4" t="str">
-        <f>HEX2BIN(MIDB($N4,5,1))&amp;"("&amp;MIDB($N4,5,1)&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>0(0)</v>
       </c>
       <c r="I4" s="4" t="str">
-        <f>HEX2BIN(MIDB($N4,6,1))&amp;"("&amp;MIDB($N4,6,1)&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>1010(A)</v>
       </c>
       <c r="J4" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N4,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N4,7,1)),3,2))&amp;")"</f>
-        <v>1(1)</v>
+        <f t="shared" si="7"/>
+        <v>111(7)</v>
       </c>
       <c r="K4" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N4,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N4,7,1)),1,2))&amp;")"</f>
-        <v>11(3)</v>
-      </c>
-      <c r="L4" s="4" t="str">
-        <f>HEX2BIN(MIDB($N4,7,1))</f>
-        <v>111</v>
-      </c>
-      <c r="M4" s="4" t="str">
-        <f>HEX2BIN(MIDB($N4,8,1))</f>
-        <v>10</v>
-      </c>
-      <c r="N4" s="3" t="s">
+        <f t="shared" si="8"/>
+        <v>10(2)</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>15</v>
       </c>
@@ -1124,57 +1165,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="4" t="str">
-        <f>HEX2BIN(MIDB($N5,1,1))&amp;"("&amp;MIDB($N5,1,1)&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>1(1)</v>
       </c>
       <c r="D5" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N5,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N5,2,1)),4)&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>0(0)</v>
       </c>
       <c r="E5" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N5,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N5,2,1)),2))&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>11(3)</v>
       </c>
       <c r="F5" s="4" t="str">
-        <f>HEX2BIN(MIDB($N5,3,1))&amp;"("&amp;MIDB($N5,3,1)&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>0(0)</v>
       </c>
       <c r="G5" s="4" t="str">
-        <f>HEX2BIN(MIDB($N5,4,1))&amp;"("&amp;MIDB($N5,4,1)&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>0(0)</v>
       </c>
       <c r="H5" s="4" t="str">
-        <f>HEX2BIN(MIDB($N5,5,1))&amp;"("&amp;MIDB($N5,5,1)&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>10(2)</v>
       </c>
       <c r="I5" s="4" t="str">
-        <f>HEX2BIN(MIDB($N5,6,1))&amp;"("&amp;MIDB($N5,6,1)&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>0(0)</v>
       </c>
       <c r="J5" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N5,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N5,7,1)),3,2))&amp;")"</f>
-        <v>1(1)</v>
+        <f t="shared" si="7"/>
+        <v>111(7)</v>
       </c>
       <c r="K5" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N5,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N5,7,1)),1,2))&amp;")"</f>
-        <v>11(3)</v>
-      </c>
-      <c r="L5" s="4" t="str">
-        <f>HEX2BIN(MIDB($N5,7,1))</f>
-        <v>111</v>
-      </c>
-      <c r="M5" s="4" t="str">
-        <f>HEX2BIN(MIDB($N5,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
+        <f t="shared" si="8"/>
+        <v>0(0)</v>
+      </c>
+      <c r="L5" s="3">
         <v>13002070</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M5" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>16</v>
       </c>
@@ -1182,57 +1215,49 @@
         <v>24</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f>HEX2BIN(MIDB($N6,1,1))&amp;"("&amp;MIDB($N6,1,1)&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>1101(D)</v>
       </c>
       <c r="D6" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N6,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N6,2,1)),4)&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>0(0)</v>
       </c>
       <c r="E6" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N6,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N6,2,1)),2))&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>11(3)</v>
       </c>
       <c r="F6" s="4" t="str">
-        <f>HEX2BIN(MIDB($N6,3,1))&amp;"("&amp;MIDB($N6,3,1)&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>1011(B)</v>
       </c>
       <c r="G6" s="4" t="str">
-        <f>HEX2BIN(MIDB($N6,4,1))&amp;"("&amp;MIDB($N6,4,1)&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>1100(C)</v>
       </c>
       <c r="H6" s="4" t="str">
-        <f>HEX2BIN(MIDB($N6,5,1))&amp;"("&amp;MIDB($N6,5,1)&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>10(2)</v>
       </c>
       <c r="I6" s="4" t="str">
-        <f>HEX2BIN(MIDB($N6,6,1))&amp;"("&amp;MIDB($N6,6,1)&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>1010(A)</v>
       </c>
       <c r="J6" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N6,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N6,7,1)),3,2))&amp;")"</f>
-        <v>1(1)</v>
+        <f t="shared" si="7"/>
+        <v>111(7)</v>
       </c>
       <c r="K6" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N6,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N6,7,1)),1,2))&amp;")"</f>
-        <v>11(3)</v>
-      </c>
-      <c r="L6" s="4" t="str">
-        <f>HEX2BIN(MIDB($N6,7,1))</f>
-        <v>111</v>
-      </c>
-      <c r="M6" s="4" t="str">
-        <f>HEX2BIN(MIDB($N6,8,1))</f>
-        <v>10</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>10(2)</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>18</v>
       </c>
@@ -1240,57 +1265,49 @@
         <v>28</v>
       </c>
       <c r="C7" s="4" t="str">
-        <f>HEX2BIN(MIDB($N7,1,1))&amp;"("&amp;MIDB($N7,1,1)&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>11(3)</v>
       </c>
       <c r="D7" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N7,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N7,2,1)),4)&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>10(2)</v>
       </c>
       <c r="E7" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N7,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N7,2,1)),2))&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>00(0)</v>
       </c>
       <c r="F7" s="4" t="str">
-        <f>HEX2BIN(MIDB($N7,3,1))&amp;"("&amp;MIDB($N7,3,1)&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>0(0)</v>
       </c>
       <c r="G7" s="4" t="str">
-        <f>HEX2BIN(MIDB($N7,4,1))&amp;"("&amp;MIDB($N7,4,1)&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>0(0)</v>
       </c>
       <c r="H7" s="4" t="str">
-        <f>HEX2BIN(MIDB($N7,5,1))&amp;"("&amp;MIDB($N7,5,1)&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>100(4)</v>
       </c>
       <c r="I7" s="4" t="str">
-        <f>HEX2BIN(MIDB($N7,6,1))&amp;"("&amp;MIDB($N7,6,1)&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>0(0)</v>
       </c>
       <c r="J7" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N7,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N7,7,1)),3,2))&amp;")"</f>
-        <v>1(1)</v>
+        <f t="shared" si="7"/>
+        <v>111(7)</v>
       </c>
       <c r="K7" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N7,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N7,7,1)),1,2))&amp;")"</f>
-        <v>11(3)</v>
-      </c>
-      <c r="L7" s="4" t="str">
-        <f>HEX2BIN(MIDB($N7,7,1))</f>
-        <v>111</v>
-      </c>
-      <c r="M7" s="4" t="str">
-        <f>HEX2BIN(MIDB($N7,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
+        <f t="shared" si="8"/>
+        <v>0(0)</v>
+      </c>
+      <c r="L7" s="3">
         <v>38004070</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M7" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>19</v>
       </c>
@@ -1298,57 +1315,49 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="str">
-        <f>HEX2BIN(MIDB($N8,1,1))&amp;"("&amp;MIDB($N8,1,1)&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>1101(D)</v>
       </c>
       <c r="D8" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N8,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N8,2,1)),4)&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>10(2)</v>
       </c>
       <c r="E8" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N8,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N8,2,1)),2))&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>11(3)</v>
       </c>
       <c r="F8" s="4" t="str">
-        <f>HEX2BIN(MIDB($N8,3,1))&amp;"("&amp;MIDB($N8,3,1)&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>1011(B)</v>
       </c>
       <c r="G8" s="4" t="str">
-        <f>HEX2BIN(MIDB($N8,4,1))&amp;"("&amp;MIDB($N8,4,1)&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>1100(C)</v>
       </c>
       <c r="H8" s="4" t="str">
-        <f>HEX2BIN(MIDB($N8,5,1))&amp;"("&amp;MIDB($N8,5,1)&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>100(4)</v>
       </c>
       <c r="I8" s="4" t="str">
-        <f>HEX2BIN(MIDB($N8,6,1))&amp;"("&amp;MIDB($N8,6,1)&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>1010(A)</v>
       </c>
       <c r="J8" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N8,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N8,7,1)),3,2))&amp;")"</f>
-        <v>1(1)</v>
+        <f t="shared" si="7"/>
+        <v>111(7)</v>
       </c>
       <c r="K8" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N8,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N8,7,1)),1,2))&amp;")"</f>
-        <v>11(3)</v>
-      </c>
-      <c r="L8" s="4" t="str">
-        <f>HEX2BIN(MIDB($N8,7,1))</f>
-        <v>111</v>
-      </c>
-      <c r="M8" s="4" t="str">
-        <f>HEX2BIN(MIDB($N8,8,1))</f>
-        <v>10</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>10(2)</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>21</v>
       </c>
@@ -1356,57 +1365,49 @@
         <v>30</v>
       </c>
       <c r="C9" s="4" t="str">
-        <f>HEX2BIN(MIDB($N9,1,1))&amp;"("&amp;MIDB($N9,1,1)&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>11(3)</v>
       </c>
       <c r="D9" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N9,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N9,2,1)),4)&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>10(2)</v>
       </c>
       <c r="E9" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N9,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N9,2,1)),2))&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>01(1)</v>
       </c>
       <c r="F9" s="4" t="str">
-        <f>HEX2BIN(MIDB($N9,3,1))&amp;"("&amp;MIDB($N9,3,1)&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>0(0)</v>
       </c>
       <c r="G9" s="4" t="str">
-        <f>HEX2BIN(MIDB($N9,4,1))&amp;"("&amp;MIDB($N9,4,1)&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>0(0)</v>
       </c>
       <c r="H9" s="4" t="str">
-        <f>HEX2BIN(MIDB($N9,5,1))&amp;"("&amp;MIDB($N9,5,1)&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>110(6)</v>
       </c>
       <c r="I9" s="4" t="str">
-        <f>HEX2BIN(MIDB($N9,6,1))&amp;"("&amp;MIDB($N9,6,1)&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>0(0)</v>
       </c>
       <c r="J9" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N9,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N9,7,1)),3,2))&amp;")"</f>
-        <v>1(1)</v>
+        <f t="shared" si="7"/>
+        <v>111(7)</v>
       </c>
       <c r="K9" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N9,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N9,7,1)),1,2))&amp;")"</f>
-        <v>11(3)</v>
-      </c>
-      <c r="L9" s="4" t="str">
-        <f>HEX2BIN(MIDB($N9,7,1))</f>
-        <v>111</v>
-      </c>
-      <c r="M9" s="4" t="str">
-        <f>HEX2BIN(MIDB($N9,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
+        <f t="shared" si="8"/>
+        <v>0(0)</v>
+      </c>
+      <c r="L9" s="3">
         <v>39006070</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>22</v>
       </c>
@@ -1414,57 +1415,49 @@
         <v>34</v>
       </c>
       <c r="C10" s="4" t="str">
-        <f>HEX2BIN(MIDB($N10,1,1))&amp;"("&amp;MIDB($N10,1,1)&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>1101(D)</v>
       </c>
       <c r="D10" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N10,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N10,2,1)),4)&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>10(2)</v>
       </c>
       <c r="E10" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N10,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N10,2,1)),2))&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>01(1)</v>
       </c>
       <c r="F10" s="4" t="str">
-        <f>HEX2BIN(MIDB($N10,3,1))&amp;"("&amp;MIDB($N10,3,1)&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>1011(B)</v>
       </c>
       <c r="G10" s="4" t="str">
-        <f>HEX2BIN(MIDB($N10,4,1))&amp;"("&amp;MIDB($N10,4,1)&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>1100(C)</v>
       </c>
       <c r="H10" s="4" t="str">
-        <f>HEX2BIN(MIDB($N10,5,1))&amp;"("&amp;MIDB($N10,5,1)&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>110(6)</v>
       </c>
       <c r="I10" s="4" t="str">
-        <f>HEX2BIN(MIDB($N10,6,1))&amp;"("&amp;MIDB($N10,6,1)&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>1010(A)</v>
       </c>
       <c r="J10" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N10,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N10,7,1)),3,2))&amp;")"</f>
-        <v>1(1)</v>
+        <f t="shared" si="7"/>
+        <v>111(7)</v>
       </c>
       <c r="K10" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N10,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N10,7,1)),1,2))&amp;")"</f>
-        <v>11(3)</v>
-      </c>
-      <c r="L10" s="4" t="str">
-        <f>HEX2BIN(MIDB($N10,7,1))</f>
-        <v>111</v>
-      </c>
-      <c r="M10" s="4" t="str">
-        <f>HEX2BIN(MIDB($N10,8,1))</f>
-        <v>10</v>
-      </c>
-      <c r="N10" s="3" t="s">
+        <f t="shared" si="8"/>
+        <v>10(2)</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>24</v>
       </c>
@@ -1472,57 +1465,49 @@
         <v>38</v>
       </c>
       <c r="C11" s="4" t="str">
-        <f>HEX2BIN(MIDB($N11,1,1))&amp;"("&amp;MIDB($N11,1,1)&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>11(3)</v>
       </c>
       <c r="D11" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N11,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N11,2,1)),4)&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>10(2)</v>
       </c>
       <c r="E11" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N11,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N11,2,1)),2))&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>01(1)</v>
       </c>
       <c r="F11" s="4" t="str">
-        <f>HEX2BIN(MIDB($N11,3,1))&amp;"("&amp;MIDB($N11,3,1)&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>0(0)</v>
       </c>
       <c r="G11" s="4" t="str">
-        <f>HEX2BIN(MIDB($N11,4,1))&amp;"("&amp;MIDB($N11,4,1)&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>0(0)</v>
       </c>
       <c r="H11" s="4" t="str">
-        <f>HEX2BIN(MIDB($N11,5,1))&amp;"("&amp;MIDB($N11,5,1)&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>1010(A)</v>
       </c>
       <c r="I11" s="4" t="str">
-        <f>HEX2BIN(MIDB($N11,6,1))&amp;"("&amp;MIDB($N11,6,1)&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>0(0)</v>
       </c>
       <c r="J11" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N11,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N11,7,1)),3,2))&amp;")"</f>
-        <v>1(1)</v>
+        <f t="shared" si="7"/>
+        <v>111(7)</v>
       </c>
       <c r="K11" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N11,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N11,7,1)),1,2))&amp;")"</f>
-        <v>11(3)</v>
-      </c>
-      <c r="L11" s="4" t="str">
-        <f>HEX2BIN(MIDB($N11,7,1))</f>
-        <v>111</v>
-      </c>
-      <c r="M11" s="4" t="str">
-        <f>HEX2BIN(MIDB($N11,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="3" t="s">
+        <f t="shared" si="8"/>
+        <v>0(0)</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>25</v>
       </c>
@@ -1530,521 +1515,449 @@
         <v>10</v>
       </c>
       <c r="C12" s="4" t="str">
-        <f>HEX2BIN(MIDB($N12,1,1))&amp;"("&amp;MIDB($N12,1,1)&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>1101(D)</v>
       </c>
       <c r="D12" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N12,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N12,2,1)),4)&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>10(2)</v>
       </c>
       <c r="E12" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N12,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N12,2,1)),2))&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>01(1)</v>
       </c>
       <c r="F12" s="4" t="str">
-        <f>HEX2BIN(MIDB($N12,3,1))&amp;"("&amp;MIDB($N12,3,1)&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>1011(B)</v>
       </c>
       <c r="G12" s="4" t="str">
-        <f>HEX2BIN(MIDB($N12,4,1))&amp;"("&amp;MIDB($N12,4,1)&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>1100(C)</v>
       </c>
       <c r="H12" s="4" t="str">
-        <f>HEX2BIN(MIDB($N12,5,1))&amp;"("&amp;MIDB($N12,5,1)&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>1010(A)</v>
       </c>
       <c r="I12" s="4" t="str">
-        <f>HEX2BIN(MIDB($N12,6,1))&amp;"("&amp;MIDB($N12,6,1)&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>1010(A)</v>
       </c>
       <c r="J12" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N12,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N12,7,1)),3,2))&amp;")"</f>
+        <f t="shared" si="7"/>
+        <v>111(7)</v>
+      </c>
+      <c r="K12" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>10(2)</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>27</v>
+      </c>
+      <c r="B13" s="10">
+        <v>40</v>
+      </c>
+      <c r="C13" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>11(3)</v>
+      </c>
+      <c r="D13" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>10(2)</v>
+      </c>
+      <c r="E13" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>01(1)</v>
+      </c>
+      <c r="F13" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>0(0)</v>
+      </c>
+      <c r="G13" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>0(0)</v>
+      </c>
+      <c r="H13" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>1100(C)</v>
+      </c>
+      <c r="I13" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>0(0)</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>111(7)</v>
+      </c>
+      <c r="K13" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0(0)</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>28</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44</v>
+      </c>
+      <c r="C14" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1101(D)</v>
+      </c>
+      <c r="D14" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>10(2)</v>
+      </c>
+      <c r="E14" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>01(1)</v>
+      </c>
+      <c r="F14" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1011(B)</v>
+      </c>
+      <c r="G14" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1100(C)</v>
+      </c>
+      <c r="H14" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>1100(C)</v>
+      </c>
+      <c r="I14" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>1010(A)</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>111(7)</v>
+      </c>
+      <c r="K14" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>10(2)</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>30</v>
+      </c>
+      <c r="B15" s="10">
+        <v>48</v>
+      </c>
+      <c r="C15" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>10(2)</v>
+      </c>
+      <c r="D15" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0(0)</v>
+      </c>
+      <c r="E15" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>0(0)</v>
+      </c>
+      <c r="F15" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1111(F)</v>
+      </c>
+      <c r="G15" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>1(1)</v>
       </c>
-      <c r="K12" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N12,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N12,7,1)),1,2))&amp;")"</f>
+      <c r="H15" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>1000(8)</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>1110(E)</v>
+      </c>
+      <c r="J15" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>111(7)</v>
+      </c>
+      <c r="K15" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>10(2)</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>31</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>10(2)</v>
+      </c>
+      <c r="D16" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0(0)</v>
+      </c>
+      <c r="E16" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>1(1)</v>
+      </c>
+      <c r="F16" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1111(F)</v>
+      </c>
+      <c r="G16" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1(1)</v>
+      </c>
+      <c r="H16" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>1000(8)</v>
+      </c>
+      <c r="I16" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>1110(E)</v>
+      </c>
+      <c r="J16" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>111(7)</v>
+      </c>
+      <c r="K16" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>10(2)</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>32</v>
+      </c>
+      <c r="B17" s="10">
+        <v>50</v>
+      </c>
+      <c r="C17" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>10(2)</v>
+      </c>
+      <c r="D17" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0(0)</v>
+      </c>
+      <c r="E17" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>10(2)</v>
+      </c>
+      <c r="F17" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1111(F)</v>
+      </c>
+      <c r="G17" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1(1)</v>
+      </c>
+      <c r="H17" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>1000(8)</v>
+      </c>
+      <c r="I17" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>1110(E)</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>111(7)</v>
+      </c>
+      <c r="K17" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>10(2)</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>33</v>
+      </c>
+      <c r="B18" s="10">
+        <v>54</v>
+      </c>
+      <c r="C18" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>10(2)</v>
+      </c>
+      <c r="D18" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0(0)</v>
+      </c>
+      <c r="E18" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>11(3)</v>
       </c>
-      <c r="L12" s="4" t="str">
-        <f>HEX2BIN(MIDB($N12,7,1))</f>
-        <v>111</v>
-      </c>
-      <c r="M12" s="4" t="str">
-        <f>HEX2BIN(MIDB($N12,8,1))</f>
-        <v>10</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>27</v>
-      </c>
-      <c r="B13" s="2">
-        <v>40</v>
-      </c>
-      <c r="C13" s="4" t="str">
-        <f>HEX2BIN(MIDB($N13,1,1))&amp;"("&amp;MIDB($N13,1,1)&amp;")"</f>
-        <v>11(3)</v>
-      </c>
-      <c r="D13" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N13,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N13,2,1)),4)&amp;")"</f>
-        <v>10(2)</v>
-      </c>
-      <c r="E13" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N13,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N13,2,1)),2))&amp;")"</f>
-        <v>01(1)</v>
-      </c>
-      <c r="F13" s="4" t="str">
-        <f>HEX2BIN(MIDB($N13,3,1))&amp;"("&amp;MIDB($N13,3,1)&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="G13" s="4" t="str">
-        <f>HEX2BIN(MIDB($N13,4,1))&amp;"("&amp;MIDB($N13,4,1)&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="H13" s="4" t="str">
-        <f>HEX2BIN(MIDB($N13,5,1))&amp;"("&amp;MIDB($N13,5,1)&amp;")"</f>
+      <c r="F18" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1111(F)</v>
+      </c>
+      <c r="G18" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1(1)</v>
+      </c>
+      <c r="H18" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>1000(8)</v>
+      </c>
+      <c r="I18" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>1110(E)</v>
+      </c>
+      <c r="J18" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>111(7)</v>
+      </c>
+      <c r="K18" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>10(2)</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>35</v>
+      </c>
+      <c r="B19" s="10">
+        <v>58</v>
+      </c>
+      <c r="C19" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>10(2)</v>
+      </c>
+      <c r="D19" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0(0)</v>
+      </c>
+      <c r="E19" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>0(0)</v>
+      </c>
+      <c r="F19" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>0(0)</v>
+      </c>
+      <c r="G19" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>1000(8)</v>
+      </c>
+      <c r="H19" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>0(0)</v>
+      </c>
+      <c r="I19" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>111(7)</v>
+      </c>
+      <c r="J19" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>10(2)</v>
+      </c>
+      <c r="K19" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0()</v>
+      </c>
+      <c r="L19" s="12">
+        <v>2008072</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>36</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1101(D)</v>
+      </c>
+      <c r="D20" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>0(0)</v>
+      </c>
+      <c r="E20" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>10(2)</v>
+      </c>
+      <c r="F20" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>1011(B)</v>
+      </c>
+      <c r="G20" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>1100(C)</v>
       </c>
-      <c r="I13" s="4" t="str">
-        <f>HEX2BIN(MIDB($N13,6,1))&amp;"("&amp;MIDB($N13,6,1)&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="J13" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N13,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N13,7,1)),3,2))&amp;")"</f>
-        <v>1(1)</v>
-      </c>
-      <c r="K13" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N13,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N13,7,1)),1,2))&amp;")"</f>
-        <v>11(3)</v>
-      </c>
-      <c r="L13" s="4" t="str">
-        <f>HEX2BIN(MIDB($N13,7,1))</f>
-        <v>111</v>
-      </c>
-      <c r="M13" s="4" t="str">
-        <f>HEX2BIN(MIDB($N13,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2">
-        <v>44</v>
-      </c>
-      <c r="C14" s="4" t="str">
-        <f>HEX2BIN(MIDB($N14,1,1))&amp;"("&amp;MIDB($N14,1,1)&amp;")"</f>
-        <v>1101(D)</v>
-      </c>
-      <c r="D14" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N14,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N14,2,1)),4)&amp;")"</f>
-        <v>10(2)</v>
-      </c>
-      <c r="E14" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N14,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N14,2,1)),2))&amp;")"</f>
-        <v>01(1)</v>
-      </c>
-      <c r="F14" s="4" t="str">
-        <f>HEX2BIN(MIDB($N14,3,1))&amp;"("&amp;MIDB($N14,3,1)&amp;")"</f>
-        <v>1011(B)</v>
-      </c>
-      <c r="G14" s="4" t="str">
-        <f>HEX2BIN(MIDB($N14,4,1))&amp;"("&amp;MIDB($N14,4,1)&amp;")"</f>
-        <v>1100(C)</v>
-      </c>
-      <c r="H14" s="4" t="str">
-        <f>HEX2BIN(MIDB($N14,5,1))&amp;"("&amp;MIDB($N14,5,1)&amp;")"</f>
-        <v>1100(C)</v>
-      </c>
-      <c r="I14" s="4" t="str">
-        <f>HEX2BIN(MIDB($N14,6,1))&amp;"("&amp;MIDB($N14,6,1)&amp;")"</f>
+      <c r="H20" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>1000(8)</v>
+      </c>
+      <c r="I20" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>1010(A)</v>
       </c>
-      <c r="J14" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N14,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N14,7,1)),3,2))&amp;")"</f>
-        <v>1(1)</v>
-      </c>
-      <c r="K14" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N14,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N14,7,1)),1,2))&amp;")"</f>
-        <v>11(3)</v>
-      </c>
-      <c r="L14" s="4" t="str">
-        <f>HEX2BIN(MIDB($N14,7,1))</f>
-        <v>111</v>
-      </c>
-      <c r="M14" s="4" t="str">
-        <f>HEX2BIN(MIDB($N14,8,1))</f>
-        <v>10</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>30</v>
-      </c>
-      <c r="B15" s="2">
-        <v>48</v>
-      </c>
-      <c r="C15" s="4" t="str">
-        <f>HEX2BIN(MIDB($N15,1,1))&amp;"("&amp;MIDB($N15,1,1)&amp;")"</f>
-        <v>1000(8)</v>
-      </c>
-      <c r="D15" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N15,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N15,2,1)),4)&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="E15" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N15,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N15,2,1)),2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="F15" s="4" t="str">
-        <f>HEX2BIN(MIDB($N15,3,1))&amp;"("&amp;MIDB($N15,3,1)&amp;")"</f>
+      <c r="J20" s="4" t="str">
+        <f t="shared" si="7"/>
         <v>111(7)</v>
       </c>
-      <c r="G15" s="4" t="str">
-        <f>HEX2BIN(MIDB($N15,4,1))&amp;"("&amp;MIDB($N15,4,1)&amp;")"</f>
-        <v>10(2)</v>
-      </c>
-      <c r="H15" s="4" t="str">
-        <f>HEX2BIN(MIDB($N15,5,1))&amp;"("&amp;MIDB($N15,5,1)&amp;")"</f>
-        <v>0()</v>
-      </c>
-      <c r="I15" s="4" t="str">
-        <f>HEX2BIN(MIDB($N15,6,1))&amp;"("&amp;MIDB($N15,6,1)&amp;")"</f>
-        <v>0()</v>
-      </c>
-      <c r="J15" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N15,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N15,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
-      </c>
-      <c r="K15" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N15,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N15,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L15" s="4" t="str">
-        <f>HEX2BIN(MIDB($N15,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="4" t="str">
-        <f>HEX2BIN(MIDB($N15,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>8072</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>31</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="4" t="str">
-        <f>HEX2BIN(MIDB($N16,1,1))&amp;"("&amp;MIDB($N16,1,1)&amp;")"</f>
-        <v>1(1)</v>
-      </c>
-      <c r="D16" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N16,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N16,2,1)),4)&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="E16" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N16,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N16,2,1)),2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="F16" s="4" t="str">
-        <f>HEX2BIN(MIDB($N16,3,1))&amp;"("&amp;MIDB($N16,3,1)&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="G16" s="4" t="str">
-        <f>HEX2BIN(MIDB($N16,4,1))&amp;"("&amp;MIDB($N16,4,1)&amp;")"</f>
-        <v>1000(8)</v>
-      </c>
-      <c r="H16" s="4" t="str">
-        <f>HEX2BIN(MIDB($N16,5,1))&amp;"("&amp;MIDB($N16,5,1)&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="I16" s="4" t="str">
-        <f>HEX2BIN(MIDB($N16,6,1))&amp;"("&amp;MIDB($N16,6,1)&amp;")"</f>
-        <v>111(7)</v>
-      </c>
-      <c r="J16" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N16,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N16,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
-      </c>
-      <c r="K16" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N16,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N16,7,1)),1,2))&amp;")"</f>
-        <v>10(2)</v>
-      </c>
-      <c r="L16" s="4" t="str">
-        <f>HEX2BIN(MIDB($N16,7,1))</f>
-        <v>10</v>
-      </c>
-      <c r="M16" s="4" t="str">
-        <f>HEX2BIN(MIDB($N16,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <v>1008072</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2">
-        <v>50</v>
-      </c>
-      <c r="C17" s="4" t="str">
-        <f>HEX2BIN(MIDB($N17,1,1))&amp;"("&amp;MIDB($N17,1,1)&amp;")"</f>
-        <v>10(2)</v>
-      </c>
-      <c r="D17" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N17,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N17,2,1)),4)&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="E17" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N17,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N17,2,1)),2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="F17" s="4" t="str">
-        <f>HEX2BIN(MIDB($N17,3,1))&amp;"("&amp;MIDB($N17,3,1)&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="G17" s="4" t="str">
-        <f>HEX2BIN(MIDB($N17,4,1))&amp;"("&amp;MIDB($N17,4,1)&amp;")"</f>
-        <v>1000(8)</v>
-      </c>
-      <c r="H17" s="4" t="str">
-        <f>HEX2BIN(MIDB($N17,5,1))&amp;"("&amp;MIDB($N17,5,1)&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="I17" s="4" t="str">
-        <f>HEX2BIN(MIDB($N17,6,1))&amp;"("&amp;MIDB($N17,6,1)&amp;")"</f>
-        <v>111(7)</v>
-      </c>
-      <c r="J17" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N17,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N17,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
-      </c>
-      <c r="K17" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N17,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N17,7,1)),1,2))&amp;")"</f>
-        <v>10(2)</v>
-      </c>
-      <c r="L17" s="4" t="str">
-        <f>HEX2BIN(MIDB($N17,7,1))</f>
-        <v>10</v>
-      </c>
-      <c r="M17" s="4" t="str">
-        <f>HEX2BIN(MIDB($N17,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>2008072</v>
-      </c>
-      <c r="O17" s="1" t="s">
+      <c r="K20" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>10(2)</v>
+      </c>
+      <c r="L20" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>33</v>
-      </c>
-      <c r="B18" s="2">
-        <v>54</v>
-      </c>
-      <c r="C18" s="4" t="str">
-        <f>HEX2BIN(MIDB($N18,1,1))&amp;"("&amp;MIDB($N18,1,1)&amp;")"</f>
-        <v>11(3)</v>
-      </c>
-      <c r="D18" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N18,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N18,2,1)),4)&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="E18" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N18,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N18,2,1)),2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="F18" s="4" t="str">
-        <f>HEX2BIN(MIDB($N18,3,1))&amp;"("&amp;MIDB($N18,3,1)&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="G18" s="4" t="str">
-        <f>HEX2BIN(MIDB($N18,4,1))&amp;"("&amp;MIDB($N18,4,1)&amp;")"</f>
-        <v>1000(8)</v>
-      </c>
-      <c r="H18" s="4" t="str">
-        <f>HEX2BIN(MIDB($N18,5,1))&amp;"("&amp;MIDB($N18,5,1)&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="I18" s="4" t="str">
-        <f>HEX2BIN(MIDB($N18,6,1))&amp;"("&amp;MIDB($N18,6,1)&amp;")"</f>
-        <v>111(7)</v>
-      </c>
-      <c r="J18" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N18,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N18,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
-      </c>
-      <c r="K18" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N18,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N18,7,1)),1,2))&amp;")"</f>
-        <v>10(2)</v>
-      </c>
-      <c r="L18" s="4" t="str">
-        <f>HEX2BIN(MIDB($N18,7,1))</f>
-        <v>10</v>
-      </c>
-      <c r="M18" s="4" t="str">
-        <f>HEX2BIN(MIDB($N18,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>3008072</v>
-      </c>
-      <c r="O18" s="1" t="s">
+      <c r="M20" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>35</v>
-      </c>
-      <c r="B19" s="2">
-        <v>58</v>
-      </c>
-      <c r="C19" s="4" t="str">
-        <f>HEX2BIN(MIDB($N19,1,1))&amp;"("&amp;MIDB($N19,1,1)&amp;")"</f>
-        <v>10(2)</v>
-      </c>
-      <c r="D19" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N19,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N19,2,1)),4)&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="E19" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N19,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N19,2,1)),2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="F19" s="4" t="str">
-        <f>HEX2BIN(MIDB($N19,3,1))&amp;"("&amp;MIDB($N19,3,1)&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="G19" s="4" t="str">
-        <f>HEX2BIN(MIDB($N19,4,1))&amp;"("&amp;MIDB($N19,4,1)&amp;")"</f>
-        <v>1000(8)</v>
-      </c>
-      <c r="H19" s="4" t="str">
-        <f>HEX2BIN(MIDB($N19,5,1))&amp;"("&amp;MIDB($N19,5,1)&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="I19" s="4" t="str">
-        <f>HEX2BIN(MIDB($N19,6,1))&amp;"("&amp;MIDB($N19,6,1)&amp;")"</f>
-        <v>111(7)</v>
-      </c>
-      <c r="J19" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N19,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N19,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
-      </c>
-      <c r="K19" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N19,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N19,7,1)),1,2))&amp;")"</f>
-        <v>10(2)</v>
-      </c>
-      <c r="L19" s="4" t="str">
-        <f>HEX2BIN(MIDB($N19,7,1))</f>
-        <v>10</v>
-      </c>
-      <c r="M19" s="4" t="str">
-        <f>HEX2BIN(MIDB($N19,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="3">
-        <v>2008072</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>36</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="4" t="str">
-        <f>HEX2BIN(MIDB($N20,1,1))&amp;"("&amp;MIDB($N20,1,1)&amp;")"</f>
-        <v>1101(D)</v>
-      </c>
-      <c r="D20" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N20,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N20,2,1)),4)&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="E20" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N20,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N20,2,1)),2))&amp;")"</f>
-        <v>10(2)</v>
-      </c>
-      <c r="F20" s="4" t="str">
-        <f>HEX2BIN(MIDB($N20,3,1))&amp;"("&amp;MIDB($N20,3,1)&amp;")"</f>
-        <v>1011(B)</v>
-      </c>
-      <c r="G20" s="4" t="str">
-        <f>HEX2BIN(MIDB($N20,4,1))&amp;"("&amp;MIDB($N20,4,1)&amp;")"</f>
-        <v>1100(C)</v>
-      </c>
-      <c r="H20" s="4" t="str">
-        <f>HEX2BIN(MIDB($N20,5,1))&amp;"("&amp;MIDB($N20,5,1)&amp;")"</f>
-        <v>1000(8)</v>
-      </c>
-      <c r="I20" s="4" t="str">
-        <f>HEX2BIN(MIDB($N20,6,1))&amp;"("&amp;MIDB($N20,6,1)&amp;")"</f>
-        <v>1010(A)</v>
-      </c>
-      <c r="J20" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N20,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N20,7,1)),3,2))&amp;")"</f>
-        <v>1(1)</v>
-      </c>
-      <c r="K20" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N20,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N20,7,1)),1,2))&amp;")"</f>
-        <v>11(3)</v>
-      </c>
-      <c r="L20" s="4" t="str">
-        <f>HEX2BIN(MIDB($N20,7,1))</f>
-        <v>111</v>
-      </c>
-      <c r="M20" s="4" t="str">
-        <f>HEX2BIN(MIDB($N20,8,1))</f>
-        <v>10</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>38</v>
       </c>
@@ -2052,57 +1965,49 @@
         <v>60</v>
       </c>
       <c r="C21" s="4" t="str">
-        <f>HEX2BIN(MIDB($N21,1,1))&amp;"("&amp;MIDB($N21,1,1)&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>110(6)</v>
       </c>
       <c r="D21" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N21,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N21,2,1)),4)&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>0(0)</v>
       </c>
       <c r="E21" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N21,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N21,2,1)),2))&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>11(3)</v>
       </c>
       <c r="F21" s="4" t="str">
-        <f>HEX2BIN(MIDB($N21,3,1))&amp;"("&amp;MIDB($N21,3,1)&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>100(4)</v>
       </c>
       <c r="G21" s="4" t="str">
-        <f>HEX2BIN(MIDB($N21,4,1))&amp;"("&amp;MIDB($N21,4,1)&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>0(0)</v>
       </c>
       <c r="H21" s="4" t="str">
-        <f>HEX2BIN(MIDB($N21,5,1))&amp;"("&amp;MIDB($N21,5,1)&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>0(0)</v>
       </c>
       <c r="I21" s="4" t="str">
-        <f>HEX2BIN(MIDB($N21,6,1))&amp;"("&amp;MIDB($N21,6,1)&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>110(6)</v>
       </c>
       <c r="J21" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N21,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N21,7,1)),3,2))&amp;")"</f>
-        <v>00(0)</v>
+        <f t="shared" si="7"/>
+        <v>1000(8)</v>
       </c>
       <c r="K21" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N21,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N21,7,1)),1,2))&amp;")"</f>
-        <v>10(2)</v>
-      </c>
-      <c r="L21" s="4" t="str">
-        <f>HEX2BIN(MIDB($N21,7,1))</f>
-        <v>1000</v>
-      </c>
-      <c r="M21" s="4" t="str">
-        <f>HEX2BIN(MIDB($N21,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
+        <f t="shared" si="8"/>
+        <v>0()</v>
+      </c>
+      <c r="L21" s="3">
         <v>6340068</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M21" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>39</v>
       </c>
@@ -2110,161 +2015,138 @@
         <v>64</v>
       </c>
       <c r="C22" s="4" t="str">
-        <f>HEX2BIN(MIDB($N22,1,1))&amp;"("&amp;MIDB($N22,1,1)&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>110(6)</v>
       </c>
       <c r="D22" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N22,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N22,2,1)),4)&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>0(0)</v>
       </c>
       <c r="E22" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N22,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N22,2,1)),2))&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>0(0)</v>
       </c>
       <c r="F22" s="4" t="str">
-        <f>HEX2BIN(MIDB($N22,3,1))&amp;"("&amp;MIDB($N22,3,1)&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>0(0)</v>
       </c>
       <c r="G22" s="4" t="str">
-        <f>HEX2BIN(MIDB($N22,4,1))&amp;"("&amp;MIDB($N22,4,1)&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>0(0)</v>
       </c>
       <c r="H22" s="4" t="str">
-        <f>HEX2BIN(MIDB($N22,5,1))&amp;"("&amp;MIDB($N22,5,1)&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>0(0)</v>
       </c>
       <c r="I22" s="4" t="str">
-        <f>HEX2BIN(MIDB($N22,6,1))&amp;"("&amp;MIDB($N22,6,1)&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>110(6)</v>
       </c>
       <c r="J22" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N22,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N22,7,1)),3,2))&amp;")"</f>
-        <v>00(0)</v>
+        <f t="shared" si="7"/>
+        <v>1000(8)</v>
       </c>
       <c r="K22" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N22,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N22,7,1)),1,2))&amp;")"</f>
-        <v>10(2)</v>
-      </c>
-      <c r="L22" s="4" t="str">
-        <f>HEX2BIN(MIDB($N22,7,1))</f>
-        <v>1000</v>
-      </c>
-      <c r="M22" s="4" t="str">
-        <f>HEX2BIN(MIDB($N22,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
+        <f t="shared" si="8"/>
+        <v>0()</v>
+      </c>
+      <c r="L22" s="3">
         <v>6000068</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40</v>
       </c>
       <c r="C23" s="4" t="str">
-        <f>HEX2BIN(MIDB($N23,1,1))&amp;"("&amp;MIDB($N23,1,1)&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>0()</v>
       </c>
       <c r="D23" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N23,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N23,2,1)),4)&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>0(0)</v>
       </c>
       <c r="E23" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N23,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N23,2,1)),2))&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>0(0)</v>
       </c>
       <c r="F23" s="4" t="str">
-        <f>HEX2BIN(MIDB($N23,3,1))&amp;"("&amp;MIDB($N23,3,1)&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>0()</v>
       </c>
       <c r="G23" s="4" t="str">
-        <f>HEX2BIN(MIDB($N23,4,1))&amp;"("&amp;MIDB($N23,4,1)&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>0()</v>
       </c>
       <c r="H23" s="4" t="str">
-        <f>HEX2BIN(MIDB($N23,5,1))&amp;"("&amp;MIDB($N23,5,1)&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>0()</v>
       </c>
       <c r="I23" s="4" t="str">
-        <f>HEX2BIN(MIDB($N23,6,1))&amp;"("&amp;MIDB($N23,6,1)&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>0()</v>
       </c>
       <c r="J23" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N23,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N23,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="7"/>
+        <v>0()</v>
       </c>
       <c r="K23" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N23,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N23,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L23" s="4" t="str">
-        <f>HEX2BIN(MIDB($N23,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="4" t="str">
-        <f>HEX2BIN(MIDB($N23,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0()</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>41</v>
       </c>
       <c r="C24" s="4" t="str">
-        <f>HEX2BIN(MIDB($N24,1,1))&amp;"("&amp;MIDB($N24,1,1)&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>0()</v>
       </c>
       <c r="D24" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N24,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N24,2,1)),4)&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>0(0)</v>
       </c>
       <c r="E24" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N24,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N24,2,1)),2))&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>0(0)</v>
       </c>
       <c r="F24" s="4" t="str">
-        <f>HEX2BIN(MIDB($N24,3,1))&amp;"("&amp;MIDB($N24,3,1)&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>0()</v>
       </c>
       <c r="G24" s="4" t="str">
-        <f>HEX2BIN(MIDB($N24,4,1))&amp;"("&amp;MIDB($N24,4,1)&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>0()</v>
       </c>
       <c r="H24" s="4" t="str">
-        <f>HEX2BIN(MIDB($N24,5,1))&amp;"("&amp;MIDB($N24,5,1)&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>0()</v>
       </c>
       <c r="I24" s="4" t="str">
-        <f>HEX2BIN(MIDB($N24,6,1))&amp;"("&amp;MIDB($N24,6,1)&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>0()</v>
       </c>
       <c r="J24" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N24,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N24,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="7"/>
+        <v>0()</v>
       </c>
       <c r="K24" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N24,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N24,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L24" s="4" t="str">
-        <f>HEX2BIN(MIDB($N24,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="4" t="str">
-        <f>HEX2BIN(MIDB($N24,8,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0()</v>
+      </c>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>42</v>
       </c>
@@ -2272,216 +2154,184 @@
         <v>68</v>
       </c>
       <c r="C25" s="4" t="str">
-        <f>HEX2BIN(MIDB($N25,1,1))&amp;"("&amp;MIDB($N25,1,1)&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>110(6)</v>
       </c>
       <c r="D25" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N25,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N25,2,1)),4)&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>11(3)</v>
       </c>
       <c r="E25" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N25,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N25,2,1)),2))&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>00(0)</v>
       </c>
       <c r="F25" s="4" t="str">
-        <f>HEX2BIN(MIDB($N25,3,1))&amp;"("&amp;MIDB($N25,3,1)&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>0(0)</v>
       </c>
       <c r="G25" s="4" t="str">
-        <f>HEX2BIN(MIDB($N25,4,1))&amp;"("&amp;MIDB($N25,4,1)&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>0(0)</v>
       </c>
       <c r="H25" s="4" t="str">
-        <f>HEX2BIN(MIDB($N25,5,1))&amp;"("&amp;MIDB($N25,5,1)&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>0(0)</v>
       </c>
       <c r="I25" s="4" t="str">
-        <f>HEX2BIN(MIDB($N25,6,1))&amp;"("&amp;MIDB($N25,6,1)&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>0(0)</v>
       </c>
       <c r="J25" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N25,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N25,7,1)),3,2))&amp;")"</f>
-        <v>00(0)</v>
+        <f t="shared" si="7"/>
+        <v>1000(8)</v>
       </c>
       <c r="K25" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N25,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N25,7,1)),1,2))&amp;")"</f>
-        <v>10(2)</v>
-      </c>
-      <c r="L25" s="4" t="str">
-        <f>HEX2BIN(MIDB($N25,7,1))</f>
-        <v>1000</v>
-      </c>
-      <c r="M25" s="4" t="str">
-        <f>HEX2BIN(MIDB($N25,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0(0)</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43</v>
       </c>
       <c r="C26" s="4" t="str">
-        <f>HEX2BIN(MIDB($N26,1,1))&amp;"("&amp;MIDB($N26,1,1)&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>0()</v>
       </c>
       <c r="D26" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N26,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N26,2,1)),4)&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>0(0)</v>
       </c>
       <c r="E26" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N26,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N26,2,1)),2))&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>0(0)</v>
       </c>
       <c r="F26" s="4" t="str">
-        <f>HEX2BIN(MIDB($N26,3,1))&amp;"("&amp;MIDB($N26,3,1)&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>0()</v>
       </c>
       <c r="G26" s="4" t="str">
-        <f>HEX2BIN(MIDB($N26,4,1))&amp;"("&amp;MIDB($N26,4,1)&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>0()</v>
       </c>
       <c r="H26" s="4" t="str">
-        <f>HEX2BIN(MIDB($N26,5,1))&amp;"("&amp;MIDB($N26,5,1)&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>0()</v>
       </c>
       <c r="I26" s="4" t="str">
-        <f>HEX2BIN(MIDB($N26,6,1))&amp;"("&amp;MIDB($N26,6,1)&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>0()</v>
       </c>
       <c r="J26" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N26,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N26,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="7"/>
+        <v>0()</v>
       </c>
       <c r="K26" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N26,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N26,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L26" s="4" t="str">
-        <f>HEX2BIN(MIDB($N26,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="4" t="str">
-        <f>HEX2BIN(MIDB($N26,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0()</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C27" s="4" t="str">
-        <f>HEX2BIN(MIDB($N27,1,1))&amp;"("&amp;MIDB($N27,1,1)&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>100(4)</v>
       </c>
       <c r="D27" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N27,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N27,2,1)),4)&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>0(0)</v>
       </c>
       <c r="E27" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N27,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N27,2,1)),2))&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>0(0)</v>
       </c>
       <c r="F27" s="4" t="str">
-        <f>HEX2BIN(MIDB($N27,3,1))&amp;"("&amp;MIDB($N27,3,1)&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>0()</v>
       </c>
       <c r="G27" s="4" t="str">
-        <f>HEX2BIN(MIDB($N27,4,1))&amp;"("&amp;MIDB($N27,4,1)&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>0()</v>
       </c>
       <c r="H27" s="4" t="str">
-        <f>HEX2BIN(MIDB($N27,5,1))&amp;"("&amp;MIDB($N27,5,1)&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>0()</v>
       </c>
       <c r="I27" s="4" t="str">
-        <f>HEX2BIN(MIDB($N27,6,1))&amp;"("&amp;MIDB($N27,6,1)&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>0()</v>
       </c>
       <c r="J27" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N27,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N27,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="7"/>
+        <v>0()</v>
       </c>
       <c r="K27" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N27,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N27,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L27" s="4" t="str">
-        <f>HEX2BIN(MIDB($N27,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="4" t="str">
-        <f>HEX2BIN(MIDB($N27,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
+        <f t="shared" si="8"/>
+        <v>0()</v>
+      </c>
+      <c r="L27" s="3">
         <v>40</v>
       </c>
-      <c r="O27" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45</v>
       </c>
       <c r="C28" s="4" t="str">
-        <f>HEX2BIN(MIDB($N28,1,1))&amp;"("&amp;MIDB($N28,1,1)&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>0()</v>
       </c>
       <c r="D28" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N28,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N28,2,1)),4)&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>0(0)</v>
       </c>
       <c r="E28" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N28,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N28,2,1)),2))&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>0(0)</v>
       </c>
       <c r="F28" s="4" t="str">
-        <f>HEX2BIN(MIDB($N28,3,1))&amp;"("&amp;MIDB($N28,3,1)&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>0()</v>
       </c>
       <c r="G28" s="4" t="str">
-        <f>HEX2BIN(MIDB($N28,4,1))&amp;"("&amp;MIDB($N28,4,1)&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>0()</v>
       </c>
       <c r="H28" s="4" t="str">
-        <f>HEX2BIN(MIDB($N28,5,1))&amp;"("&amp;MIDB($N28,5,1)&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>0()</v>
       </c>
       <c r="I28" s="4" t="str">
-        <f>HEX2BIN(MIDB($N28,6,1))&amp;"("&amp;MIDB($N28,6,1)&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>0()</v>
       </c>
       <c r="J28" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N28,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N28,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="7"/>
+        <v>0()</v>
       </c>
       <c r="K28" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N28,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N28,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L28" s="4" t="str">
-        <f>HEX2BIN(MIDB($N28,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="4" t="str">
-        <f>HEX2BIN(MIDB($N28,8,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0()</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>46</v>
       </c>
@@ -2489,57 +2339,49 @@
         <v>70</v>
       </c>
       <c r="C29" s="4" t="str">
-        <f>HEX2BIN(MIDB($N29,1,1))&amp;"("&amp;MIDB($N29,1,1)&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>1(1)</v>
       </c>
       <c r="D29" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N29,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N29,2,1)),4)&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>0(0)</v>
       </c>
       <c r="E29" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N29,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N29,2,1)),2))&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>0(0)</v>
       </c>
       <c r="F29" s="4" t="str">
-        <f>HEX2BIN(MIDB($N29,3,1))&amp;"("&amp;MIDB($N29,3,1)&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>0(0)</v>
       </c>
       <c r="G29" s="4" t="str">
-        <f>HEX2BIN(MIDB($N29,4,1))&amp;"("&amp;MIDB($N29,4,1)&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>0(0)</v>
       </c>
       <c r="H29" s="4" t="str">
-        <f>HEX2BIN(MIDB($N29,5,1))&amp;"("&amp;MIDB($N29,5,1)&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>10(2)</v>
       </c>
       <c r="I29" s="4" t="str">
-        <f>HEX2BIN(MIDB($N29,6,1))&amp;"("&amp;MIDB($N29,6,1)&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>0(0)</v>
       </c>
       <c r="J29" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N29,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N29,7,1)),3,2))&amp;")"</f>
-        <v>1(1)</v>
+        <f t="shared" si="7"/>
+        <v>111(7)</v>
       </c>
       <c r="K29" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N29,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N29,7,1)),1,2))&amp;")"</f>
-        <v>11(3)</v>
-      </c>
-      <c r="L29" s="4" t="str">
-        <f>HEX2BIN(MIDB($N29,7,1))</f>
-        <v>111</v>
-      </c>
-      <c r="M29" s="4" t="str">
-        <f>HEX2BIN(MIDB($N29,8,1))</f>
-        <v>10</v>
-      </c>
-      <c r="N29" s="3">
+        <f t="shared" si="8"/>
+        <v>10(2)</v>
+      </c>
+      <c r="L29" s="3">
         <v>10002072</v>
       </c>
-      <c r="O29" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>47</v>
       </c>
@@ -2547,57 +2389,49 @@
         <v>74</v>
       </c>
       <c r="C30" s="4" t="str">
-        <f>HEX2BIN(MIDB($N30,1,1))&amp;"("&amp;MIDB($N30,1,1)&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>100(4)</v>
       </c>
       <c r="D30" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N30,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N30,2,1)),4)&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>0(0)</v>
       </c>
       <c r="E30" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N30,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N30,2,1)),2))&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>0(0)</v>
       </c>
       <c r="F30" s="4" t="str">
-        <f>HEX2BIN(MIDB($N30,3,1))&amp;"("&amp;MIDB($N30,3,1)&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>0()</v>
       </c>
       <c r="G30" s="4" t="str">
-        <f>HEX2BIN(MIDB($N30,4,1))&amp;"("&amp;MIDB($N30,4,1)&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>0()</v>
       </c>
       <c r="H30" s="4" t="str">
-        <f>HEX2BIN(MIDB($N30,5,1))&amp;"("&amp;MIDB($N30,5,1)&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>0()</v>
       </c>
       <c r="I30" s="4" t="str">
-        <f>HEX2BIN(MIDB($N30,6,1))&amp;"("&amp;MIDB($N30,6,1)&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>0()</v>
       </c>
       <c r="J30" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N30,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N30,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="7"/>
+        <v>0()</v>
       </c>
       <c r="K30" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N30,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N30,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L30" s="4" t="str">
-        <f>HEX2BIN(MIDB($N30,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="4" t="str">
-        <f>HEX2BIN(MIDB($N30,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="3">
+        <f t="shared" si="8"/>
+        <v>0()</v>
+      </c>
+      <c r="L30" s="3">
         <v>40</v>
       </c>
-      <c r="O30" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>48</v>
       </c>
@@ -2605,375 +2439,319 @@
         <v>78</v>
       </c>
       <c r="C31" s="4" t="str">
-        <f>HEX2BIN(MIDB($N31,1,1))&amp;"("&amp;MIDB($N31,1,1)&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>1(1)</v>
       </c>
       <c r="D31" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N31,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N31,2,1)),4)&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>0(0)</v>
       </c>
       <c r="E31" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N31,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N31,2,1)),2))&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>0(0)</v>
       </c>
       <c r="F31" s="4" t="str">
-        <f>HEX2BIN(MIDB($N31,3,1))&amp;"("&amp;MIDB($N31,3,1)&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>0(0)</v>
       </c>
       <c r="G31" s="4" t="str">
-        <f>HEX2BIN(MIDB($N31,4,1))&amp;"("&amp;MIDB($N31,4,1)&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>0(0)</v>
       </c>
       <c r="H31" s="4" t="str">
-        <f>HEX2BIN(MIDB($N31,5,1))&amp;"("&amp;MIDB($N31,5,1)&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>111(7)</v>
       </c>
       <c r="I31" s="4" t="str">
-        <f>HEX2BIN(MIDB($N31,6,1))&amp;"("&amp;MIDB($N31,6,1)&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>1000(8)</v>
       </c>
       <c r="J31" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N31,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N31,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="7"/>
+        <v>11(3)</v>
       </c>
       <c r="K31" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N31,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N31,7,1)),1,2))&amp;")"</f>
-        <v>11(3)</v>
-      </c>
-      <c r="L31" s="4" t="str">
-        <f>HEX2BIN(MIDB($N31,7,1))</f>
-        <v>11</v>
-      </c>
-      <c r="M31" s="4" t="str">
-        <f>HEX2BIN(MIDB($N31,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="3">
+        <f t="shared" si="8"/>
+        <v>0()</v>
+      </c>
+      <c r="L31" s="3">
         <v>1000783</v>
       </c>
-      <c r="O31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>49</v>
       </c>
       <c r="C32" s="4" t="str">
-        <f>HEX2BIN(MIDB($N32,1,1))&amp;"("&amp;MIDB($N32,1,1)&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>0()</v>
       </c>
       <c r="D32" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N32,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N32,2,1)),4)&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>0(0)</v>
       </c>
       <c r="E32" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N32,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N32,2,1)),2))&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>0(0)</v>
       </c>
       <c r="F32" s="4" t="str">
-        <f>HEX2BIN(MIDB($N32,3,1))&amp;"("&amp;MIDB($N32,3,1)&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>0()</v>
       </c>
       <c r="G32" s="4" t="str">
-        <f>HEX2BIN(MIDB($N32,4,1))&amp;"("&amp;MIDB($N32,4,1)&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>0()</v>
       </c>
       <c r="H32" s="4" t="str">
-        <f>HEX2BIN(MIDB($N32,5,1))&amp;"("&amp;MIDB($N32,5,1)&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>0()</v>
       </c>
       <c r="I32" s="4" t="str">
-        <f>HEX2BIN(MIDB($N32,6,1))&amp;"("&amp;MIDB($N32,6,1)&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>0()</v>
       </c>
       <c r="J32" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N32,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N32,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="7"/>
+        <v>0()</v>
       </c>
       <c r="K32" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N32,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N32,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L32" s="4" t="str">
-        <f>HEX2BIN(MIDB($N32,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="4" t="str">
-        <f>HEX2BIN(MIDB($N32,8,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0()</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>50</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C33" s="4" t="str">
-        <f>HEX2BIN(MIDB($N33,1,1))&amp;"("&amp;MIDB($N33,1,1)&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>110(6)</v>
       </c>
       <c r="D33" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N33,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N33,2,1)),4)&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>0(0)</v>
       </c>
       <c r="E33" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N33,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N33,2,1)),2))&amp;")"</f>
+        <f t="shared" si="2"/>
         <v>0(0)</v>
       </c>
       <c r="F33" s="4" t="str">
-        <f>HEX2BIN(MIDB($N33,3,1))&amp;"("&amp;MIDB($N33,3,1)&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>100(4)</v>
       </c>
       <c r="G33" s="4" t="str">
-        <f>HEX2BIN(MIDB($N33,4,1))&amp;"("&amp;MIDB($N33,4,1)&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>0(0)</v>
       </c>
       <c r="H33" s="4" t="str">
-        <f>HEX2BIN(MIDB($N33,5,1))&amp;"("&amp;MIDB($N33,5,1)&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>0(0)</v>
       </c>
       <c r="I33" s="4" t="str">
-        <f>HEX2BIN(MIDB($N33,6,1))&amp;"("&amp;MIDB($N33,6,1)&amp;")"</f>
+        <f t="shared" si="6"/>
         <v>110(6)</v>
       </c>
       <c r="J33" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N33,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N33,7,1)),3,2))&amp;")"</f>
-        <v>00(0)</v>
+        <f t="shared" si="7"/>
+        <v>1000(8)</v>
       </c>
       <c r="K33" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N33,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N33,7,1)),1,2))&amp;")"</f>
-        <v>10(2)</v>
-      </c>
-      <c r="L33" s="4" t="str">
-        <f>HEX2BIN(MIDB($N33,7,1))</f>
-        <v>1000</v>
-      </c>
-      <c r="M33" s="4" t="str">
-        <f>HEX2BIN(MIDB($N33,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
+        <f t="shared" si="8"/>
+        <v>0()</v>
+      </c>
+      <c r="L33" s="3">
         <v>6040068</v>
       </c>
-      <c r="O33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>51</v>
       </c>
       <c r="C34" s="4" t="str">
-        <f>HEX2BIN(MIDB($N34,1,1))&amp;"("&amp;MIDB($N34,1,1)&amp;")"</f>
+        <f t="shared" ref="C34:C65" si="9">HEX2BIN(MIDB($L34,1,1))&amp;"("&amp;MIDB($L34,1,1)&amp;")"</f>
         <v>0()</v>
       </c>
       <c r="D34" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N34,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N34,2,1)),4)&amp;")"</f>
+        <f t="shared" ref="D34:D65" si="10">DEC2BIN(QUOTIENT(HEX2DEC(MIDB($L34,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($L34,2,1)),4)&amp;")"</f>
         <v>0(0)</v>
       </c>
       <c r="E34" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N34,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N34,2,1)),2))&amp;")"</f>
+        <f t="shared" ref="E34:E65" si="11">RIGHT(HEX2BIN(MIDB($L34,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($L34,2,1)),2))&amp;")"</f>
         <v>0(0)</v>
       </c>
       <c r="F34" s="4" t="str">
-        <f>HEX2BIN(MIDB($N34,3,1))&amp;"("&amp;MIDB($N34,3,1)&amp;")"</f>
+        <f t="shared" ref="F34:F65" si="12">HEX2BIN(MIDB($L34,3,1))&amp;"("&amp;MIDB($L34,3,1)&amp;")"</f>
         <v>0()</v>
       </c>
       <c r="G34" s="4" t="str">
-        <f>HEX2BIN(MIDB($N34,4,1))&amp;"("&amp;MIDB($N34,4,1)&amp;")"</f>
+        <f t="shared" ref="G34:G65" si="13">HEX2BIN(MIDB($L34,4,1))&amp;"("&amp;MIDB($L34,4,1)&amp;")"</f>
         <v>0()</v>
       </c>
       <c r="H34" s="4" t="str">
-        <f>HEX2BIN(MIDB($N34,5,1))&amp;"("&amp;MIDB($N34,5,1)&amp;")"</f>
+        <f t="shared" ref="H34:H65" si="14">HEX2BIN(MIDB($L34,5,1))&amp;"("&amp;MIDB($L34,5,1)&amp;")"</f>
         <v>0()</v>
       </c>
       <c r="I34" s="4" t="str">
-        <f>HEX2BIN(MIDB($N34,6,1))&amp;"("&amp;MIDB($N34,6,1)&amp;")"</f>
+        <f t="shared" ref="I34:I77" si="15">HEX2BIN(MIDB($L34,6,1))&amp;"("&amp;MIDB($L34,6,1)&amp;")"</f>
         <v>0()</v>
       </c>
       <c r="J34" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N34,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N34,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="7"/>
+        <v>0()</v>
       </c>
       <c r="K34" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N34,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N34,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L34" s="4" t="str">
-        <f>HEX2BIN(MIDB($N34,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="4" t="str">
-        <f>HEX2BIN(MIDB($N34,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0()</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>52</v>
       </c>
       <c r="C35" s="4" t="str">
-        <f>HEX2BIN(MIDB($N35,1,1))&amp;"("&amp;MIDB($N35,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>0()</v>
       </c>
       <c r="D35" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N35,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N35,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>0(0)</v>
       </c>
       <c r="E35" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N35,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N35,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>0(0)</v>
       </c>
       <c r="F35" s="4" t="str">
-        <f>HEX2BIN(MIDB($N35,3,1))&amp;"("&amp;MIDB($N35,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>0()</v>
       </c>
       <c r="G35" s="4" t="str">
-        <f>HEX2BIN(MIDB($N35,4,1))&amp;"("&amp;MIDB($N35,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>0()</v>
       </c>
       <c r="H35" s="4" t="str">
-        <f>HEX2BIN(MIDB($N35,5,1))&amp;"("&amp;MIDB($N35,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>0()</v>
       </c>
       <c r="I35" s="4" t="str">
-        <f>HEX2BIN(MIDB($N35,6,1))&amp;"("&amp;MIDB($N35,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0()</v>
       </c>
       <c r="J35" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N35,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N35,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="7"/>
+        <v>0()</v>
       </c>
       <c r="K35" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N35,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N35,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L35" s="4" t="str">
-        <f>HEX2BIN(MIDB($N35,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="4" t="str">
-        <f>HEX2BIN(MIDB($N35,8,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0()</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>53</v>
       </c>
       <c r="C36" s="4" t="str">
-        <f>HEX2BIN(MIDB($N36,1,1))&amp;"("&amp;MIDB($N36,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>0()</v>
       </c>
       <c r="D36" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N36,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N36,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>0(0)</v>
       </c>
       <c r="E36" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N36,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N36,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>0(0)</v>
       </c>
       <c r="F36" s="4" t="str">
-        <f>HEX2BIN(MIDB($N36,3,1))&amp;"("&amp;MIDB($N36,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>0()</v>
       </c>
       <c r="G36" s="4" t="str">
-        <f>HEX2BIN(MIDB($N36,4,1))&amp;"("&amp;MIDB($N36,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>0()</v>
       </c>
       <c r="H36" s="4" t="str">
-        <f>HEX2BIN(MIDB($N36,5,1))&amp;"("&amp;MIDB($N36,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>0()</v>
       </c>
       <c r="I36" s="4" t="str">
-        <f>HEX2BIN(MIDB($N36,6,1))&amp;"("&amp;MIDB($N36,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0()</v>
       </c>
       <c r="J36" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N36,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N36,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="7"/>
+        <v>0()</v>
       </c>
       <c r="K36" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N36,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N36,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L36" s="4" t="str">
-        <f>HEX2BIN(MIDB($N36,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="4" t="str">
-        <f>HEX2BIN(MIDB($N36,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0()</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>54</v>
       </c>
       <c r="C37" s="4" t="str">
-        <f>HEX2BIN(MIDB($N37,1,1))&amp;"("&amp;MIDB($N37,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>0()</v>
       </c>
       <c r="D37" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N37,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N37,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>0(0)</v>
       </c>
       <c r="E37" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N37,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N37,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>0(0)</v>
       </c>
       <c r="F37" s="4" t="str">
-        <f>HEX2BIN(MIDB($N37,3,1))&amp;"("&amp;MIDB($N37,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>0()</v>
       </c>
       <c r="G37" s="4" t="str">
-        <f>HEX2BIN(MIDB($N37,4,1))&amp;"("&amp;MIDB($N37,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>0()</v>
       </c>
       <c r="H37" s="4" t="str">
-        <f>HEX2BIN(MIDB($N37,5,1))&amp;"("&amp;MIDB($N37,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>0()</v>
       </c>
       <c r="I37" s="4" t="str">
-        <f>HEX2BIN(MIDB($N37,6,1))&amp;"("&amp;MIDB($N37,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0()</v>
       </c>
       <c r="J37" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N37,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N37,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="7"/>
+        <v>0()</v>
       </c>
       <c r="K37" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N37,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N37,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L37" s="4" t="str">
-        <f>HEX2BIN(MIDB($N37,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="4" t="str">
-        <f>HEX2BIN(MIDB($N37,8,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0()</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>55</v>
       </c>
@@ -2981,109 +2759,93 @@
         <v>80</v>
       </c>
       <c r="C38" s="4" t="str">
-        <f>HEX2BIN(MIDB($N38,1,1))&amp;"("&amp;MIDB($N38,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>1010(A)</v>
       </c>
       <c r="D38" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N38,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N38,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>10(2)</v>
       </c>
       <c r="E38" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N38,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N38,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>11(3)</v>
       </c>
       <c r="F38" s="4" t="str">
-        <f>HEX2BIN(MIDB($N38,3,1))&amp;"("&amp;MIDB($N38,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>0(0)</v>
       </c>
       <c r="G38" s="4" t="str">
-        <f>HEX2BIN(MIDB($N38,4,1))&amp;"("&amp;MIDB($N38,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>0(0)</v>
       </c>
       <c r="H38" s="4" t="str">
-        <f>HEX2BIN(MIDB($N38,5,1))&amp;"("&amp;MIDB($N38,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>0(0)</v>
       </c>
       <c r="I38" s="4" t="str">
-        <f>HEX2BIN(MIDB($N38,6,1))&amp;"("&amp;MIDB($N38,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>100(4)</v>
       </c>
       <c r="J38" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N38,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N38,7,1)),3,2))&amp;")"</f>
-        <v>00(0)</v>
+        <f t="shared" si="7"/>
+        <v>1000(8)</v>
       </c>
       <c r="K38" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N38,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N38,7,1)),1,2))&amp;")"</f>
-        <v>10(2)</v>
-      </c>
-      <c r="L38" s="4" t="str">
-        <f>HEX2BIN(MIDB($N38,7,1))</f>
-        <v>1000</v>
-      </c>
-      <c r="M38" s="4" t="str">
-        <f>HEX2BIN(MIDB($N38,8,1))</f>
-        <v>100</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>100(4)</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>55</v>
       </c>
       <c r="C39" s="4" t="str">
-        <f>HEX2BIN(MIDB($N39,1,1))&amp;"("&amp;MIDB($N39,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>1010(A)</v>
       </c>
       <c r="D39" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N39,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N39,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>10(2)</v>
       </c>
       <c r="E39" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N39,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N39,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>11(3)</v>
       </c>
       <c r="F39" s="4" t="str">
-        <f>HEX2BIN(MIDB($N39,3,1))&amp;"("&amp;MIDB($N39,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>0(0)</v>
       </c>
       <c r="G39" s="4" t="str">
-        <f>HEX2BIN(MIDB($N39,4,1))&amp;"("&amp;MIDB($N39,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>0(0)</v>
       </c>
       <c r="H39" s="4" t="str">
-        <f>HEX2BIN(MIDB($N39,5,1))&amp;"("&amp;MIDB($N39,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>0(0)</v>
       </c>
       <c r="I39" s="4" t="str">
-        <f>HEX2BIN(MIDB($N39,6,1))&amp;"("&amp;MIDB($N39,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>1101(D)</v>
       </c>
       <c r="J39" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N39,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N39,7,1)),3,2))&amp;")"</f>
-        <v>00(0)</v>
+        <f t="shared" si="7"/>
+        <v>1000(8)</v>
       </c>
       <c r="K39" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N39,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N39,7,1)),1,2))&amp;")"</f>
-        <v>10(2)</v>
-      </c>
-      <c r="L39" s="4" t="str">
-        <f>HEX2BIN(MIDB($N39,7,1))</f>
-        <v>1000</v>
-      </c>
-      <c r="M39" s="4" t="str">
-        <f>HEX2BIN(MIDB($N39,8,1))</f>
-        <v>100</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>100(4)</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>56</v>
       </c>
@@ -3091,115 +2853,99 @@
         <v>88</v>
       </c>
       <c r="C40" s="4" t="str">
-        <f>HEX2BIN(MIDB($N40,1,1))&amp;"("&amp;MIDB($N40,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>1010(A)</v>
       </c>
       <c r="D40" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N40,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N40,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>10(2)</v>
       </c>
       <c r="E40" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N40,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N40,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>11(3)</v>
       </c>
       <c r="F40" s="4" t="str">
-        <f>HEX2BIN(MIDB($N40,3,1))&amp;"("&amp;MIDB($N40,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>0(0)</v>
       </c>
       <c r="G40" s="4" t="str">
-        <f>HEX2BIN(MIDB($N40,4,1))&amp;"("&amp;MIDB($N40,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>0(0)</v>
       </c>
       <c r="H40" s="4" t="str">
-        <f>HEX2BIN(MIDB($N40,5,1))&amp;"("&amp;MIDB($N40,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>0(0)</v>
       </c>
       <c r="I40" s="4" t="str">
-        <f>HEX2BIN(MIDB($N40,6,1))&amp;"("&amp;MIDB($N40,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>1010(A)</v>
       </c>
       <c r="J40" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N40,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N40,7,1)),3,2))&amp;")"</f>
-        <v>00(0)</v>
+        <f t="shared" si="7"/>
+        <v>1000(8)</v>
       </c>
       <c r="K40" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N40,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N40,7,1)),1,2))&amp;")"</f>
-        <v>10(2)</v>
-      </c>
-      <c r="L40" s="4" t="str">
-        <f>HEX2BIN(MIDB($N40,7,1))</f>
-        <v>1000</v>
-      </c>
-      <c r="M40" s="4" t="str">
-        <f>HEX2BIN(MIDB($N40,8,1))</f>
-        <v>100</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>100(4)</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>57</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C41" s="4" t="str">
-        <f>HEX2BIN(MIDB($N41,1,1))&amp;"("&amp;MIDB($N41,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>1010(A)</v>
       </c>
       <c r="D41" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N41,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N41,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>10(2)</v>
       </c>
       <c r="E41" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N41,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N41,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>11(3)</v>
       </c>
       <c r="F41" s="4" t="str">
-        <f>HEX2BIN(MIDB($N41,3,1))&amp;"("&amp;MIDB($N41,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>0(0)</v>
       </c>
       <c r="G41" s="4" t="str">
-        <f>HEX2BIN(MIDB($N41,4,1))&amp;"("&amp;MIDB($N41,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>0(0)</v>
       </c>
       <c r="H41" s="4" t="str">
-        <f>HEX2BIN(MIDB($N41,5,1))&amp;"("&amp;MIDB($N41,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>0(0)</v>
       </c>
       <c r="I41" s="4" t="str">
-        <f>HEX2BIN(MIDB($N41,6,1))&amp;"("&amp;MIDB($N41,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>1001(9)</v>
       </c>
       <c r="J41" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N41,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N41,7,1)),3,2))&amp;")"</f>
-        <v>00(0)</v>
+        <f t="shared" si="7"/>
+        <v>1000(8)</v>
       </c>
       <c r="K41" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N41,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N41,7,1)),1,2))&amp;")"</f>
-        <v>10(2)</v>
-      </c>
-      <c r="L41" s="4" t="str">
-        <f>HEX2BIN(MIDB($N41,7,1))</f>
-        <v>1000</v>
-      </c>
-      <c r="M41" s="4" t="str">
-        <f>HEX2BIN(MIDB($N41,8,1))</f>
-        <v>100</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>100(4)</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>58</v>
       </c>
@@ -3207,109 +2953,93 @@
         <v>90</v>
       </c>
       <c r="C42" s="4" t="str">
-        <f>HEX2BIN(MIDB($N42,1,1))&amp;"("&amp;MIDB($N42,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>1010(A)</v>
       </c>
       <c r="D42" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N42,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N42,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>10(2)</v>
       </c>
       <c r="E42" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N42,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N42,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>11(3)</v>
       </c>
       <c r="F42" s="4" t="str">
-        <f>HEX2BIN(MIDB($N42,3,1))&amp;"("&amp;MIDB($N42,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>0(0)</v>
       </c>
       <c r="G42" s="4" t="str">
-        <f>HEX2BIN(MIDB($N42,4,1))&amp;"("&amp;MIDB($N42,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>0(0)</v>
       </c>
       <c r="H42" s="4" t="str">
-        <f>HEX2BIN(MIDB($N42,5,1))&amp;"("&amp;MIDB($N42,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>0(0)</v>
       </c>
       <c r="I42" s="4" t="str">
-        <f>HEX2BIN(MIDB($N42,6,1))&amp;"("&amp;MIDB($N42,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>101(5)</v>
       </c>
       <c r="J42" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N42,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N42,7,1)),3,2))&amp;")"</f>
-        <v>00(0)</v>
+        <f t="shared" si="7"/>
+        <v>1000(8)</v>
       </c>
       <c r="K42" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N42,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N42,7,1)),1,2))&amp;")"</f>
-        <v>10(2)</v>
-      </c>
-      <c r="L42" s="4" t="str">
-        <f>HEX2BIN(MIDB($N42,7,1))</f>
-        <v>1000</v>
-      </c>
-      <c r="M42" s="4" t="str">
-        <f>HEX2BIN(MIDB($N42,8,1))</f>
-        <v>100</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>100(4)</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>58</v>
       </c>
       <c r="C43" s="4" t="str">
-        <f>HEX2BIN(MIDB($N43,1,1))&amp;"("&amp;MIDB($N43,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>1010(A)</v>
       </c>
       <c r="D43" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N43,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N43,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>10(2)</v>
       </c>
       <c r="E43" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N43,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N43,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>11(3)</v>
       </c>
       <c r="F43" s="4" t="str">
-        <f>HEX2BIN(MIDB($N43,3,1))&amp;"("&amp;MIDB($N43,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>1000(8)</v>
       </c>
       <c r="G43" s="4" t="str">
-        <f>HEX2BIN(MIDB($N43,4,1))&amp;"("&amp;MIDB($N43,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>0(0)</v>
       </c>
       <c r="H43" s="4" t="str">
-        <f>HEX2BIN(MIDB($N43,5,1))&amp;"("&amp;MIDB($N43,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>0(0)</v>
       </c>
       <c r="I43" s="4" t="str">
-        <f>HEX2BIN(MIDB($N43,6,1))&amp;"("&amp;MIDB($N43,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>100(4)</v>
       </c>
       <c r="J43" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N43,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N43,7,1)),3,2))&amp;")"</f>
-        <v>00(0)</v>
+        <f t="shared" si="7"/>
+        <v>1000(8)</v>
       </c>
       <c r="K43" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N43,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N43,7,1)),1,2))&amp;")"</f>
-        <v>10(2)</v>
-      </c>
-      <c r="L43" s="4" t="str">
-        <f>HEX2BIN(MIDB($N43,7,1))</f>
-        <v>1000</v>
-      </c>
-      <c r="M43" s="4" t="str">
-        <f>HEX2BIN(MIDB($N43,8,1))</f>
-        <v>100</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>100(4)</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>59</v>
       </c>
@@ -3317,1929 +3047,1657 @@
         <v>98</v>
       </c>
       <c r="C44" s="4" t="str">
-        <f>HEX2BIN(MIDB($N44,1,1))&amp;"("&amp;MIDB($N44,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>1010(A)</v>
       </c>
       <c r="D44" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N44,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N44,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>10(2)</v>
       </c>
       <c r="E44" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N44,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N44,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>11(3)</v>
       </c>
       <c r="F44" s="4" t="str">
-        <f>HEX2BIN(MIDB($N44,3,1))&amp;"("&amp;MIDB($N44,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>1000(8)</v>
       </c>
       <c r="G44" s="4" t="str">
-        <f>HEX2BIN(MIDB($N44,4,1))&amp;"("&amp;MIDB($N44,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>0(0)</v>
       </c>
       <c r="H44" s="4" t="str">
-        <f>HEX2BIN(MIDB($N44,5,1))&amp;"("&amp;MIDB($N44,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>0(0)</v>
       </c>
       <c r="I44" s="4" t="str">
-        <f>HEX2BIN(MIDB($N44,6,1))&amp;"("&amp;MIDB($N44,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>10(2)</v>
       </c>
       <c r="J44" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N44,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N44,7,1)),3,2))&amp;")"</f>
-        <v>00(0)</v>
+        <f t="shared" si="7"/>
+        <v>1000(8)</v>
       </c>
       <c r="K44" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N44,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N44,7,1)),1,2))&amp;")"</f>
-        <v>10(2)</v>
-      </c>
-      <c r="L44" s="4" t="str">
-        <f>HEX2BIN(MIDB($N44,7,1))</f>
-        <v>1000</v>
-      </c>
-      <c r="M44" s="4" t="str">
-        <f>HEX2BIN(MIDB($N44,8,1))</f>
-        <v>100</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>100(4)</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>60</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C45" s="4" t="str">
-        <f>HEX2BIN(MIDB($N45,1,1))&amp;"("&amp;MIDB($N45,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>100(4)</v>
       </c>
       <c r="D45" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N45,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N45,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>0(0)</v>
       </c>
       <c r="E45" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N45,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N45,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>0(0)</v>
       </c>
       <c r="F45" s="4" t="str">
-        <f>HEX2BIN(MIDB($N45,3,1))&amp;"("&amp;MIDB($N45,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>0()</v>
       </c>
       <c r="G45" s="4" t="str">
-        <f>HEX2BIN(MIDB($N45,4,1))&amp;"("&amp;MIDB($N45,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>0()</v>
       </c>
       <c r="H45" s="4" t="str">
-        <f>HEX2BIN(MIDB($N45,5,1))&amp;"("&amp;MIDB($N45,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>0()</v>
       </c>
       <c r="I45" s="4" t="str">
-        <f>HEX2BIN(MIDB($N45,6,1))&amp;"("&amp;MIDB($N45,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0()</v>
       </c>
       <c r="J45" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N45,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N45,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="7"/>
+        <v>0()</v>
       </c>
       <c r="K45" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N45,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N45,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L45" s="4" t="str">
-        <f>HEX2BIN(MIDB($N45,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M45" s="4" t="str">
-        <f>HEX2BIN(MIDB($N45,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
+        <f t="shared" si="8"/>
+        <v>0()</v>
+      </c>
+      <c r="L45" s="3">
         <v>40</v>
       </c>
-      <c r="O45" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M45" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>61</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C46" s="4" t="str">
-        <f>HEX2BIN(MIDB($N46,1,1))&amp;"("&amp;MIDB($N46,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>100(4)</v>
       </c>
       <c r="D46" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N46,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N46,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>0(0)</v>
       </c>
       <c r="E46" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N46,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N46,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>0(0)</v>
       </c>
       <c r="F46" s="4" t="str">
-        <f>HEX2BIN(MIDB($N46,3,1))&amp;"("&amp;MIDB($N46,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>111(7)</v>
       </c>
       <c r="G46" s="4" t="str">
-        <f>HEX2BIN(MIDB($N46,4,1))&amp;"("&amp;MIDB($N46,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>100(4)</v>
       </c>
       <c r="H46" s="4" t="str">
-        <f>HEX2BIN(MIDB($N46,5,1))&amp;"("&amp;MIDB($N46,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>0()</v>
       </c>
       <c r="I46" s="4" t="str">
-        <f>HEX2BIN(MIDB($N46,6,1))&amp;"("&amp;MIDB($N46,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0()</v>
       </c>
       <c r="J46" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N46,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N46,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="7"/>
+        <v>0()</v>
       </c>
       <c r="K46" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N46,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N46,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L46" s="4" t="str">
-        <f>HEX2BIN(MIDB($N46,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M46" s="4" t="str">
-        <f>HEX2BIN(MIDB($N46,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
+        <f t="shared" si="8"/>
+        <v>0()</v>
+      </c>
+      <c r="L46" s="3">
         <v>4074</v>
       </c>
-      <c r="O46" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M46" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C47" s="4" t="str">
-        <f>HEX2BIN(MIDB($N47,1,1))&amp;"("&amp;MIDB($N47,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>1101(D)</v>
       </c>
       <c r="D47" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N47,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N47,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>0(0)</v>
       </c>
       <c r="E47" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N47,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N47,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>0(0)</v>
       </c>
       <c r="F47" s="4" t="str">
-        <f>HEX2BIN(MIDB($N47,3,1))&amp;"("&amp;MIDB($N47,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>0(0)</v>
       </c>
       <c r="G47" s="4" t="str">
-        <f>HEX2BIN(MIDB($N47,4,1))&amp;"("&amp;MIDB($N47,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>1100(C)</v>
       </c>
       <c r="H47" s="4" t="str">
-        <f>HEX2BIN(MIDB($N47,5,1))&amp;"("&amp;MIDB($N47,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>0(0)</v>
       </c>
       <c r="I47" s="4" t="str">
-        <f>HEX2BIN(MIDB($N47,6,1))&amp;"("&amp;MIDB($N47,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0(0)</v>
       </c>
       <c r="J47" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N47,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N47,7,1)),3,2))&amp;")"</f>
-        <v>1(1)</v>
+        <f t="shared" si="7"/>
+        <v>111(7)</v>
       </c>
       <c r="K47" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N47,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N47,7,1)),1,2))&amp;")"</f>
-        <v>11(3)</v>
-      </c>
-      <c r="L47" s="4" t="str">
-        <f>HEX2BIN(MIDB($N47,7,1))</f>
-        <v>111</v>
-      </c>
-      <c r="M47" s="4" t="str">
-        <f>HEX2BIN(MIDB($N47,8,1))</f>
-        <v>100</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>100(4)</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>63</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C48" s="4" t="str">
-        <f>HEX2BIN(MIDB($N48,1,1))&amp;"("&amp;MIDB($N48,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>1111(F)</v>
       </c>
       <c r="D48" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N48,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N48,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>0(0)</v>
       </c>
       <c r="E48" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N48,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N48,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>0(0)</v>
       </c>
       <c r="F48" s="4" t="str">
-        <f>HEX2BIN(MIDB($N48,3,1))&amp;"("&amp;MIDB($N48,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>0(0)</v>
       </c>
       <c r="G48" s="4" t="str">
-        <f>HEX2BIN(MIDB($N48,4,1))&amp;"("&amp;MIDB($N48,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>1110(E)</v>
       </c>
       <c r="H48" s="4" t="str">
-        <f>HEX2BIN(MIDB($N48,5,1))&amp;"("&amp;MIDB($N48,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>10(2)</v>
       </c>
       <c r="I48" s="4" t="str">
-        <f>HEX2BIN(MIDB($N48,6,1))&amp;"("&amp;MIDB($N48,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0(0)</v>
       </c>
       <c r="J48" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N48,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N48,7,1)),3,2))&amp;")"</f>
-        <v>1(1)</v>
+        <f t="shared" si="7"/>
+        <v>111(7)</v>
       </c>
       <c r="K48" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N48,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N48,7,1)),1,2))&amp;")"</f>
-        <v>11(3)</v>
-      </c>
-      <c r="L48" s="4" t="str">
-        <f>HEX2BIN(MIDB($N48,7,1))</f>
-        <v>111</v>
-      </c>
-      <c r="M48" s="4" t="str">
-        <f>HEX2BIN(MIDB($N48,8,1))</f>
-        <v>100</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>100(4)</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>64</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C49" s="4" t="str">
-        <f>HEX2BIN(MIDB($N49,1,1))&amp;"("&amp;MIDB($N49,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>0(0)</v>
       </c>
       <c r="D49" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N49,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N49,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>0(0)</v>
       </c>
       <c r="E49" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N49,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N49,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>0(0)</v>
       </c>
       <c r="F49" s="4" t="str">
-        <f>HEX2BIN(MIDB($N49,3,1))&amp;"("&amp;MIDB($N49,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>0(0)</v>
       </c>
       <c r="G49" s="4" t="str">
-        <f>HEX2BIN(MIDB($N49,4,1))&amp;"("&amp;MIDB($N49,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>0(0)</v>
       </c>
       <c r="H49" s="4" t="str">
-        <f>HEX2BIN(MIDB($N49,5,1))&amp;"("&amp;MIDB($N49,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>0(0)</v>
       </c>
       <c r="I49" s="4" t="str">
-        <f>HEX2BIN(MIDB($N49,6,1))&amp;"("&amp;MIDB($N49,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0(0)</v>
       </c>
       <c r="J49" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N49,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N49,7,1)),3,2))&amp;")"</f>
-        <v>11(3)</v>
+        <f t="shared" si="7"/>
+        <v>1011(B)</v>
       </c>
       <c r="K49" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N49,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N49,7,1)),1,2))&amp;")"</f>
-        <v>10(2)</v>
-      </c>
-      <c r="L49" s="4" t="str">
-        <f>HEX2BIN(MIDB($N49,7,1))</f>
-        <v>1011</v>
-      </c>
-      <c r="M49" s="4" t="str">
-        <f>HEX2BIN(MIDB($N49,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0(0)</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>65</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C50" s="4" t="str">
-        <f>HEX2BIN(MIDB($N50,1,1))&amp;"("&amp;MIDB($N50,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>1(1)</v>
       </c>
       <c r="D50" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N50,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N50,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>0(0)</v>
       </c>
       <c r="E50" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N50,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N50,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>0(0)</v>
       </c>
       <c r="F50" s="4" t="str">
-        <f>HEX2BIN(MIDB($N50,3,1))&amp;"("&amp;MIDB($N50,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>0(0)</v>
       </c>
       <c r="G50" s="4" t="str">
-        <f>HEX2BIN(MIDB($N50,4,1))&amp;"("&amp;MIDB($N50,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>0(0)</v>
       </c>
       <c r="H50" s="4" t="str">
-        <f>HEX2BIN(MIDB($N50,5,1))&amp;"("&amp;MIDB($N50,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>0(0)</v>
       </c>
       <c r="I50" s="4" t="str">
-        <f>HEX2BIN(MIDB($N50,6,1))&amp;"("&amp;MIDB($N50,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>1001(9)</v>
       </c>
       <c r="J50" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N50,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N50,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="7"/>
+        <v>0(0)</v>
       </c>
       <c r="K50" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N50,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N50,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L50" s="4" t="str">
-        <f>HEX2BIN(MIDB($N50,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M50" s="4" t="str">
-        <f>HEX2BIN(MIDB($N50,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="N50" s="3">
+        <f t="shared" si="8"/>
+        <v>0()</v>
+      </c>
+      <c r="L50" s="3">
         <v>1000090</v>
       </c>
-      <c r="O50" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M50" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>66</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C51" s="4" t="str">
-        <f>HEX2BIN(MIDB($N51,1,1))&amp;"("&amp;MIDB($N51,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>0(0)</v>
       </c>
       <c r="D51" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N51,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N51,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>11(3)</v>
       </c>
       <c r="E51" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N51,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N51,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>01(1)</v>
       </c>
       <c r="F51" s="4" t="str">
-        <f>HEX2BIN(MIDB($N51,3,1))&amp;"("&amp;MIDB($N51,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>0(0)</v>
       </c>
       <c r="G51" s="4" t="str">
-        <f>HEX2BIN(MIDB($N51,4,1))&amp;"("&amp;MIDB($N51,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>0(0)</v>
       </c>
       <c r="H51" s="4" t="str">
-        <f>HEX2BIN(MIDB($N51,5,1))&amp;"("&amp;MIDB($N51,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>0(0)</v>
       </c>
       <c r="I51" s="4" t="str">
-        <f>HEX2BIN(MIDB($N51,6,1))&amp;"("&amp;MIDB($N51,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0(0)</v>
       </c>
       <c r="J51" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N51,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N51,7,1)),3,2))&amp;")"</f>
-        <v>01(1)</v>
+        <f t="shared" si="7"/>
+        <v>1001(9)</v>
       </c>
       <c r="K51" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N51,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N51,7,1)),1,2))&amp;")"</f>
-        <v>10(2)</v>
-      </c>
-      <c r="L51" s="4" t="str">
-        <f>HEX2BIN(MIDB($N51,7,1))</f>
-        <v>1001</v>
-      </c>
-      <c r="M51" s="4" t="str">
-        <f>HEX2BIN(MIDB($N51,8,1))</f>
-        <v>10</v>
-      </c>
-      <c r="N51" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>10(2)</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>67</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C52" s="4" t="str">
-        <f>HEX2BIN(MIDB($N52,1,1))&amp;"("&amp;MIDB($N52,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>1100(C)</v>
       </c>
       <c r="D52" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N52,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N52,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>11(3)</v>
       </c>
       <c r="E52" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N52,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N52,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>01(1)</v>
       </c>
       <c r="F52" s="4" t="str">
-        <f>HEX2BIN(MIDB($N52,3,1))&amp;"("&amp;MIDB($N52,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>1010(A)</v>
       </c>
       <c r="G52" s="4" t="str">
-        <f>HEX2BIN(MIDB($N52,4,1))&amp;"("&amp;MIDB($N52,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>1011(B)</v>
       </c>
       <c r="H52" s="4" t="str">
-        <f>HEX2BIN(MIDB($N52,5,1))&amp;"("&amp;MIDB($N52,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>0(0)</v>
       </c>
       <c r="I52" s="4" t="str">
-        <f>HEX2BIN(MIDB($N52,6,1))&amp;"("&amp;MIDB($N52,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0(0)</v>
       </c>
       <c r="J52" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N52,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N52,7,1)),3,2))&amp;")"</f>
-        <v>0(0)</v>
+        <f t="shared" si="7"/>
+        <v>100(4)</v>
       </c>
       <c r="K52" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N52,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N52,7,1)),1,2))&amp;")"</f>
-        <v>10(2)</v>
-      </c>
-      <c r="L52" s="4" t="str">
-        <f>HEX2BIN(MIDB($N52,7,1))</f>
-        <v>100</v>
-      </c>
-      <c r="M52" s="4" t="str">
-        <f>HEX2BIN(MIDB($N52,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0(0)</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>68</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C53" s="4" t="str">
-        <f>HEX2BIN(MIDB($N53,1,1))&amp;"("&amp;MIDB($N53,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>11(3)</v>
       </c>
       <c r="D53" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N53,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N53,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>1(1)</v>
       </c>
       <c r="E53" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N53,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N53,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>01(1)</v>
       </c>
       <c r="F53" s="4" t="str">
-        <f>HEX2BIN(MIDB($N53,3,1))&amp;"("&amp;MIDB($N53,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>1010(A)</v>
       </c>
       <c r="G53" s="4" t="str">
-        <f>HEX2BIN(MIDB($N53,4,1))&amp;"("&amp;MIDB($N53,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>1111(F)</v>
       </c>
       <c r="H53" s="4" t="str">
-        <f>HEX2BIN(MIDB($N53,5,1))&amp;"("&amp;MIDB($N53,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>0(0)</v>
       </c>
       <c r="I53" s="4" t="str">
-        <f>HEX2BIN(MIDB($N53,6,1))&amp;"("&amp;MIDB($N53,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0(0)</v>
       </c>
       <c r="J53" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N53,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N53,7,1)),3,2))&amp;")"</f>
-        <v>10(2)</v>
+        <f t="shared" si="7"/>
+        <v>1010(A)</v>
       </c>
       <c r="K53" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N53,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N53,7,1)),1,2))&amp;")"</f>
-        <v>10(2)</v>
-      </c>
-      <c r="L53" s="4" t="str">
-        <f>HEX2BIN(MIDB($N53,7,1))</f>
-        <v>1010</v>
-      </c>
-      <c r="M53" s="4" t="str">
-        <f>HEX2BIN(MIDB($N53,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0(0)</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>69</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C54" s="4" t="str">
-        <f>HEX2BIN(MIDB($N54,1,1))&amp;"("&amp;MIDB($N54,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>1(1)</v>
       </c>
       <c r="D54" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N54,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N54,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>1(1)</v>
       </c>
       <c r="E54" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N54,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N54,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>01(1)</v>
       </c>
       <c r="F54" s="4" t="str">
-        <f>HEX2BIN(MIDB($N54,3,1))&amp;"("&amp;MIDB($N54,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>0(0)</v>
       </c>
       <c r="G54" s="4" t="str">
-        <f>HEX2BIN(MIDB($N54,4,1))&amp;"("&amp;MIDB($N54,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>0(0)</v>
       </c>
       <c r="H54" s="4" t="str">
-        <f>HEX2BIN(MIDB($N54,5,1))&amp;"("&amp;MIDB($N54,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>0(0)</v>
       </c>
       <c r="I54" s="4" t="str">
-        <f>HEX2BIN(MIDB($N54,6,1))&amp;"("&amp;MIDB($N54,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0(0)</v>
       </c>
       <c r="J54" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N54,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N54,7,1)),3,2))&amp;")"</f>
-        <v>1(1)</v>
+        <f t="shared" si="7"/>
+        <v>101(5)</v>
       </c>
       <c r="K54" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N54,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N54,7,1)),1,2))&amp;")"</f>
-        <v>10(2)</v>
-      </c>
-      <c r="L54" s="4" t="str">
-        <f>HEX2BIN(MIDB($N54,7,1))</f>
-        <v>101</v>
-      </c>
-      <c r="M54" s="4" t="str">
-        <f>HEX2BIN(MIDB($N54,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
+        <f t="shared" si="8"/>
+        <v>0(0)</v>
+      </c>
+      <c r="L54" s="3">
         <v>15000050</v>
       </c>
-      <c r="O54" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>70</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C55" s="4" t="str">
-        <f>HEX2BIN(MIDB($N55,1,1))&amp;"("&amp;MIDB($N55,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>100(4)</v>
       </c>
       <c r="D55" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N55,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N55,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>11(3)</v>
       </c>
       <c r="E55" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N55,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N55,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>11(3)</v>
       </c>
       <c r="F55" s="4" t="str">
-        <f>HEX2BIN(MIDB($N55,3,1))&amp;"("&amp;MIDB($N55,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>0(0)</v>
       </c>
       <c r="G55" s="4" t="str">
-        <f>HEX2BIN(MIDB($N55,4,1))&amp;"("&amp;MIDB($N55,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>0(0)</v>
       </c>
       <c r="H55" s="4" t="str">
-        <f>HEX2BIN(MIDB($N55,5,1))&amp;"("&amp;MIDB($N55,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>0(0)</v>
       </c>
       <c r="I55" s="4" t="str">
-        <f>HEX2BIN(MIDB($N55,6,1))&amp;"("&amp;MIDB($N55,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0(0)</v>
       </c>
       <c r="J55" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N55,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N55,7,1)),3,2))&amp;")"</f>
-        <v>1(1)</v>
+        <f t="shared" si="7"/>
+        <v>101(5)</v>
       </c>
       <c r="K55" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N55,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N55,7,1)),1,2))&amp;")"</f>
-        <v>10(2)</v>
-      </c>
-      <c r="L55" s="4" t="str">
-        <f>HEX2BIN(MIDB($N55,7,1))</f>
-        <v>101</v>
-      </c>
-      <c r="M55" s="4" t="str">
-        <f>HEX2BIN(MIDB($N55,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="N55" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0(0)</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>71</v>
       </c>
       <c r="C56" s="4" t="str">
-        <f>HEX2BIN(MIDB($N56,1,1))&amp;"("&amp;MIDB($N56,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>0()</v>
       </c>
       <c r="D56" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N56,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N56,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>0(0)</v>
       </c>
       <c r="E56" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N56,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N56,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>0(0)</v>
       </c>
       <c r="F56" s="4" t="str">
-        <f>HEX2BIN(MIDB($N56,3,1))&amp;"("&amp;MIDB($N56,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>0()</v>
       </c>
       <c r="G56" s="4" t="str">
-        <f>HEX2BIN(MIDB($N56,4,1))&amp;"("&amp;MIDB($N56,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>0()</v>
       </c>
       <c r="H56" s="4" t="str">
-        <f>HEX2BIN(MIDB($N56,5,1))&amp;"("&amp;MIDB($N56,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>0()</v>
       </c>
       <c r="I56" s="4" t="str">
-        <f>HEX2BIN(MIDB($N56,6,1))&amp;"("&amp;MIDB($N56,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0()</v>
       </c>
       <c r="J56" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N56,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N56,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="7"/>
+        <v>0()</v>
       </c>
       <c r="K56" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N56,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N56,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L56" s="4" t="str">
-        <f>HEX2BIN(MIDB($N56,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M56" s="4" t="str">
-        <f>HEX2BIN(MIDB($N56,8,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0()</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>72</v>
       </c>
       <c r="C57" s="4" t="str">
-        <f>HEX2BIN(MIDB($N57,1,1))&amp;"("&amp;MIDB($N57,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>0()</v>
       </c>
       <c r="D57" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N57,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N57,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>0(0)</v>
       </c>
       <c r="E57" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N57,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N57,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>0(0)</v>
       </c>
       <c r="F57" s="4" t="str">
-        <f>HEX2BIN(MIDB($N57,3,1))&amp;"("&amp;MIDB($N57,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>0()</v>
       </c>
       <c r="G57" s="4" t="str">
-        <f>HEX2BIN(MIDB($N57,4,1))&amp;"("&amp;MIDB($N57,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>0()</v>
       </c>
       <c r="H57" s="4" t="str">
-        <f>HEX2BIN(MIDB($N57,5,1))&amp;"("&amp;MIDB($N57,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>0()</v>
       </c>
       <c r="I57" s="4" t="str">
-        <f>HEX2BIN(MIDB($N57,6,1))&amp;"("&amp;MIDB($N57,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0()</v>
       </c>
       <c r="J57" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N57,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N57,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="7"/>
+        <v>0()</v>
       </c>
       <c r="K57" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N57,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N57,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L57" s="4" t="str">
-        <f>HEX2BIN(MIDB($N57,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M57" s="4" t="str">
-        <f>HEX2BIN(MIDB($N57,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0()</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>73</v>
       </c>
       <c r="C58" s="4" t="str">
-        <f>HEX2BIN(MIDB($N58,1,1))&amp;"("&amp;MIDB($N58,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>0()</v>
       </c>
       <c r="D58" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N58,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N58,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>0(0)</v>
       </c>
       <c r="E58" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N58,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N58,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>0(0)</v>
       </c>
       <c r="F58" s="4" t="str">
-        <f>HEX2BIN(MIDB($N58,3,1))&amp;"("&amp;MIDB($N58,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>0()</v>
       </c>
       <c r="G58" s="4" t="str">
-        <f>HEX2BIN(MIDB($N58,4,1))&amp;"("&amp;MIDB($N58,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>0()</v>
       </c>
       <c r="H58" s="4" t="str">
-        <f>HEX2BIN(MIDB($N58,5,1))&amp;"("&amp;MIDB($N58,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>0()</v>
       </c>
       <c r="I58" s="4" t="str">
-        <f>HEX2BIN(MIDB($N58,6,1))&amp;"("&amp;MIDB($N58,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0()</v>
       </c>
       <c r="J58" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N58,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N58,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="7"/>
+        <v>0()</v>
       </c>
       <c r="K58" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N58,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N58,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L58" s="4" t="str">
-        <f>HEX2BIN(MIDB($N58,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M58" s="4" t="str">
-        <f>HEX2BIN(MIDB($N58,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0()</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>74</v>
       </c>
       <c r="C59" s="4" t="str">
-        <f>HEX2BIN(MIDB($N59,1,1))&amp;"("&amp;MIDB($N59,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>0()</v>
       </c>
       <c r="D59" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N59,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N59,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>0(0)</v>
       </c>
       <c r="E59" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N59,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N59,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>0(0)</v>
       </c>
       <c r="F59" s="4" t="str">
-        <f>HEX2BIN(MIDB($N59,3,1))&amp;"("&amp;MIDB($N59,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>0()</v>
       </c>
       <c r="G59" s="4" t="str">
-        <f>HEX2BIN(MIDB($N59,4,1))&amp;"("&amp;MIDB($N59,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>0()</v>
       </c>
       <c r="H59" s="4" t="str">
-        <f>HEX2BIN(MIDB($N59,5,1))&amp;"("&amp;MIDB($N59,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>0()</v>
       </c>
       <c r="I59" s="4" t="str">
-        <f>HEX2BIN(MIDB($N59,6,1))&amp;"("&amp;MIDB($N59,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0()</v>
       </c>
       <c r="J59" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N59,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N59,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="7"/>
+        <v>0()</v>
       </c>
       <c r="K59" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N59,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N59,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L59" s="4" t="str">
-        <f>HEX2BIN(MIDB($N59,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M59" s="4" t="str">
-        <f>HEX2BIN(MIDB($N59,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0()</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>75</v>
       </c>
       <c r="C60" s="4" t="str">
-        <f>HEX2BIN(MIDB($N60,1,1))&amp;"("&amp;MIDB($N60,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>0()</v>
       </c>
       <c r="D60" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N60,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N60,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>0(0)</v>
       </c>
       <c r="E60" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N60,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N60,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>0(0)</v>
       </c>
       <c r="F60" s="4" t="str">
-        <f>HEX2BIN(MIDB($N60,3,1))&amp;"("&amp;MIDB($N60,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>0()</v>
       </c>
       <c r="G60" s="4" t="str">
-        <f>HEX2BIN(MIDB($N60,4,1))&amp;"("&amp;MIDB($N60,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>0()</v>
       </c>
       <c r="H60" s="4" t="str">
-        <f>HEX2BIN(MIDB($N60,5,1))&amp;"("&amp;MIDB($N60,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>0()</v>
       </c>
       <c r="I60" s="4" t="str">
-        <f>HEX2BIN(MIDB($N60,6,1))&amp;"("&amp;MIDB($N60,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0()</v>
       </c>
       <c r="J60" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N60,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N60,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="7"/>
+        <v>0()</v>
       </c>
       <c r="K60" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N60,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N60,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L60" s="4" t="str">
-        <f>HEX2BIN(MIDB($N60,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M60" s="4" t="str">
-        <f>HEX2BIN(MIDB($N60,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0()</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>76</v>
       </c>
       <c r="C61" s="4" t="str">
-        <f>HEX2BIN(MIDB($N61,1,1))&amp;"("&amp;MIDB($N61,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>0()</v>
       </c>
       <c r="D61" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N61,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N61,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>0(0)</v>
       </c>
       <c r="E61" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N61,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N61,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>0(0)</v>
       </c>
       <c r="F61" s="4" t="str">
-        <f>HEX2BIN(MIDB($N61,3,1))&amp;"("&amp;MIDB($N61,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>0()</v>
       </c>
       <c r="G61" s="4" t="str">
-        <f>HEX2BIN(MIDB($N61,4,1))&amp;"("&amp;MIDB($N61,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>0()</v>
       </c>
       <c r="H61" s="4" t="str">
-        <f>HEX2BIN(MIDB($N61,5,1))&amp;"("&amp;MIDB($N61,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>0()</v>
       </c>
       <c r="I61" s="4" t="str">
-        <f>HEX2BIN(MIDB($N61,6,1))&amp;"("&amp;MIDB($N61,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0()</v>
       </c>
       <c r="J61" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N61,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N61,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="7"/>
+        <v>0()</v>
       </c>
       <c r="K61" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N61,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N61,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L61" s="4" t="str">
-        <f>HEX2BIN(MIDB($N61,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M61" s="4" t="str">
-        <f>HEX2BIN(MIDB($N61,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0()</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>77</v>
       </c>
       <c r="C62" s="4" t="str">
-        <f>HEX2BIN(MIDB($N62,1,1))&amp;"("&amp;MIDB($N62,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>0()</v>
       </c>
       <c r="D62" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N62,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N62,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>0(0)</v>
       </c>
       <c r="E62" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N62,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N62,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>0(0)</v>
       </c>
       <c r="F62" s="4" t="str">
-        <f>HEX2BIN(MIDB($N62,3,1))&amp;"("&amp;MIDB($N62,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>0()</v>
       </c>
       <c r="G62" s="4" t="str">
-        <f>HEX2BIN(MIDB($N62,4,1))&amp;"("&amp;MIDB($N62,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>0()</v>
       </c>
       <c r="H62" s="4" t="str">
-        <f>HEX2BIN(MIDB($N62,5,1))&amp;"("&amp;MIDB($N62,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>0()</v>
       </c>
       <c r="I62" s="4" t="str">
-        <f>HEX2BIN(MIDB($N62,6,1))&amp;"("&amp;MIDB($N62,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0()</v>
       </c>
       <c r="J62" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N62,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N62,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="7"/>
+        <v>0()</v>
       </c>
       <c r="K62" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N62,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N62,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L62" s="4" t="str">
-        <f>HEX2BIN(MIDB($N62,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M62" s="4" t="str">
-        <f>HEX2BIN(MIDB($N62,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0()</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>78</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C63" s="4" t="str">
-        <f>HEX2BIN(MIDB($N63,1,1))&amp;"("&amp;MIDB($N63,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>1010(A)</v>
       </c>
       <c r="D63" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N63,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N63,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>10(2)</v>
       </c>
       <c r="E63" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N63,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N63,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>11(3)</v>
       </c>
       <c r="F63" s="4" t="str">
-        <f>HEX2BIN(MIDB($N63,3,1))&amp;"("&amp;MIDB($N63,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>0(0)</v>
       </c>
       <c r="G63" s="4" t="str">
-        <f>HEX2BIN(MIDB($N63,4,1))&amp;"("&amp;MIDB($N63,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>0(0)</v>
       </c>
       <c r="H63" s="4" t="str">
-        <f>HEX2BIN(MIDB($N63,5,1))&amp;"("&amp;MIDB($N63,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>111(7)</v>
       </c>
       <c r="I63" s="4" t="str">
-        <f>HEX2BIN(MIDB($N63,6,1))&amp;"("&amp;MIDB($N63,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>1011(B)</v>
       </c>
       <c r="J63" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N63,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N63,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="7"/>
+        <v>11(3)</v>
       </c>
       <c r="K63" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N63,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N63,7,1)),1,2))&amp;")"</f>
-        <v>11(3)</v>
-      </c>
-      <c r="L63" s="4" t="str">
-        <f>HEX2BIN(MIDB($N63,7,1))</f>
-        <v>11</v>
-      </c>
-      <c r="M63" s="4" t="str">
-        <f>HEX2BIN(MIDB($N63,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="N63" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0(0)</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>79</v>
       </c>
       <c r="C64" s="4" t="str">
-        <f>HEX2BIN(MIDB($N64,1,1))&amp;"("&amp;MIDB($N64,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>0()</v>
       </c>
       <c r="D64" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N64,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N64,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>0(0)</v>
       </c>
       <c r="E64" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N64,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N64,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>0(0)</v>
       </c>
       <c r="F64" s="4" t="str">
-        <f>HEX2BIN(MIDB($N64,3,1))&amp;"("&amp;MIDB($N64,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>0()</v>
       </c>
       <c r="G64" s="4" t="str">
-        <f>HEX2BIN(MIDB($N64,4,1))&amp;"("&amp;MIDB($N64,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>0()</v>
       </c>
       <c r="H64" s="4" t="str">
-        <f>HEX2BIN(MIDB($N64,5,1))&amp;"("&amp;MIDB($N64,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>0()</v>
       </c>
       <c r="I64" s="4" t="str">
-        <f>HEX2BIN(MIDB($N64,6,1))&amp;"("&amp;MIDB($N64,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0()</v>
       </c>
       <c r="J64" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N64,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N64,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="7"/>
+        <v>0()</v>
       </c>
       <c r="K64" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N64,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N64,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L64" s="4" t="str">
-        <f>HEX2BIN(MIDB($N64,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M64" s="4" t="str">
-        <f>HEX2BIN(MIDB($N64,8,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0()</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>80</v>
       </c>
       <c r="C65" s="4" t="str">
-        <f>HEX2BIN(MIDB($N65,1,1))&amp;"("&amp;MIDB($N65,1,1)&amp;")"</f>
+        <f t="shared" si="9"/>
         <v>0()</v>
       </c>
       <c r="D65" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N65,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N65,2,1)),4)&amp;")"</f>
+        <f t="shared" si="10"/>
         <v>0(0)</v>
       </c>
       <c r="E65" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N65,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N65,2,1)),2))&amp;")"</f>
+        <f t="shared" si="11"/>
         <v>0(0)</v>
       </c>
       <c r="F65" s="4" t="str">
-        <f>HEX2BIN(MIDB($N65,3,1))&amp;"("&amp;MIDB($N65,3,1)&amp;")"</f>
+        <f t="shared" si="12"/>
         <v>0()</v>
       </c>
       <c r="G65" s="4" t="str">
-        <f>HEX2BIN(MIDB($N65,4,1))&amp;"("&amp;MIDB($N65,4,1)&amp;")"</f>
+        <f t="shared" si="13"/>
         <v>0()</v>
       </c>
       <c r="H65" s="4" t="str">
-        <f>HEX2BIN(MIDB($N65,5,1))&amp;"("&amp;MIDB($N65,5,1)&amp;")"</f>
+        <f t="shared" si="14"/>
         <v>0()</v>
       </c>
       <c r="I65" s="4" t="str">
-        <f>HEX2BIN(MIDB($N65,6,1))&amp;"("&amp;MIDB($N65,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0()</v>
       </c>
       <c r="J65" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N65,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N65,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="7"/>
+        <v>0()</v>
       </c>
       <c r="K65" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N65,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N65,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L65" s="4" t="str">
-        <f>HEX2BIN(MIDB($N65,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M65" s="4" t="str">
-        <f>HEX2BIN(MIDB($N65,8,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0()</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>81</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C66" s="4" t="str">
-        <f>HEX2BIN(MIDB($N66,1,1))&amp;"("&amp;MIDB($N66,1,1)&amp;")"</f>
+        <f t="shared" ref="C66:C77" si="16">HEX2BIN(MIDB($L66,1,1))&amp;"("&amp;MIDB($L66,1,1)&amp;")"</f>
         <v>1010(A)</v>
       </c>
       <c r="D66" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N66,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N66,2,1)),4)&amp;")"</f>
+        <f t="shared" ref="D66:D77" si="17">DEC2BIN(QUOTIENT(HEX2DEC(MIDB($L66,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($L66,2,1)),4)&amp;")"</f>
         <v>10(2)</v>
       </c>
       <c r="E66" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N66,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N66,2,1)),2))&amp;")"</f>
+        <f t="shared" ref="E66:E77" si="18">RIGHT(HEX2BIN(MIDB($L66,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($L66,2,1)),2))&amp;")"</f>
         <v>11(3)</v>
       </c>
       <c r="F66" s="4" t="str">
-        <f>HEX2BIN(MIDB($N66,3,1))&amp;"("&amp;MIDB($N66,3,1)&amp;")"</f>
+        <f t="shared" ref="F66:F77" si="19">HEX2BIN(MIDB($L66,3,1))&amp;"("&amp;MIDB($L66,3,1)&amp;")"</f>
         <v>1110(E)</v>
       </c>
       <c r="G66" s="4" t="str">
-        <f>HEX2BIN(MIDB($N66,4,1))&amp;"("&amp;MIDB($N66,4,1)&amp;")"</f>
+        <f t="shared" ref="G66:G77" si="20">HEX2BIN(MIDB($L66,4,1))&amp;"("&amp;MIDB($L66,4,1)&amp;")"</f>
         <v>1111(F)</v>
       </c>
       <c r="H66" s="4" t="str">
-        <f>HEX2BIN(MIDB($N66,5,1))&amp;"("&amp;MIDB($N66,5,1)&amp;")"</f>
+        <f t="shared" ref="H66:H77" si="21">HEX2BIN(MIDB($L66,5,1))&amp;"("&amp;MIDB($L66,5,1)&amp;")"</f>
         <v>111(7)</v>
       </c>
       <c r="I66" s="4" t="str">
-        <f>HEX2BIN(MIDB($N66,6,1))&amp;"("&amp;MIDB($N66,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>1000(8)</v>
       </c>
       <c r="J66" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N66,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N66,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="7"/>
+        <v>11(3)</v>
       </c>
       <c r="K66" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N66,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N66,7,1)),1,2))&amp;")"</f>
-        <v>11(3)</v>
-      </c>
-      <c r="L66" s="4" t="str">
-        <f>HEX2BIN(MIDB($N66,7,1))</f>
-        <v>11</v>
-      </c>
-      <c r="M66" s="4" t="str">
-        <f>HEX2BIN(MIDB($N66,8,1))</f>
-        <v>1000</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1000(8)</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>82</v>
       </c>
       <c r="C67" s="4" t="str">
-        <f>HEX2BIN(MIDB($N67,1,1))&amp;"("&amp;MIDB($N67,1,1)&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>0()</v>
       </c>
       <c r="D67" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N67,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N67,2,1)),4)&amp;")"</f>
+        <f t="shared" si="17"/>
         <v>0(0)</v>
       </c>
       <c r="E67" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N67,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N67,2,1)),2))&amp;")"</f>
+        <f t="shared" si="18"/>
         <v>0(0)</v>
       </c>
       <c r="F67" s="4" t="str">
-        <f>HEX2BIN(MIDB($N67,3,1))&amp;"("&amp;MIDB($N67,3,1)&amp;")"</f>
+        <f t="shared" si="19"/>
         <v>0()</v>
       </c>
       <c r="G67" s="4" t="str">
-        <f>HEX2BIN(MIDB($N67,4,1))&amp;"("&amp;MIDB($N67,4,1)&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>0()</v>
       </c>
       <c r="H67" s="4" t="str">
-        <f>HEX2BIN(MIDB($N67,5,1))&amp;"("&amp;MIDB($N67,5,1)&amp;")"</f>
+        <f t="shared" si="21"/>
         <v>0()</v>
       </c>
       <c r="I67" s="4" t="str">
-        <f>HEX2BIN(MIDB($N67,6,1))&amp;"("&amp;MIDB($N67,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0()</v>
       </c>
       <c r="J67" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N67,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N67,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" ref="J67:J77" si="22">HEX2BIN(MIDB($L67,7,1))&amp;"("&amp;MIDB($L67,7,1)&amp;")"</f>
+        <v>0()</v>
       </c>
       <c r="K67" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N67,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N67,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L67" s="4" t="str">
-        <f>HEX2BIN(MIDB($N67,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M67" s="4" t="str">
-        <f>HEX2BIN(MIDB($N67,8,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K67:K77" si="23">HEX2BIN(MIDB($L67,8,1))&amp;"("&amp;MIDB($L67,8,1)&amp;")"</f>
+        <v>0()</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>83</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C68" s="4" t="str">
-        <f>HEX2BIN(MIDB($N68,1,1))&amp;"("&amp;MIDB($N68,1,1)&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>10(2)</v>
       </c>
       <c r="D68" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N68,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N68,2,1)),4)&amp;")"</f>
+        <f t="shared" si="17"/>
         <v>0(0)</v>
       </c>
       <c r="E68" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N68,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N68,2,1)),2))&amp;")"</f>
+        <f t="shared" si="18"/>
         <v>0(0)</v>
       </c>
       <c r="F68" s="4" t="str">
-        <f>HEX2BIN(MIDB($N68,3,1))&amp;"("&amp;MIDB($N68,3,1)&amp;")"</f>
+        <f t="shared" si="19"/>
         <v>0(0)</v>
       </c>
       <c r="G68" s="4" t="str">
-        <f>HEX2BIN(MIDB($N68,4,1))&amp;"("&amp;MIDB($N68,4,1)&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>1(1)</v>
       </c>
       <c r="H68" s="4" t="str">
-        <f>HEX2BIN(MIDB($N68,5,1))&amp;"("&amp;MIDB($N68,5,1)&amp;")"</f>
+        <f t="shared" si="21"/>
         <v>0(0)</v>
       </c>
       <c r="I68" s="4" t="str">
-        <f>HEX2BIN(MIDB($N68,6,1))&amp;"("&amp;MIDB($N68,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0(0)</v>
       </c>
       <c r="J68" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N68,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N68,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="22"/>
+        <v>10(2)</v>
       </c>
       <c r="K68" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N68,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N68,7,1)),1,2))&amp;")"</f>
-        <v>10(2)</v>
-      </c>
-      <c r="L68" s="4" t="str">
-        <f>HEX2BIN(MIDB($N68,7,1))</f>
-        <v>10</v>
-      </c>
-      <c r="M68" s="4" t="str">
-        <f>HEX2BIN(MIDB($N68,8,1))</f>
-        <v>1</v>
-      </c>
-      <c r="N68" s="3">
+        <f t="shared" si="23"/>
+        <v>1(1)</v>
+      </c>
+      <c r="L68" s="3">
         <v>20010021</v>
       </c>
-      <c r="O68" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M68" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>84</v>
       </c>
       <c r="C69" s="4" t="str">
-        <f>HEX2BIN(MIDB($N69,1,1))&amp;"("&amp;MIDB($N69,1,1)&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>0()</v>
       </c>
       <c r="D69" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N69,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N69,2,1)),4)&amp;")"</f>
+        <f t="shared" si="17"/>
         <v>0(0)</v>
       </c>
       <c r="E69" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N69,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N69,2,1)),2))&amp;")"</f>
+        <f t="shared" si="18"/>
         <v>0(0)</v>
       </c>
       <c r="F69" s="4" t="str">
-        <f>HEX2BIN(MIDB($N69,3,1))&amp;"("&amp;MIDB($N69,3,1)&amp;")"</f>
+        <f t="shared" si="19"/>
         <v>0()</v>
       </c>
       <c r="G69" s="4" t="str">
-        <f>HEX2BIN(MIDB($N69,4,1))&amp;"("&amp;MIDB($N69,4,1)&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>0()</v>
       </c>
       <c r="H69" s="4" t="str">
-        <f>HEX2BIN(MIDB($N69,5,1))&amp;"("&amp;MIDB($N69,5,1)&amp;")"</f>
+        <f t="shared" si="21"/>
         <v>0()</v>
       </c>
       <c r="I69" s="4" t="str">
-        <f>HEX2BIN(MIDB($N69,6,1))&amp;"("&amp;MIDB($N69,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0()</v>
       </c>
       <c r="J69" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N69,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N69,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="22"/>
+        <v>0()</v>
       </c>
       <c r="K69" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N69,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N69,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L69" s="4" t="str">
-        <f>HEX2BIN(MIDB($N69,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M69" s="4" t="str">
-        <f>HEX2BIN(MIDB($N69,8,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>0()</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>85</v>
       </c>
       <c r="C70" s="4" t="str">
-        <f>HEX2BIN(MIDB($N70,1,1))&amp;"("&amp;MIDB($N70,1,1)&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>0()</v>
       </c>
       <c r="D70" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N70,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N70,2,1)),4)&amp;")"</f>
+        <f t="shared" si="17"/>
         <v>0(0)</v>
       </c>
       <c r="E70" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N70,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N70,2,1)),2))&amp;")"</f>
+        <f t="shared" si="18"/>
         <v>0(0)</v>
       </c>
       <c r="F70" s="4" t="str">
-        <f>HEX2BIN(MIDB($N70,3,1))&amp;"("&amp;MIDB($N70,3,1)&amp;")"</f>
+        <f t="shared" si="19"/>
         <v>0()</v>
       </c>
       <c r="G70" s="4" t="str">
-        <f>HEX2BIN(MIDB($N70,4,1))&amp;"("&amp;MIDB($N70,4,1)&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>0()</v>
       </c>
       <c r="H70" s="4" t="str">
-        <f>HEX2BIN(MIDB($N70,5,1))&amp;"("&amp;MIDB($N70,5,1)&amp;")"</f>
+        <f t="shared" si="21"/>
         <v>0()</v>
       </c>
       <c r="I70" s="4" t="str">
-        <f>HEX2BIN(MIDB($N70,6,1))&amp;"("&amp;MIDB($N70,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0()</v>
       </c>
       <c r="J70" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N70,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N70,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="22"/>
+        <v>0()</v>
       </c>
       <c r="K70" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N70,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N70,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L70" s="4" t="str">
-        <f>HEX2BIN(MIDB($N70,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M70" s="4" t="str">
-        <f>HEX2BIN(MIDB($N70,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>0()</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>86</v>
       </c>
       <c r="C71" s="4" t="str">
-        <f>HEX2BIN(MIDB($N71,1,1))&amp;"("&amp;MIDB($N71,1,1)&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>0()</v>
       </c>
       <c r="D71" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N71,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N71,2,1)),4)&amp;")"</f>
+        <f t="shared" si="17"/>
         <v>0(0)</v>
       </c>
       <c r="E71" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N71,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N71,2,1)),2))&amp;")"</f>
+        <f t="shared" si="18"/>
         <v>0(0)</v>
       </c>
       <c r="F71" s="4" t="str">
-        <f>HEX2BIN(MIDB($N71,3,1))&amp;"("&amp;MIDB($N71,3,1)&amp;")"</f>
+        <f t="shared" si="19"/>
         <v>0()</v>
       </c>
       <c r="G71" s="4" t="str">
-        <f>HEX2BIN(MIDB($N71,4,1))&amp;"("&amp;MIDB($N71,4,1)&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>0()</v>
       </c>
       <c r="H71" s="4" t="str">
-        <f>HEX2BIN(MIDB($N71,5,1))&amp;"("&amp;MIDB($N71,5,1)&amp;")"</f>
+        <f t="shared" si="21"/>
         <v>0()</v>
       </c>
       <c r="I71" s="4" t="str">
-        <f>HEX2BIN(MIDB($N71,6,1))&amp;"("&amp;MIDB($N71,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0()</v>
       </c>
       <c r="J71" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N71,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N71,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="22"/>
+        <v>0()</v>
       </c>
       <c r="K71" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N71,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N71,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L71" s="4" t="str">
-        <f>HEX2BIN(MIDB($N71,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M71" s="4" t="str">
-        <f>HEX2BIN(MIDB($N71,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>0()</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>87</v>
       </c>
       <c r="C72" s="4" t="str">
-        <f>HEX2BIN(MIDB($N72,1,1))&amp;"("&amp;MIDB($N72,1,1)&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>0()</v>
       </c>
       <c r="D72" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N72,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N72,2,1)),4)&amp;")"</f>
+        <f t="shared" si="17"/>
         <v>0(0)</v>
       </c>
       <c r="E72" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N72,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N72,2,1)),2))&amp;")"</f>
+        <f t="shared" si="18"/>
         <v>0(0)</v>
       </c>
       <c r="F72" s="4" t="str">
-        <f>HEX2BIN(MIDB($N72,3,1))&amp;"("&amp;MIDB($N72,3,1)&amp;")"</f>
+        <f t="shared" si="19"/>
         <v>0()</v>
       </c>
       <c r="G72" s="4" t="str">
-        <f>HEX2BIN(MIDB($N72,4,1))&amp;"("&amp;MIDB($N72,4,1)&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>0()</v>
       </c>
       <c r="H72" s="4" t="str">
-        <f>HEX2BIN(MIDB($N72,5,1))&amp;"("&amp;MIDB($N72,5,1)&amp;")"</f>
+        <f t="shared" si="21"/>
         <v>0()</v>
       </c>
       <c r="I72" s="4" t="str">
-        <f>HEX2BIN(MIDB($N72,6,1))&amp;"("&amp;MIDB($N72,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0()</v>
       </c>
       <c r="J72" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N72,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N72,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="22"/>
+        <v>0()</v>
       </c>
       <c r="K72" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N72,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N72,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L72" s="4" t="str">
-        <f>HEX2BIN(MIDB($N72,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M72" s="4" t="str">
-        <f>HEX2BIN(MIDB($N72,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>0()</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>88</v>
       </c>
       <c r="C73" s="4" t="str">
-        <f>HEX2BIN(MIDB($N73,1,1))&amp;"("&amp;MIDB($N73,1,1)&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>0()</v>
       </c>
       <c r="D73" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N73,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N73,2,1)),4)&amp;")"</f>
+        <f t="shared" si="17"/>
         <v>0(0)</v>
       </c>
       <c r="E73" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N73,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N73,2,1)),2))&amp;")"</f>
+        <f t="shared" si="18"/>
         <v>0(0)</v>
       </c>
       <c r="F73" s="4" t="str">
-        <f>HEX2BIN(MIDB($N73,3,1))&amp;"("&amp;MIDB($N73,3,1)&amp;")"</f>
+        <f t="shared" si="19"/>
         <v>0()</v>
       </c>
       <c r="G73" s="4" t="str">
-        <f>HEX2BIN(MIDB($N73,4,1))&amp;"("&amp;MIDB($N73,4,1)&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>0()</v>
       </c>
       <c r="H73" s="4" t="str">
-        <f>HEX2BIN(MIDB($N73,5,1))&amp;"("&amp;MIDB($N73,5,1)&amp;")"</f>
+        <f t="shared" si="21"/>
         <v>0()</v>
       </c>
       <c r="I73" s="4" t="str">
-        <f>HEX2BIN(MIDB($N73,6,1))&amp;"("&amp;MIDB($N73,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0()</v>
       </c>
       <c r="J73" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N73,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N73,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="22"/>
+        <v>0()</v>
       </c>
       <c r="K73" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N73,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N73,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L73" s="4" t="str">
-        <f>HEX2BIN(MIDB($N73,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M73" s="4" t="str">
-        <f>HEX2BIN(MIDB($N73,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>0()</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>89</v>
       </c>
       <c r="C74" s="4" t="str">
-        <f>HEX2BIN(MIDB($N74,1,1))&amp;"("&amp;MIDB($N74,1,1)&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>0()</v>
       </c>
       <c r="D74" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N74,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N74,2,1)),4)&amp;")"</f>
+        <f t="shared" si="17"/>
         <v>0(0)</v>
       </c>
       <c r="E74" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N74,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N74,2,1)),2))&amp;")"</f>
+        <f t="shared" si="18"/>
         <v>0(0)</v>
       </c>
       <c r="F74" s="4" t="str">
-        <f>HEX2BIN(MIDB($N74,3,1))&amp;"("&amp;MIDB($N74,3,1)&amp;")"</f>
+        <f t="shared" si="19"/>
         <v>0()</v>
       </c>
       <c r="G74" s="4" t="str">
-        <f>HEX2BIN(MIDB($N74,4,1))&amp;"("&amp;MIDB($N74,4,1)&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>0()</v>
       </c>
       <c r="H74" s="4" t="str">
-        <f>HEX2BIN(MIDB($N74,5,1))&amp;"("&amp;MIDB($N74,5,1)&amp;")"</f>
+        <f t="shared" si="21"/>
         <v>0()</v>
       </c>
       <c r="I74" s="4" t="str">
-        <f>HEX2BIN(MIDB($N74,6,1))&amp;"("&amp;MIDB($N74,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0()</v>
       </c>
       <c r="J74" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N74,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N74,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="22"/>
+        <v>0()</v>
       </c>
       <c r="K74" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N74,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N74,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L74" s="4" t="str">
-        <f>HEX2BIN(MIDB($N74,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M74" s="4" t="str">
-        <f>HEX2BIN(MIDB($N74,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>0()</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>90</v>
       </c>
       <c r="C75" s="4" t="str">
-        <f>HEX2BIN(MIDB($N75,1,1))&amp;"("&amp;MIDB($N75,1,1)&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>0()</v>
       </c>
       <c r="D75" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N75,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N75,2,1)),4)&amp;")"</f>
+        <f t="shared" si="17"/>
         <v>0(0)</v>
       </c>
       <c r="E75" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N75,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N75,2,1)),2))&amp;")"</f>
+        <f t="shared" si="18"/>
         <v>0(0)</v>
       </c>
       <c r="F75" s="4" t="str">
-        <f>HEX2BIN(MIDB($N75,3,1))&amp;"("&amp;MIDB($N75,3,1)&amp;")"</f>
+        <f t="shared" si="19"/>
         <v>0()</v>
       </c>
       <c r="G75" s="4" t="str">
-        <f>HEX2BIN(MIDB($N75,4,1))&amp;"("&amp;MIDB($N75,4,1)&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>0()</v>
       </c>
       <c r="H75" s="4" t="str">
-        <f>HEX2BIN(MIDB($N75,5,1))&amp;"("&amp;MIDB($N75,5,1)&amp;")"</f>
+        <f t="shared" si="21"/>
         <v>0()</v>
       </c>
       <c r="I75" s="4" t="str">
-        <f>HEX2BIN(MIDB($N75,6,1))&amp;"("&amp;MIDB($N75,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0()</v>
       </c>
       <c r="J75" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N75,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N75,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="22"/>
+        <v>0()</v>
       </c>
       <c r="K75" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N75,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N75,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L75" s="4" t="str">
-        <f>HEX2BIN(MIDB($N75,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M75" s="4" t="str">
-        <f>HEX2BIN(MIDB($N75,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="O75" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>0()</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>91</v>
       </c>
       <c r="C76" s="4" t="str">
-        <f>HEX2BIN(MIDB($N76,1,1))&amp;"("&amp;MIDB($N76,1,1)&amp;")"</f>
+        <f t="shared" si="16"/>
         <v>0()</v>
       </c>
       <c r="D76" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N76,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N76,2,1)),4)&amp;")"</f>
+        <f t="shared" si="17"/>
         <v>0(0)</v>
       </c>
       <c r="E76" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N76,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N76,2,1)),2))&amp;")"</f>
+        <f t="shared" si="18"/>
         <v>0(0)</v>
       </c>
       <c r="F76" s="4" t="str">
-        <f>HEX2BIN(MIDB($N76,3,1))&amp;"("&amp;MIDB($N76,3,1)&amp;")"</f>
+        <f t="shared" si="19"/>
         <v>0()</v>
       </c>
       <c r="G76" s="4" t="str">
-        <f>HEX2BIN(MIDB($N76,4,1))&amp;"("&amp;MIDB($N76,4,1)&amp;")"</f>
+        <f t="shared" si="20"/>
         <v>0()</v>
       </c>
       <c r="H76" s="4" t="str">
-        <f>HEX2BIN(MIDB($N76,5,1))&amp;"("&amp;MIDB($N76,5,1)&amp;")"</f>
+        <f t="shared" si="21"/>
         <v>0()</v>
       </c>
       <c r="I76" s="4" t="str">
-        <f>HEX2BIN(MIDB($N76,6,1))&amp;"("&amp;MIDB($N76,6,1)&amp;")"</f>
+        <f t="shared" si="15"/>
         <v>0()</v>
       </c>
       <c r="J76" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N76,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N76,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
+        <f t="shared" si="22"/>
+        <v>0()</v>
       </c>
       <c r="K76" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N76,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N76,7,1)),1,2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="L76" s="4" t="str">
-        <f>HEX2BIN(MIDB($N76,7,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M76" s="4" t="str">
-        <f>HEX2BIN(MIDB($N76,8,1))</f>
-        <v>0</v>
-      </c>
-      <c r="O76" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>0()</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>92</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C77" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>10(2)</v>
+      </c>
+      <c r="D77" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>0(0)</v>
+      </c>
+      <c r="E77" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>0(0)</v>
+      </c>
+      <c r="F77" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>100(4)</v>
+      </c>
+      <c r="G77" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>1(1)</v>
+      </c>
+      <c r="H77" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>1000(8)</v>
+      </c>
+      <c r="I77" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>0(0)</v>
+      </c>
+      <c r="J77" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>1(1)</v>
+      </c>
+      <c r="K77" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>11(3)</v>
+      </c>
+      <c r="L77" s="3">
+        <v>20418013</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C77" s="4" t="str">
-        <f>HEX2BIN(MIDB($N77,1,1))&amp;"("&amp;MIDB($N77,1,1)&amp;")"</f>
-        <v>10(2)</v>
-      </c>
-      <c r="D77" s="4" t="str">
-        <f>DEC2BIN(QUOTIENT(HEX2DEC(MIDB($N77,2,1)),4))&amp;"("&amp;QUOTIENT(HEX2DEC(MIDB($N77,2,1)),4)&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="E77" s="4" t="str">
-        <f>RIGHT(HEX2BIN(MIDB($N77,2,1)),2)&amp;"("&amp;BIN2HEX(RIGHT(HEX2BIN(MIDB($N77,2,1)),2))&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="F77" s="4" t="str">
-        <f>HEX2BIN(MIDB($N77,3,1))&amp;"("&amp;MIDB($N77,3,1)&amp;")"</f>
-        <v>100(4)</v>
-      </c>
-      <c r="G77" s="4" t="str">
-        <f>HEX2BIN(MIDB($N77,4,1))&amp;"("&amp;MIDB($N77,4,1)&amp;")"</f>
-        <v>1(1)</v>
-      </c>
-      <c r="H77" s="4" t="str">
-        <f>HEX2BIN(MIDB($N77,5,1))&amp;"("&amp;MIDB($N77,5,1)&amp;")"</f>
-        <v>1000(8)</v>
-      </c>
-      <c r="I77" s="4" t="str">
-        <f>HEX2BIN(MIDB($N77,6,1))&amp;"("&amp;MIDB($N77,6,1)&amp;")"</f>
-        <v>0(0)</v>
-      </c>
-      <c r="J77" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N77,7,1)),3,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N77,7,1)),3,2))&amp;")"</f>
-        <v>(0)</v>
-      </c>
-      <c r="K77" s="4" t="str">
-        <f>MID(HEX2BIN(MIDB($N77,7,1)),1,2)&amp;"("&amp;BIN2HEX(MID(HEX2BIN(MIDB($N77,7,1)),1,2))&amp;")"</f>
-        <v>1(1)</v>
-      </c>
-      <c r="L77" s="4" t="str">
-        <f>HEX2BIN(MIDB($N77,7,1))</f>
-        <v>1</v>
-      </c>
-      <c r="M77" s="4" t="str">
-        <f>HEX2BIN(MIDB($N77,8,1))</f>
-        <v>11</v>
-      </c>
-      <c r="N77" s="3">
-        <v>20418013</v>
-      </c>
-      <c r="O77" s="1" t="s">
+      <c r="L78" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="P77" s="1" t="s">
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L79" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="M79" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="2" t="s">
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L80" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="N78" s="3" t="s">
+      <c r="M80" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N79" s="3" t="s">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L81" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="O79" s="1" t="s">
+      <c r="M81" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N80" s="3" t="s">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L82" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="O80" s="1" t="s">
+      <c r="M82" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N81" s="3" t="s">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="O81" s="1" t="s">
+      <c r="B84" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N82" s="3" t="s">
+      <c r="L84" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="O82" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="N84" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
